--- a/Report/AA/PP_LV.xlsx
+++ b/Report/AA/PP_LV.xlsx
@@ -541,10 +541,10 @@
         <v>40939</v>
       </c>
       <c r="B2" t="n">
-        <v>6.037340641021729</v>
+        <v>6.037341117858887</v>
       </c>
       <c r="C2" t="n">
-        <v>77.20835876464844</v>
+        <v>77.20835113525391</v>
       </c>
       <c r="D2" t="n">
         <v>169.3099975585938</v>
@@ -595,40 +595,40 @@
         <v>40968</v>
       </c>
       <c r="B3" t="n">
-        <v>6.547319889068604</v>
+        <v>6.547320365905762</v>
       </c>
       <c r="C3" t="n">
-        <v>77.09970855712891</v>
+        <v>77.09967041015625</v>
       </c>
       <c r="D3" t="n">
         <v>164.2899932861328</v>
       </c>
       <c r="E3" t="n">
-        <v>91.093017578125</v>
+        <v>91.09299468994141</v>
       </c>
       <c r="F3" t="n">
-        <v>8.447084210914579</v>
+        <v>8.44708354375272</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1407233740723934</v>
+        <v>-0.1407629142439082</v>
       </c>
       <c r="H3" t="n">
         <v>-2.964978054957235</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.596988028717373</v>
+        <v>-2.597012502360685</v>
       </c>
       <c r="J3" t="n">
-        <v>27.11177105272865</v>
+        <v>27.11177088593818</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>24.9648191564819</v>
+        <v>24.96480927143902</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1407233740723939</v>
+        <v>-0.1407629142439077</v>
       </c>
       <c r="N3" t="n">
         <v>24.25875548626069</v>
@@ -637,16 +637,16 @@
         <v>-2.964978054957228</v>
       </c>
       <c r="P3" t="n">
-        <v>24.35075299282066</v>
+        <v>24.35074687440983</v>
       </c>
       <c r="Q3" t="n">
-        <v>-2.596988028717377</v>
+        <v>-2.597012502360684</v>
       </c>
       <c r="R3" t="b">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>100.6860986882919</v>
+        <v>100.6860825180477</v>
       </c>
       <c r="T3" t="n">
         <v>-0</v>
@@ -657,40 +657,40 @@
         <v>40999</v>
       </c>
       <c r="B4" t="n">
-        <v>6.986535549163818</v>
+        <v>6.986536979675293</v>
       </c>
       <c r="C4" t="n">
-        <v>77.04035186767578</v>
+        <v>77.04026031494141</v>
       </c>
       <c r="D4" t="n">
         <v>162.1199951171875</v>
       </c>
       <c r="E4" t="n">
-        <v>87.23428344726562</v>
+        <v>87.23431396484375</v>
       </c>
       <c r="F4" t="n">
-        <v>6.70832749181125</v>
+        <v>6.708341569120235</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.07698691806227176</v>
+        <v>-0.07705622462300665</v>
       </c>
       <c r="H4" t="n">
         <v>-1.320834048100528</v>
       </c>
       <c r="I4" t="n">
-        <v>-4.236037221568568</v>
+        <v>-4.235979658185219</v>
       </c>
       <c r="J4" t="n">
-        <v>28.93051744377577</v>
+        <v>28.93052108240421</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>24.9455995116135</v>
+        <v>24.94557233193012</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.2176019535459801</v>
+        <v>-0.217710672279523</v>
       </c>
       <c r="N4" t="n">
         <v>23.93833758415271</v>
@@ -699,16 +699,16 @@
         <v>-4.246649663389178</v>
       </c>
       <c r="P4" t="n">
-        <v>23.31924603231255</v>
+        <v>23.31925419019366</v>
       </c>
       <c r="Q4" t="n">
-        <v>-6.723015870749791</v>
+        <v>-6.722983239225372</v>
       </c>
       <c r="R4" t="b">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>101.1337005718545</v>
+        <v>101.1336851886807</v>
       </c>
       <c r="T4" t="n">
         <v>-0</v>
@@ -722,37 +722,37 @@
         <v>6.874004364013672</v>
       </c>
       <c r="C5" t="n">
-        <v>77.19566345214844</v>
+        <v>77.19563293457031</v>
       </c>
       <c r="D5" t="n">
         <v>161.8800048828125</v>
       </c>
       <c r="E5" t="n">
-        <v>91.45143890380859</v>
+        <v>91.45140838623047</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.61068650346472</v>
+        <v>-1.610706648930538</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2015977091322396</v>
+        <v>0.2016771737189726</v>
       </c>
       <c r="H5" t="n">
         <v>-0.1480324707643366</v>
       </c>
       <c r="I5" t="n">
-        <v>4.834286807768984</v>
+        <v>4.834215149655718</v>
       </c>
       <c r="J5" t="n">
-        <v>28.46453750392636</v>
+        <v>28.46453525575967</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.610686503464726</v>
+        <v>-1.610706648930533</v>
       </c>
       <c r="L5" t="n">
-        <v>24.99588926875822</v>
+        <v>24.99588185717718</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.01644292496712296</v>
+        <v>-0.01647257129128832</v>
       </c>
       <c r="N5" t="n">
         <v>23.90290107156698</v>
@@ -761,16 +761,16 @@
         <v>-4.388395713732095</v>
       </c>
       <c r="P5" t="n">
-        <v>24.44656526692383</v>
+        <v>24.44655710904273</v>
       </c>
       <c r="Q5" t="n">
-        <v>-2.213738932304679</v>
+        <v>-2.213771563829098</v>
       </c>
       <c r="R5" t="b">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>101.8098931111754</v>
+        <v>101.8098752935466</v>
       </c>
       <c r="T5" t="n">
         <v>-0</v>
@@ -781,37 +781,37 @@
         <v>41060</v>
       </c>
       <c r="B6" t="n">
-        <v>6.092267990112305</v>
+        <v>6.092269420623779</v>
       </c>
       <c r="C6" t="n">
-        <v>77.23960113525391</v>
+        <v>77.23954772949219</v>
       </c>
       <c r="D6" t="n">
         <v>151.6199951171875</v>
       </c>
       <c r="E6" t="n">
-        <v>99.70526123046875</v>
+        <v>99.70521545410156</v>
       </c>
       <c r="F6" t="n">
-        <v>-11.37235783546867</v>
+        <v>-11.37233702501528</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0569172944963503</v>
+        <v>0.05688766741389628</v>
       </c>
       <c r="H6" t="n">
         <v>-6.338034010471139</v>
       </c>
       <c r="I6" t="n">
-        <v>9.025360809622441</v>
+        <v>9.025347136276407</v>
       </c>
       <c r="J6" t="n">
-        <v>25.22744844276867</v>
+        <v>25.22745237387039</v>
       </c>
       <c r="K6" t="n">
-        <v>-12.7998713061518</v>
+        <v>-12.79986868534511</v>
       </c>
       <c r="L6" t="n">
-        <v>25.0101162526653</v>
+        <v>25.01010143131526</v>
       </c>
       <c r="M6" t="n">
         <v>-0</v>
@@ -823,7 +823,7 @@
         <v>-10.44829171135284</v>
       </c>
       <c r="P6" t="n">
-        <v>26.65295598782355</v>
+        <v>26.65294375100189</v>
       </c>
       <c r="Q6" t="n">
         <v>-0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>99.27844775541931</v>
+        <v>99.27842462834933</v>
       </c>
       <c r="T6" t="n">
-        <v>-2.486443388160484</v>
+        <v>-2.486449038365228</v>
       </c>
     </row>
     <row r="7">
@@ -846,37 +846,37 @@
         <v>6.53499698638916</v>
       </c>
       <c r="C7" t="n">
-        <v>77.16458129882812</v>
+        <v>77.16457366943359</v>
       </c>
       <c r="D7" t="n">
         <v>155.1900024414062</v>
       </c>
       <c r="E7" t="n">
-        <v>98.03195190429688</v>
+        <v>98.03199768066406</v>
       </c>
       <c r="F7" t="n">
-        <v>7.267063710844646</v>
+        <v>7.267038523717329</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.09712613131496184</v>
+        <v>-0.09706693301877456</v>
       </c>
       <c r="H7" t="n">
         <v>2.354575543588089</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.678255796656525</v>
+        <v>-1.678164743756816</v>
       </c>
       <c r="J7" t="n">
-        <v>27.06074319372516</v>
+        <v>27.06074105643199</v>
       </c>
       <c r="K7" t="n">
-        <v>-6.462982398031329</v>
+        <v>-6.46300154997704</v>
       </c>
       <c r="L7" t="n">
-        <v>24.98582489431171</v>
+        <v>24.985824892911</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.09712613131495518</v>
+        <v>-0.09706693301877323</v>
       </c>
       <c r="N7" t="n">
         <v>22.91506772771925</v>
@@ -885,19 +885,19 @@
         <v>-8.339729089122997</v>
       </c>
       <c r="P7" t="n">
-        <v>26.20565120897759</v>
+        <v>26.20566344579924</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1.678255796656525</v>
+        <v>-1.678164743756819</v>
       </c>
       <c r="R7" t="b">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>101.1672870247337</v>
+        <v>101.1672971228615</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.631182360382177</v>
+        <v>-0.6311550513467876</v>
       </c>
     </row>
     <row r="8">
@@ -905,37 +905,37 @@
         <v>41121</v>
       </c>
       <c r="B8" t="n">
-        <v>6.700379848480225</v>
+        <v>6.700378894805908</v>
       </c>
       <c r="C8" t="n">
-        <v>77.33477020263672</v>
+        <v>77.33479309082031</v>
       </c>
       <c r="D8" t="n">
         <v>156.4900054931641</v>
       </c>
       <c r="E8" t="n">
-        <v>101.7742004394531</v>
+        <v>101.7741012573242</v>
       </c>
       <c r="F8" t="n">
-        <v>2.530725912123866</v>
+        <v>2.530711318784062</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2205531358351109</v>
+        <v>0.2205927063317015</v>
       </c>
       <c r="H8" t="n">
         <v>0.8376847936764742</v>
       </c>
       <c r="I8" t="n">
-        <v>3.817376337471678</v>
+        <v>3.817226686382469</v>
       </c>
       <c r="J8" t="n">
-        <v>27.74557643374205</v>
+        <v>27.74557029329396</v>
       </c>
       <c r="K8" t="n">
-        <v>-4.095816856150451</v>
+        <v>-4.095850142951442</v>
       </c>
       <c r="L8" t="n">
-        <v>25.04093191463038</v>
+        <v>25.04094180024157</v>
       </c>
       <c r="M8" t="n">
         <v>-0</v>
@@ -947,7 +947,7 @@
         <v>-7.571904937859926</v>
       </c>
       <c r="P8" t="n">
-        <v>27.20601953730946</v>
+        <v>27.20599302419586</v>
       </c>
       <c r="Q8" t="n">
         <v>-0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.0995516512169</v>
+        <v>103.0995288832664</v>
       </c>
       <c r="T8" t="n">
         <v>-0</v>
@@ -967,37 +967,37 @@
         <v>41152</v>
       </c>
       <c r="B9" t="n">
-        <v>7.009572982788086</v>
+        <v>7.00957202911377</v>
       </c>
       <c r="C9" t="n">
-        <v>77.3402099609375</v>
+        <v>77.34023284912109</v>
       </c>
       <c r="D9" t="n">
         <v>164.2200012207031</v>
       </c>
       <c r="E9" t="n">
-        <v>100.4318542480469</v>
+        <v>100.4318695068359</v>
       </c>
       <c r="F9" t="n">
-        <v>4.614561283088925</v>
+        <v>4.614561939885897</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007034039522624269</v>
+        <v>0.007034037440800667</v>
       </c>
       <c r="H9" t="n">
         <v>4.939609851235338</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.318945455341436</v>
+        <v>-1.318834294684268</v>
       </c>
       <c r="J9" t="n">
-        <v>29.02591306162336</v>
+        <v>29.02590682005259</v>
       </c>
       <c r="K9" t="n">
         <v>-0</v>
       </c>
       <c r="L9" t="n">
-        <v>25.04269330367809</v>
+        <v>25.04270318946333</v>
       </c>
       <c r="M9" t="n">
         <v>-0</v>
@@ -1009,16 +1009,16 @@
         <v>-3.006317648861298</v>
       </c>
       <c r="P9" t="n">
-        <v>26.84718697904281</v>
+        <v>26.84719105798336</v>
       </c>
       <c r="Q9" t="n">
-        <v>-1.318945455341431</v>
+        <v>-1.318834294684264</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>105.1642139321289</v>
+        <v>105.164221655284</v>
       </c>
       <c r="T9" t="n">
         <v>-0</v>
@@ -1029,10 +1029,10 @@
         <v>41182</v>
       </c>
       <c r="B10" t="n">
-        <v>7.350564002990723</v>
+        <v>7.350565433502197</v>
       </c>
       <c r="C10" t="n">
-        <v>77.35303497314453</v>
+        <v>77.35306549072266</v>
       </c>
       <c r="D10" t="n">
         <v>171.8899993896484</v>
@@ -1041,25 +1041,25 @@
         <v>97.88813781738281</v>
       </c>
       <c r="F10" t="n">
-        <v>4.864647547574386</v>
+        <v>4.864682222711103</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01658259295327369</v>
+        <v>0.01659245276206534</v>
       </c>
       <c r="H10" t="n">
         <v>4.6705627280061</v>
       </c>
       <c r="I10" t="n">
-        <v>-2.532778519035983</v>
+        <v>-2.532793327400906</v>
       </c>
       <c r="J10" t="n">
-        <v>30.43792142953669</v>
+        <v>30.43792494910838</v>
       </c>
       <c r="K10" t="n">
         <v>-0</v>
       </c>
       <c r="L10" t="n">
-        <v>25.04684603157318</v>
+        <v>25.04685838816038</v>
       </c>
       <c r="M10" t="n">
         <v>-0</v>
@@ -1071,16 +1071,16 @@
         <v>-0</v>
       </c>
       <c r="P10" t="n">
-        <v>26.16720719427219</v>
+        <v>26.16720719427218</v>
       </c>
       <c r="Q10" t="n">
-        <v>-3.81831800720673</v>
+        <v>-3.818224275069933</v>
       </c>
       <c r="R10" t="b">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>107.0329329372699</v>
+        <v>107.0329488134288</v>
       </c>
       <c r="T10" t="n">
         <v>-0</v>
@@ -1091,40 +1091,40 @@
         <v>41213</v>
       </c>
       <c r="B11" t="n">
-        <v>7.045590877532959</v>
+        <v>7.045591354370117</v>
       </c>
       <c r="C11" t="n">
-        <v>77.29994964599609</v>
+        <v>77.29991912841797</v>
       </c>
       <c r="D11" t="n">
         <v>166.8300018310547</v>
       </c>
       <c r="E11" t="n">
-        <v>97.41432952880859</v>
+        <v>97.41428375244141</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.148975851835035</v>
+        <v>-4.148988018555388</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06862733591108672</v>
+        <v>-0.06870621347393469</v>
       </c>
       <c r="H11" t="n">
         <v>-2.943741681634138</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4840303423262027</v>
+        <v>-0.4840771062837201</v>
       </c>
       <c r="J11" t="n">
-        <v>29.17505941962469</v>
+        <v>29.17505908987299</v>
       </c>
       <c r="K11" t="n">
-        <v>-4.148975851835035</v>
+        <v>-4.148988018555384</v>
       </c>
       <c r="L11" t="n">
-        <v>25.02965704841196</v>
+        <v>25.0296496401677</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.06862733591108139</v>
+        <v>-0.0687062134739324</v>
       </c>
       <c r="N11" t="n">
         <v>24.6338084337458</v>
@@ -1133,19 +1133,19 @@
         <v>-2.943741681634132</v>
       </c>
       <c r="P11" t="n">
-        <v>26.04054997171254</v>
+        <v>26.04053773489089</v>
       </c>
       <c r="Q11" t="n">
-        <v>-4.28386653181155</v>
+        <v>-4.283818231771468</v>
       </c>
       <c r="R11" t="b">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.879074873495</v>
+        <v>104.8790548986774</v>
       </c>
       <c r="T11" t="n">
-        <v>-2.012332096923182</v>
+        <v>-2.01236529370592</v>
       </c>
     </row>
     <row r="12">
@@ -1162,31 +1162,31 @@
         <v>166.0500030517578</v>
       </c>
       <c r="E12" t="n">
-        <v>98.54354095458984</v>
+        <v>98.54355621337891</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9372837450742466</v>
+        <v>0.9372769137601544</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02369752678161863</v>
+        <v>0.02373701558104901</v>
       </c>
       <c r="H12" t="n">
         <v>-0.4675410721908135</v>
       </c>
       <c r="I12" t="n">
-        <v>1.15918410694118</v>
+        <v>1.159247306901445</v>
       </c>
       <c r="J12" t="n">
-        <v>29.44851250918058</v>
+        <v>29.44851018329825</v>
       </c>
       <c r="K12" t="n">
-        <v>-3.250579783007099</v>
+        <v>-3.250598611647827</v>
       </c>
       <c r="L12" t="n">
-        <v>25.03558845809435</v>
+        <v>25.03559093200267</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.04494607211077566</v>
+        <v>-0.04498550669748074</v>
       </c>
       <c r="N12" t="n">
         <v>24.51863526167323</v>
@@ -1195,19 +1195,19 @@
         <v>-3.397519552404106</v>
       </c>
       <c r="P12" t="n">
-        <v>26.34240788834471</v>
+        <v>26.34241196728526</v>
       </c>
       <c r="Q12" t="n">
-        <v>-3.174340324869696</v>
+        <v>-3.174230972354393</v>
       </c>
       <c r="R12" t="b">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>105.3451441172929</v>
+        <v>105.3451483442594</v>
       </c>
       <c r="T12" t="n">
-        <v>-1.576887387516738</v>
+        <v>-1.576898037361811</v>
       </c>
     </row>
     <row r="13">
@@ -1215,40 +1215,40 @@
         <v>41274</v>
       </c>
       <c r="B13" t="n">
-        <v>7.259578227996826</v>
+        <v>7.259577751159668</v>
       </c>
       <c r="C13" t="n">
-        <v>77.33750152587891</v>
+        <v>77.33745574951172</v>
       </c>
       <c r="D13" t="n">
         <v>162.0200042724609</v>
       </c>
       <c r="E13" t="n">
-        <v>96.09208679199219</v>
+        <v>96.09209442138672</v>
       </c>
       <c r="F13" t="n">
-        <v>2.080398064524558</v>
+        <v>2.080391359489453</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02487601462761724</v>
+        <v>0.02481680951544885</v>
       </c>
       <c r="H13" t="n">
         <v>-2.426979045607558</v>
       </c>
       <c r="I13" t="n">
-        <v>-2.487686294657621</v>
+        <v>-2.487693651611245</v>
       </c>
       <c r="J13" t="n">
-        <v>30.06115879345285</v>
+        <v>30.06115444464996</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.237806717374045</v>
+        <v>-1.237832424806782</v>
       </c>
       <c r="L13" t="n">
-        <v>25.0418163147413</v>
+        <v>25.04180396691533</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.02008123827463575</v>
+        <v>-0.02017986114953933</v>
       </c>
       <c r="N13" t="n">
         <v>23.92357312160348</v>
@@ -1257,19 +1257,19 @@
         <v>-5.74204151040439</v>
       </c>
       <c r="P13" t="n">
-        <v>25.68709141762355</v>
+        <v>25.68709345709383</v>
       </c>
       <c r="Q13" t="n">
-        <v>-5.583058990319749</v>
+        <v>-5.582959481578896</v>
       </c>
       <c r="R13" t="b">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>104.7136396474212</v>
+        <v>104.7136249902626</v>
       </c>
       <c r="T13" t="n">
-        <v>-2.166896885099905</v>
+        <v>-2.166925090711179</v>
       </c>
     </row>
     <row r="14">
@@ -1277,40 +1277,40 @@
         <v>41305</v>
       </c>
       <c r="B14" t="n">
-        <v>8.005388259887695</v>
+        <v>8.005386352539062</v>
       </c>
       <c r="C14" t="n">
-        <v>77.34665679931641</v>
+        <v>77.34667205810547</v>
       </c>
       <c r="D14" t="n">
         <v>161.1999969482422</v>
       </c>
       <c r="E14" t="n">
-        <v>93.03120422363281</v>
+        <v>93.03121948242188</v>
       </c>
       <c r="F14" t="n">
-        <v>10.27346229309336</v>
+        <v>10.27344326273325</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01183807759090882</v>
+        <v>0.01191700516189886</v>
       </c>
       <c r="H14" t="n">
         <v>-0.5061148639644464</v>
       </c>
       <c r="I14" t="n">
-        <v>-3.185363821877629</v>
+        <v>-3.185355629300968</v>
       </c>
       <c r="J14" t="n">
-        <v>33.14948060696515</v>
+        <v>33.14947009064369</v>
       </c>
       <c r="K14" t="n">
         <v>-0</v>
       </c>
       <c r="L14" t="n">
-        <v>25.04478078438681</v>
+        <v>25.0447881999867</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.008245537916293956</v>
+        <v>-0.008265260822735467</v>
       </c>
       <c r="N14" t="n">
         <v>23.80249236204364</v>
@@ -1319,19 +1319,19 @@
         <v>-6.219095048789671</v>
       </c>
       <c r="P14" t="n">
-        <v>24.86886410071394</v>
+        <v>24.86886817965449</v>
       </c>
       <c r="Q14" t="n">
-        <v>-8.590582070965644</v>
+        <v>-8.590477996751797</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>106.8656178541095</v>
+        <v>106.8656188323285</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.1563211233859002</v>
+        <v>-0.1563350192210564</v>
       </c>
     </row>
     <row r="15">
@@ -1339,37 +1339,37 @@
         <v>41333</v>
       </c>
       <c r="B15" t="n">
-        <v>8.178605079650879</v>
+        <v>8.178606033325195</v>
       </c>
       <c r="C15" t="n">
-        <v>77.39335632324219</v>
+        <v>77.39340972900391</v>
       </c>
       <c r="D15" t="n">
         <v>153</v>
       </c>
       <c r="E15" t="n">
-        <v>94.18358612060547</v>
+        <v>94.18363952636719</v>
       </c>
       <c r="F15" t="n">
-        <v>2.163752889177339</v>
+        <v>2.163789143433315</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06037691331242101</v>
+        <v>0.06042622087647498</v>
       </c>
       <c r="H15" t="n">
         <v>-5.086846838387372</v>
       </c>
       <c r="I15" t="n">
-        <v>1.238704697622217</v>
+        <v>1.238745498937655</v>
       </c>
       <c r="J15" t="n">
-        <v>33.86675345134564</v>
+        <v>33.86675472557071</v>
       </c>
       <c r="K15" t="n">
         <v>-0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.05990204997028</v>
+        <v>25.05992181902247</v>
       </c>
       <c r="M15" t="n">
         <v>-0</v>
@@ -1381,19 +1381,19 @@
         <v>-10.98958604731138</v>
       </c>
       <c r="P15" t="n">
-        <v>25.17691588857477</v>
+        <v>25.1769301648667</v>
       </c>
       <c r="Q15" t="n">
-        <v>-7.458289317009566</v>
+        <v>-7.458146657336134</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>106.6952674217583</v>
+        <v>106.6953027413275</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.3154781488698722</v>
+        <v>-0.3154599362574726</v>
       </c>
     </row>
     <row r="16">
@@ -1404,7 +1404,7 @@
         <v>8.78279972076416</v>
       </c>
       <c r="C16" t="n">
-        <v>77.41904449462891</v>
+        <v>77.41900634765625</v>
       </c>
       <c r="D16" t="n">
         <v>154.4499969482422</v>
@@ -1413,25 +1413,25 @@
         <v>93.78858947753906</v>
       </c>
       <c r="F16" t="n">
-        <v>7.387502333577323</v>
+        <v>7.387489811553083</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03319170095095192</v>
+        <v>0.03307338278797367</v>
       </c>
       <c r="H16" t="n">
         <v>0.9477104236877087</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4193901074870943</v>
+        <v>-0.4194465735394837</v>
       </c>
       <c r="J16" t="n">
-        <v>36.36866065287067</v>
+        <v>36.36865778042591</v>
       </c>
       <c r="K16" t="n">
         <v>-0</v>
       </c>
       <c r="L16" t="n">
-        <v>25.06821985771731</v>
+        <v>25.06820998289204</v>
       </c>
       <c r="M16" t="n">
         <v>-0</v>
@@ -1443,16 +1443,16 @@
         <v>-10.14602507611418</v>
       </c>
       <c r="P16" t="n">
-        <v>25.07132639396774</v>
+        <v>25.07132639396773</v>
       </c>
       <c r="Q16" t="n">
-        <v>-7.84640009691335</v>
+        <v>-7.846310290271876</v>
       </c>
       <c r="R16" t="b">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>109.3140067946052</v>
+        <v>109.3139940473352</v>
       </c>
       <c r="T16" t="n">
         <v>-0</v>
@@ -1463,37 +1463,37 @@
         <v>41394</v>
       </c>
       <c r="B17" t="n">
-        <v>9.122173309326172</v>
+        <v>9.122176170349121</v>
       </c>
       <c r="C17" t="n">
-        <v>77.47222900390625</v>
+        <v>77.47223663330078</v>
       </c>
       <c r="D17" t="n">
         <v>142.7700042724609</v>
       </c>
       <c r="E17" t="n">
-        <v>98.18251800537109</v>
+        <v>98.18248748779297</v>
       </c>
       <c r="F17" t="n">
-        <v>3.86407067622947</v>
+        <v>3.86410325152482</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06869693319584425</v>
+        <v>0.0687560951189381</v>
       </c>
       <c r="H17" t="n">
         <v>-7.56231330952718</v>
       </c>
       <c r="I17" t="n">
-        <v>4.684928680886391</v>
+        <v>4.684896142196671</v>
       </c>
       <c r="J17" t="n">
-        <v>37.77397140449565</v>
+        <v>37.77398026825529</v>
       </c>
       <c r="K17" t="n">
         <v>-0</v>
       </c>
       <c r="L17" t="n">
-        <v>25.08544095596635</v>
+        <v>25.0854459051925</v>
       </c>
       <c r="M17" t="n">
         <v>-0</v>
@@ -1505,16 +1505,16 @@
         <v>-16.9410641809224</v>
       </c>
       <c r="P17" t="n">
-        <v>26.24590015487738</v>
+        <v>26.24589199699626</v>
       </c>
       <c r="Q17" t="n">
-        <v>-3.52906966458435</v>
+        <v>-3.529005636168934</v>
       </c>
       <c r="R17" t="b">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>110.1864663649595</v>
+        <v>110.1864720200642</v>
       </c>
       <c r="T17" t="n">
         <v>-0</v>
@@ -1525,40 +1525,40 @@
         <v>41425</v>
       </c>
       <c r="B18" t="n">
-        <v>9.537364959716797</v>
+        <v>9.537365913391113</v>
       </c>
       <c r="C18" t="n">
-        <v>77.36864471435547</v>
+        <v>77.36859893798828</v>
       </c>
       <c r="D18" t="n">
         <v>133.9199981689453</v>
       </c>
       <c r="E18" t="n">
-        <v>91.54443359375</v>
+        <v>91.54440307617188</v>
       </c>
       <c r="F18" t="n">
-        <v>4.551455407738736</v>
+        <v>4.551433071327127</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1337050590677569</v>
+        <v>-0.1337739812560801</v>
       </c>
       <c r="H18" t="n">
         <v>-6.198785346133606</v>
       </c>
       <c r="I18" t="n">
-        <v>-6.760963709708435</v>
+        <v>-6.760965811185427</v>
       </c>
       <c r="J18" t="n">
-        <v>39.49323686870326</v>
+        <v>39.49323769854124</v>
       </c>
       <c r="K18" t="n">
         <v>-0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.05190045231877</v>
+        <v>25.05188810548928</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.1337050590677591</v>
+        <v>-0.1337739812560847</v>
       </c>
       <c r="N18" t="n">
         <v>19.774378373994</v>
@@ -1567,19 +1567,19 @@
         <v>-22.0897093231299</v>
       </c>
       <c r="P18" t="n">
-        <v>24.47142437011981</v>
+        <v>24.47141621223869</v>
       </c>
       <c r="Q18" t="n">
-        <v>-10.05143425497991</v>
+        <v>-10.05137658281817</v>
       </c>
       <c r="R18" t="b">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>108.7909400651358</v>
+        <v>108.7909203902632</v>
       </c>
       <c r="T18" t="n">
-        <v>-1.266513344026684</v>
+        <v>-1.266536267307711</v>
       </c>
     </row>
     <row r="19">
@@ -1587,10 +1587,10 @@
         <v>41455</v>
       </c>
       <c r="B19" t="n">
-        <v>9.240612983703613</v>
+        <v>9.240614891052246</v>
       </c>
       <c r="C19" t="n">
-        <v>77.29248046875</v>
+        <v>77.29248809814453</v>
       </c>
       <c r="D19" t="n">
         <v>119.1100006103516</v>
@@ -1599,28 +1599,28 @@
         <v>88.54972076416016</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.111467132342971</v>
+        <v>-3.111456821869529</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.09844329816900421</v>
+        <v>-0.09837432871797613</v>
       </c>
       <c r="H19" t="n">
         <v>-11.05883942733509</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.27132159982505</v>
+        <v>-3.271289353997886</v>
       </c>
       <c r="J19" t="n">
-        <v>38.2644177840352</v>
+        <v>38.26442265999283</v>
       </c>
       <c r="K19" t="n">
-        <v>-3.111467132342977</v>
+        <v>-3.111456821869533</v>
       </c>
       <c r="L19" t="n">
-        <v>25.02723853525949</v>
+        <v>25.02724347873433</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.2320167335667914</v>
+        <v>-0.2320167107179956</v>
       </c>
       <c r="N19" t="n">
         <v>17.58756162186033</v>
@@ -1629,19 +1629,19 @@
         <v>-30.70568326645499</v>
       </c>
       <c r="P19" t="n">
-        <v>23.67088537891523</v>
+        <v>23.67088537891522</v>
       </c>
       <c r="Q19" t="n">
-        <v>-12.99394111492958</v>
+        <v>-12.99385632473209</v>
       </c>
       <c r="R19" t="b">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>104.5501033200702</v>
+        <v>104.5501131395027</v>
       </c>
       <c r="T19" t="n">
-        <v>-5.115295218035678</v>
+        <v>-5.115291176157402</v>
       </c>
     </row>
     <row r="20">
@@ -1649,40 +1649,40 @@
         <v>41486</v>
       </c>
       <c r="B20" t="n">
-        <v>10.20284843444824</v>
+        <v>10.20285224914551</v>
       </c>
       <c r="C20" t="n">
-        <v>77.41816711425781</v>
+        <v>77.41815948486328</v>
       </c>
       <c r="D20" t="n">
         <v>127.9599990844727</v>
       </c>
       <c r="E20" t="n">
-        <v>86.55030822753906</v>
+        <v>86.55032348632812</v>
       </c>
       <c r="F20" t="n">
-        <v>10.41311277121539</v>
+        <v>10.41313126277996</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1626117375785663</v>
+        <v>0.162591979907778</v>
       </c>
       <c r="H20" t="n">
         <v>7.430105304988111</v>
       </c>
       <c r="I20" t="n">
-        <v>-2.257954648943783</v>
+        <v>-2.257937417055378</v>
       </c>
       <c r="J20" t="n">
-        <v>42.24893475913578</v>
+        <v>42.24894721852281</v>
       </c>
       <c r="K20" t="n">
         <v>-0</v>
       </c>
       <c r="L20" t="n">
-        <v>25.06793576270961</v>
+        <v>25.06793576942274</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.06978228243015433</v>
+        <v>-0.06980197137388647</v>
       </c>
       <c r="N20" t="n">
         <v>18.89433597094423</v>
@@ -1691,19 +1691,19 @@
         <v>-25.55704256278059</v>
       </c>
       <c r="P20" t="n">
-        <v>23.13640752205585</v>
+        <v>23.1364116009964</v>
       </c>
       <c r="Q20" t="n">
-        <v>-14.9584984663878</v>
+        <v>-14.95840059791292</v>
       </c>
       <c r="R20" t="b">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.3476140148455</v>
+        <v>109.3476305598862</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.7613025245183854</v>
+        <v>-0.76129260225817</v>
       </c>
     </row>
     <row r="21">
@@ -1714,37 +1714,37 @@
         <v>9.582635879516602</v>
       </c>
       <c r="C21" t="n">
-        <v>77.34292602539062</v>
+        <v>77.34293365478516</v>
       </c>
       <c r="D21" t="n">
         <v>134.6199951171875</v>
       </c>
       <c r="E21" t="n">
-        <v>85.39020538330078</v>
+        <v>85.39019775390625</v>
       </c>
       <c r="F21" t="n">
-        <v>-6.078817684261528</v>
+        <v>-6.078852800018241</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.09718789745583045</v>
+        <v>-0.09716819745997363</v>
       </c>
       <c r="H21" t="n">
         <v>5.204748421667516</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.340379795284374</v>
+        <v>-1.340406003918793</v>
       </c>
       <c r="J21" t="n">
-        <v>39.68069904158531</v>
+        <v>39.6806959075514</v>
       </c>
       <c r="K21" t="n">
-        <v>-6.078817684261536</v>
+        <v>-6.078852800018248</v>
       </c>
       <c r="L21" t="n">
-        <v>25.04357276300625</v>
+        <v>25.04357770809517</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.1669023599528977</v>
+        <v>-0.1669023435164835</v>
       </c>
       <c r="N21" t="n">
         <v>19.87773862417651</v>
@@ -1753,19 +1753,19 @@
         <v>-21.68247391052429</v>
       </c>
       <c r="P21" t="n">
-        <v>22.82629179027557</v>
+        <v>22.82628975080528</v>
       </c>
       <c r="Q21" t="n">
-        <v>-16.09837757055078</v>
+        <v>-16.09830330212707</v>
       </c>
       <c r="R21" t="b">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>107.4283022190436</v>
+        <v>107.4283019906284</v>
       </c>
       <c r="T21" t="n">
-        <v>-2.503178690548344</v>
+        <v>-2.503183901680393</v>
       </c>
     </row>
     <row r="22">
@@ -1776,34 +1776,34 @@
         <v>10.20339775085449</v>
       </c>
       <c r="C22" t="n">
-        <v>77.51549530029297</v>
+        <v>77.51544189453125</v>
       </c>
       <c r="D22" t="n">
         <v>128.1799926757812</v>
       </c>
       <c r="E22" t="n">
-        <v>85.94675445556641</v>
+        <v>85.94671630859375</v>
       </c>
       <c r="F22" t="n">
         <v>6.477986632725985</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2231222475933992</v>
+        <v>0.2230433106094276</v>
       </c>
       <c r="H22" t="n">
         <v>-4.783837969835158</v>
       </c>
       <c r="I22" t="n">
-        <v>0.651771558303893</v>
+        <v>0.6517358775668614</v>
       </c>
       <c r="J22" t="n">
-        <v>42.25120942127144</v>
+        <v>42.25120608421523</v>
       </c>
       <c r="K22" t="n">
         <v>-0</v>
       </c>
       <c r="L22" t="n">
-        <v>25.09945054543276</v>
+        <v>25.09943573291035</v>
       </c>
       <c r="M22" t="n">
         <v>-0</v>
@@ -1815,19 +1815,19 @@
         <v>-25.42905746062819</v>
       </c>
       <c r="P22" t="n">
-        <v>22.97506706798004</v>
+        <v>22.97505687062865</v>
       </c>
       <c r="Q22" t="n">
-        <v>-15.55153065860011</v>
+        <v>-15.5514858428597</v>
       </c>
       <c r="R22" t="b">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>109.2525468510128</v>
+        <v>109.2525185040828</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.8475809641207586</v>
+        <v>-0.8476117792493928</v>
       </c>
     </row>
     <row r="23">
@@ -1835,37 +1835,37 @@
         <v>41578</v>
       </c>
       <c r="B23" t="n">
-        <v>11.12922382354736</v>
+        <v>11.129225730896</v>
       </c>
       <c r="C23" t="n">
-        <v>77.56867218017578</v>
+        <v>77.56869506835938</v>
       </c>
       <c r="D23" t="n">
         <v>127.7399978637695</v>
       </c>
       <c r="E23" t="n">
-        <v>87.17617034912109</v>
+        <v>87.17610931396484</v>
       </c>
       <c r="F23" t="n">
-        <v>9.073703635784835</v>
+        <v>9.073722329054256</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06860161271859955</v>
+        <v>0.06870008417236839</v>
       </c>
       <c r="H23" t="n">
         <v>-0.3432632525768975</v>
       </c>
       <c r="I23" t="n">
-        <v>1.430438998357153</v>
+        <v>1.43041300258282</v>
       </c>
       <c r="J23" t="n">
-        <v>46.08495894669241</v>
+        <v>46.08496320497339</v>
       </c>
       <c r="K23" t="n">
         <v>-0</v>
       </c>
       <c r="L23" t="n">
-        <v>25.11666917329043</v>
+        <v>25.11667906638565</v>
       </c>
       <c r="M23" t="n">
         <v>-0</v>
@@ -1877,16 +1877,16 @@
         <v>-25.68503210346608</v>
       </c>
       <c r="P23" t="n">
-        <v>23.30371138721913</v>
+        <v>23.30369507145691</v>
       </c>
       <c r="Q23" t="n">
-        <v>-14.34354681962505</v>
+        <v>-14.34352331586797</v>
       </c>
       <c r="R23" t="b">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>113.3671905062196</v>
+        <v>113.3671883418336</v>
       </c>
       <c r="T23" t="n">
         <v>-0</v>
@@ -1897,37 +1897,37 @@
         <v>41608</v>
       </c>
       <c r="B24" t="n">
-        <v>11.77176189422607</v>
+        <v>11.77176284790039</v>
       </c>
       <c r="C24" t="n">
-        <v>77.64122009277344</v>
+        <v>77.64119720458984</v>
       </c>
       <c r="D24" t="n">
         <v>120.6999969482422</v>
       </c>
       <c r="E24" t="n">
-        <v>84.81959533691406</v>
+        <v>84.81957244873047</v>
       </c>
       <c r="F24" t="n">
-        <v>5.773431111334282</v>
+        <v>5.773421552773783</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09352733591874163</v>
+        <v>0.09346829435066262</v>
       </c>
       <c r="H24" t="n">
         <v>-5.511195422936577</v>
       </c>
       <c r="I24" t="n">
-        <v>-2.703233008251538</v>
+        <v>-2.703191142365968</v>
       </c>
       <c r="J24" t="n">
-        <v>48.74564230416638</v>
+        <v>48.74564240323719</v>
       </c>
       <c r="K24" t="n">
         <v>-0</v>
       </c>
       <c r="L24" t="n">
-        <v>25.14016012483973</v>
+        <v>25.14015519790653</v>
       </c>
       <c r="M24" t="n">
         <v>-0</v>
@@ -1939,16 +1939,16 @@
         <v>-29.78067521273664</v>
       </c>
       <c r="P24" t="n">
-        <v>22.67375776885216</v>
+        <v>22.67375165044132</v>
       </c>
       <c r="Q24" t="n">
-        <v>-16.65904033569447</v>
+        <v>-16.6589816064562</v>
       </c>
       <c r="R24" t="b">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>114.381897727937</v>
+        <v>114.3818867816637</v>
       </c>
       <c r="T24" t="n">
         <v>-0</v>
@@ -1962,37 +1962,37 @@
         <v>12.37526226043701</v>
       </c>
       <c r="C25" t="n">
-        <v>77.50346374511719</v>
+        <v>77.50349426269531</v>
       </c>
       <c r="D25" t="n">
         <v>116.120002746582</v>
       </c>
       <c r="E25" t="n">
-        <v>83.23373413085938</v>
+        <v>83.23372650146484</v>
       </c>
       <c r="F25" t="n">
-        <v>5.126678331023227</v>
+        <v>5.126669814319795</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1774268197893392</v>
+        <v>-0.177358086753443</v>
       </c>
       <c r="H25" t="n">
         <v>-3.794527189279151</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.869687304867995</v>
+        <v>-1.86966981969191</v>
       </c>
       <c r="J25" t="n">
-        <v>51.24467458549217</v>
+        <v>51.24467053812022</v>
       </c>
       <c r="K25" t="n">
         <v>-0</v>
       </c>
       <c r="L25" t="n">
-        <v>25.09555473824028</v>
+        <v>25.09556709964068</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.1774268197893364</v>
+        <v>-0.1773580867534361</v>
       </c>
       <c r="N25" t="n">
         <v>17.14606408673475</v>
@@ -2001,16 +2001,16 @@
         <v>-32.44516658391758</v>
       </c>
       <c r="P25" t="n">
-        <v>22.24982939831141</v>
+        <v>22.24982735884112</v>
       </c>
       <c r="Q25" t="n">
-        <v>-18.21725567829315</v>
+        <v>-18.21718347478417</v>
       </c>
       <c r="R25" t="b">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.7361228087786</v>
+        <v>115.7361290833368</v>
       </c>
       <c r="T25" t="n">
         <v>-0</v>
@@ -2021,7 +2021,7 @@
         <v>41670</v>
       </c>
       <c r="B26" t="n">
-        <v>11.47993850708008</v>
+        <v>11.47993755340576</v>
       </c>
       <c r="C26" t="n">
         <v>77.65964508056641</v>
@@ -2030,28 +2030,28 @@
         <v>120.0899963378906</v>
       </c>
       <c r="E26" t="n">
-        <v>88.47972106933594</v>
+        <v>88.47974395751953</v>
       </c>
       <c r="F26" t="n">
-        <v>-7.234786095962031</v>
+        <v>-7.234793802257833</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2015152973844359</v>
+        <v>0.2014758422914875</v>
       </c>
       <c r="H26" t="n">
         <v>3.418871423877445</v>
       </c>
       <c r="I26" t="n">
-        <v>6.302717273538239</v>
+        <v>6.302754516178433</v>
       </c>
       <c r="J26" t="n">
-        <v>47.53723199365999</v>
+        <v>47.53722429004086</v>
       </c>
       <c r="K26" t="n">
-        <v>-7.234786095962031</v>
+        <v>-7.234793802257826</v>
       </c>
       <c r="L26" t="n">
-        <v>25.14612612000132</v>
+        <v>25.14612860483251</v>
       </c>
       <c r="M26" t="n">
         <v>-0</v>
@@ -2063,19 +2063,19 @@
         <v>-30.13555368880713</v>
       </c>
       <c r="P26" t="n">
-        <v>23.65217323913157</v>
+        <v>23.65217935754238</v>
       </c>
       <c r="Q26" t="n">
-        <v>-13.06272052515532</v>
+        <v>-13.06261331278321</v>
       </c>
       <c r="R26" t="b">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>114.0677973249087</v>
+        <v>114.0677982245316</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.441490732004491</v>
+        <v>-1.441495297984172</v>
       </c>
     </row>
     <row r="27">
@@ -2083,10 +2083,10 @@
         <v>41698</v>
       </c>
       <c r="B27" t="n">
-        <v>12.52006149291992</v>
+        <v>12.52005577087402</v>
       </c>
       <c r="C27" t="n">
-        <v>77.68996429443359</v>
+        <v>77.68993377685547</v>
       </c>
       <c r="D27" t="n">
         <v>127.620002746582</v>
@@ -2095,25 +2095,25 @@
         <v>88.94342803955078</v>
       </c>
       <c r="F27" t="n">
-        <v>9.060353286721568</v>
+        <v>9.060312502829682</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03904114400179459</v>
+        <v>0.03900184743008683</v>
       </c>
       <c r="H27" t="n">
         <v>6.27030280482701</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5240827667748471</v>
+        <v>0.5240567629285486</v>
       </c>
       <c r="J27" t="n">
-        <v>51.84427315501402</v>
+        <v>51.84424536588962</v>
       </c>
       <c r="K27" t="n">
         <v>-0</v>
       </c>
       <c r="L27" t="n">
-        <v>25.15594345531071</v>
+        <v>25.15593605954554</v>
       </c>
       <c r="M27" t="n">
         <v>-0</v>
@@ -2125,16 +2125,16 @@
         <v>-25.75484135217954</v>
       </c>
       <c r="P27" t="n">
-        <v>23.77613020304559</v>
+        <v>23.77613020304558</v>
       </c>
       <c r="Q27" t="n">
-        <v>-12.60709722552476</v>
+        <v>-12.6070120583355</v>
       </c>
       <c r="R27" t="b">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>119.6204795560951</v>
+        <v>119.6204443712055</v>
       </c>
       <c r="T27" t="n">
         <v>-0</v>
@@ -2145,7 +2145,7 @@
         <v>41729</v>
       </c>
       <c r="B28" t="n">
-        <v>12.71073150634766</v>
+        <v>12.71073055267334</v>
       </c>
       <c r="C28" t="n">
         <v>77.60540008544922</v>
@@ -2154,31 +2154,31 @@
         <v>123.6100006103516</v>
       </c>
       <c r="E28" t="n">
-        <v>89.59459686279297</v>
+        <v>89.59463500976562</v>
       </c>
       <c r="F28" t="n">
-        <v>1.522915950017967</v>
+        <v>1.52295473190216</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1088483046071342</v>
+        <v>-0.1088090661128027</v>
       </c>
       <c r="H28" t="n">
         <v>-3.142142336568687</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7321157252367483</v>
+        <v>0.7321586142657655</v>
       </c>
       <c r="J28" t="n">
-        <v>52.63381786006261</v>
+        <v>52.6338097539084</v>
       </c>
       <c r="K28" t="n">
         <v>-0</v>
       </c>
       <c r="L28" t="n">
-        <v>25.12856163735167</v>
+        <v>25.12856412044721</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.1088483046071369</v>
+        <v>-0.1088090661128083</v>
       </c>
       <c r="N28" t="n">
         <v>18.25202326985644</v>
@@ -2187,16 +2187,16 @@
         <v>-28.0877299149053</v>
       </c>
       <c r="P28" t="n">
-        <v>23.95019899111485</v>
+        <v>23.95020918846622</v>
       </c>
       <c r="Q28" t="n">
-        <v>-11.96728004157197</v>
+        <v>-11.96715676885636</v>
       </c>
       <c r="R28" t="b">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>119.9646017583856</v>
+        <v>119.9646063326783</v>
       </c>
       <c r="T28" t="n">
         <v>-0</v>
@@ -2207,40 +2207,40 @@
         <v>41759</v>
       </c>
       <c r="B29" t="n">
-        <v>12.86764049530029</v>
+        <v>12.86764144897461</v>
       </c>
       <c r="C29" t="n">
-        <v>77.68903350830078</v>
+        <v>77.68904876708984</v>
       </c>
       <c r="D29" t="n">
         <v>124.2200012207031</v>
       </c>
       <c r="E29" t="n">
-        <v>91.47184753417969</v>
+        <v>91.47183227539062</v>
       </c>
       <c r="F29" t="n">
-        <v>1.234460730086839</v>
+        <v>1.234475828521653</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1077675300423353</v>
+        <v>0.1077871920620588</v>
       </c>
       <c r="H29" t="n">
         <v>0.49348807324614</v>
       </c>
       <c r="I29" t="n">
-        <v>2.095272189528985</v>
+        <v>2.095211689204812</v>
       </c>
       <c r="J29" t="n">
-        <v>53.28356167229052</v>
+        <v>53.28356141295048</v>
       </c>
       <c r="K29" t="n">
         <v>-0</v>
       </c>
       <c r="L29" t="n">
-        <v>25.15564206756341</v>
+        <v>25.15564949411815</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.001198077694169356</v>
+        <v>-0.001139156287826924</v>
       </c>
       <c r="N29" t="n">
         <v>18.34209482781929</v>
@@ -2249,16 +2249,16 @@
         <v>-27.7328514388348</v>
       </c>
       <c r="P29" t="n">
-        <v>24.45202084991253</v>
+        <v>24.45201677097197</v>
       </c>
       <c r="Q29" t="n">
-        <v>-10.1227549425971</v>
+        <v>-10.1226823471381</v>
       </c>
       <c r="R29" t="b">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>121.2333194175857</v>
+        <v>121.2333225058599</v>
       </c>
       <c r="T29" t="n">
         <v>-0</v>
@@ -2272,34 +2272,34 @@
         <v>13.4349193572998</v>
       </c>
       <c r="C30" t="n">
-        <v>77.82789611816406</v>
+        <v>77.827880859375</v>
       </c>
       <c r="D30" t="n">
         <v>120.4300003051758</v>
       </c>
       <c r="E30" t="n">
-        <v>94.16979217529297</v>
+        <v>94.16985321044922</v>
       </c>
       <c r="F30" t="n">
-        <v>4.408569404831453</v>
+        <v>4.408561666679023</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1787415849991758</v>
+        <v>0.1787022681940309</v>
       </c>
       <c r="H30" t="n">
         <v>-3.051039187154414</v>
       </c>
       <c r="I30" t="n">
-        <v>2.949480866345411</v>
+        <v>2.949564765397694</v>
       </c>
       <c r="J30" t="n">
-        <v>55.63260446997962</v>
+        <v>55.63260007604319</v>
       </c>
       <c r="K30" t="n">
         <v>-0</v>
       </c>
       <c r="L30" t="n">
-        <v>25.20060566091169</v>
+        <v>25.20060321034308</v>
       </c>
       <c r="M30" t="n">
         <v>-0</v>
@@ -2311,16 +2311,16 @@
         <v>-29.93775046087506</v>
       </c>
       <c r="P30" t="n">
-        <v>25.17322852631549</v>
+        <v>25.17324484207769</v>
       </c>
       <c r="Q30" t="n">
-        <v>-7.471842796430623</v>
+        <v>-7.471692653564721</v>
       </c>
       <c r="R30" t="b">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>123.7889089840843</v>
+        <v>123.7889184553415</v>
       </c>
       <c r="T30" t="n">
         <v>-0</v>
@@ -2331,40 +2331,40 @@
         <v>41820</v>
       </c>
       <c r="B31" t="n">
-        <v>13.98553943634033</v>
+        <v>13.98554039001465</v>
       </c>
       <c r="C31" t="n">
-        <v>77.76626586914062</v>
+        <v>77.76624298095703</v>
       </c>
       <c r="D31" t="n">
         <v>128.0399932861328</v>
       </c>
       <c r="E31" t="n">
-        <v>93.93319702148438</v>
+        <v>93.93318939208984</v>
       </c>
       <c r="F31" t="n">
-        <v>4.098424891112962</v>
+        <v>4.098431989587392</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.07918786463129157</v>
+        <v>-0.07919768306340336</v>
       </c>
       <c r="H31" t="n">
         <v>6.319017654797743</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.2512431516979219</v>
+        <v>-0.2513159044970403</v>
       </c>
       <c r="J31" t="n">
-        <v>57.91266497915169</v>
+        <v>57.91266435419897</v>
       </c>
       <c r="K31" t="n">
         <v>-0</v>
       </c>
       <c r="L31" t="n">
-        <v>25.18064983941466</v>
+        <v>25.18064491648249</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.07918786463129068</v>
+        <v>-0.07919768306340412</v>
       </c>
       <c r="N31" t="n">
         <v>18.90614776629206</v>
@@ -2373,16 +2373,16 @@
         <v>-25.5105045431493</v>
       </c>
       <c r="P31" t="n">
-        <v>25.10998251358185</v>
+        <v>25.10998047411157</v>
       </c>
       <c r="Q31" t="n">
-        <v>-7.704313454796879</v>
+        <v>-7.704231006088222</v>
       </c>
       <c r="R31" t="b">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>127.1094450984403</v>
+        <v>127.1094375110851</v>
       </c>
       <c r="T31" t="n">
         <v>-0</v>
@@ -2393,40 +2393,40 @@
         <v>41851</v>
       </c>
       <c r="B32" t="n">
-        <v>13.58329200744629</v>
+        <v>13.58329582214355</v>
       </c>
       <c r="C32" t="n">
-        <v>77.70645141601562</v>
+        <v>77.70643615722656</v>
       </c>
       <c r="D32" t="n">
         <v>123.3899993896484</v>
       </c>
       <c r="E32" t="n">
-        <v>94.55702209472656</v>
+        <v>94.55703735351562</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.876166705796379</v>
+        <v>-2.876146052663697</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.07691568118449732</v>
+        <v>-0.07690589314583995</v>
       </c>
       <c r="H32" t="n">
         <v>-3.631673024297155</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6641156620055266</v>
+        <v>0.6641400823959698</v>
       </c>
       <c r="J32" t="n">
-        <v>56.24700019058192</v>
+        <v>56.2470115443833</v>
       </c>
       <c r="K32" t="n">
-        <v>-2.876166705796385</v>
+        <v>-2.876146052663695</v>
       </c>
       <c r="L32" t="n">
-        <v>25.16128197106399</v>
+        <v>25.16127951660958</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.1560426379302976</v>
+        <v>-0.156042668523733</v>
       </c>
       <c r="N32" t="n">
         <v>18.21953829792987</v>
@@ -2435,19 +2435,19 @@
         <v>-28.2157194555908</v>
       </c>
       <c r="P32" t="n">
-        <v>25.2767418401814</v>
+        <v>25.27674591912194</v>
       </c>
       <c r="Q32" t="n">
-        <v>-7.091363345094657</v>
+        <v>-7.091257809844061</v>
       </c>
       <c r="R32" t="b">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.9045622997572</v>
+        <v>124.9045752780447</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.734633328762859</v>
+        <v>-1.734617252828389</v>
       </c>
     </row>
     <row r="33">
@@ -2458,7 +2458,7 @@
         <v>14.65232467651367</v>
       </c>
       <c r="C33" t="n">
-        <v>77.85095977783203</v>
+        <v>77.85092163085938</v>
       </c>
       <c r="D33" t="n">
         <v>123.8600006103516</v>
@@ -2467,25 +2467,25 @@
         <v>99.02368927001953</v>
       </c>
       <c r="F33" t="n">
-        <v>7.870203103057372</v>
+        <v>7.870172809071718</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1859670068354413</v>
+        <v>0.1859375886708703</v>
       </c>
       <c r="H33" t="n">
         <v>0.3809070613728816</v>
       </c>
       <c r="I33" t="n">
-        <v>4.723781562006346</v>
+        <v>4.723764662596874</v>
       </c>
       <c r="J33" t="n">
-        <v>60.67375334495779</v>
+        <v>60.67374855286478</v>
       </c>
       <c r="K33" t="n">
         <v>-0</v>
       </c>
       <c r="L33" t="n">
-        <v>25.20807365402701</v>
+        <v>25.2080637930215</v>
       </c>
       <c r="M33" t="n">
         <v>-0</v>
@@ -2497,16 +2497,16 @@
         <v>-27.94228806204143</v>
       </c>
       <c r="P33" t="n">
-        <v>26.47075991070383</v>
+        <v>26.47075991070382</v>
       </c>
       <c r="Q33" t="n">
-        <v>-2.702562297278771</v>
+        <v>-2.702467477802242</v>
       </c>
       <c r="R33" t="b">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>130.6415247155448</v>
+        <v>130.6415100624463</v>
       </c>
       <c r="T33" t="n">
         <v>-0</v>
@@ -2517,40 +2517,40 @@
         <v>41912</v>
       </c>
       <c r="B34" t="n">
-        <v>14.2224702835083</v>
+        <v>14.22246742248535</v>
       </c>
       <c r="C34" t="n">
-        <v>77.79387664794922</v>
+        <v>77.79386138916016</v>
       </c>
       <c r="D34" t="n">
         <v>116.2099990844727</v>
       </c>
       <c r="E34" t="n">
-        <v>96.93198394775391</v>
+        <v>96.9320068359375</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.933694157722211</v>
+        <v>-2.933713683790684</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.07332360454606057</v>
+        <v>-0.07329424045842137</v>
       </c>
       <c r="H34" t="n">
         <v>-6.17632931388793</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.11232820922469</v>
+        <v>-2.112305095378131</v>
       </c>
       <c r="J34" t="n">
-        <v>58.89377098780598</v>
+        <v>58.89375448910064</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.933694157722207</v>
+        <v>-2.933713683790678</v>
       </c>
       <c r="L34" t="n">
-        <v>25.18959018578725</v>
+        <v>25.18958773413013</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.07332360454605835</v>
+        <v>-0.07329424045842249</v>
       </c>
       <c r="N34" t="n">
         <v>17.1593527789544</v>
@@ -2559,19 +2559,19 @@
         <v>-32.39280964738248</v>
       </c>
       <c r="P34" t="n">
-        <v>25.91161058191389</v>
+        <v>25.91161670032471</v>
       </c>
       <c r="Q34" t="n">
-        <v>-4.757803520726176</v>
+        <v>-4.757688214945819</v>
       </c>
       <c r="R34" t="b">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>127.1543245344615</v>
+        <v>127.1543117025099</v>
       </c>
       <c r="T34" t="n">
-        <v>-2.669289254451259</v>
+        <v>-2.669288159842599</v>
       </c>
     </row>
     <row r="35">
@@ -2579,37 +2579,37 @@
         <v>41943</v>
       </c>
       <c r="B35" t="n">
-        <v>14.84482860565186</v>
+        <v>14.84482765197754</v>
       </c>
       <c r="C35" t="n">
-        <v>77.99645233154297</v>
+        <v>77.99641418457031</v>
       </c>
       <c r="D35" t="n">
         <v>112.6600036621094</v>
       </c>
       <c r="E35" t="n">
-        <v>99.66407012939453</v>
+        <v>99.66408538818359</v>
       </c>
       <c r="F35" t="n">
-        <v>4.375880629296947</v>
+        <v>4.375894920372625</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2604005512033991</v>
+        <v>0.2603711806988152</v>
       </c>
       <c r="H35" t="n">
         <v>-3.054810644807593</v>
       </c>
       <c r="I35" t="n">
-        <v>2.818560056619912</v>
+        <v>2.818551520211776</v>
       </c>
       <c r="J35" t="n">
-        <v>61.47089210432389</v>
+        <v>61.47088330020592</v>
       </c>
       <c r="K35" t="n">
         <v>-0</v>
       </c>
       <c r="L35" t="n">
-        <v>25.25518401747692</v>
+        <v>25.25517416112665</v>
       </c>
       <c r="M35" t="n">
         <v>-0</v>
@@ -2621,19 +2621,19 @@
         <v>-34.45808129492957</v>
       </c>
       <c r="P35" t="n">
-        <v>26.64194488780262</v>
+        <v>26.64194896674316</v>
       </c>
       <c r="Q35" t="n">
-        <v>-2.073345013713902</v>
+        <v>-2.073234588243336</v>
       </c>
       <c r="R35" t="b">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.0031880532862</v>
+        <v>130.0031734717585</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.4886169720144538</v>
+        <v>-0.488616972034904</v>
       </c>
     </row>
     <row r="36">
@@ -2641,37 +2641,37 @@
         <v>41973</v>
       </c>
       <c r="B36" t="n">
-        <v>15.66658687591553</v>
+        <v>15.66658592224121</v>
       </c>
       <c r="C36" t="n">
-        <v>78.07840728759766</v>
+        <v>78.07841491699219</v>
       </c>
       <c r="D36" t="n">
         <v>112.1100006103516</v>
       </c>
       <c r="E36" t="n">
-        <v>102.6215286254883</v>
+        <v>102.6214828491211</v>
       </c>
       <c r="F36" t="n">
-        <v>5.535653472959634</v>
+        <v>5.535653828585896</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1050752356098528</v>
+        <v>0.1051339773490367</v>
       </c>
       <c r="H36" t="n">
         <v>-0.488197260677703</v>
       </c>
       <c r="I36" t="n">
-        <v>2.967426969673292</v>
+        <v>2.967365274480449</v>
       </c>
       <c r="J36" t="n">
-        <v>64.87370767795616</v>
+        <v>64.87369860507934</v>
       </c>
       <c r="K36" t="n">
         <v>-0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.28172096158698</v>
+        <v>25.28172593020867</v>
       </c>
       <c r="M36" t="n">
         <v>-0</v>
@@ -2683,7 +2683,7 @@
         <v>-34.77805514664333</v>
       </c>
       <c r="P36" t="n">
-        <v>27.43252514564877</v>
+        <v>27.4325129088271</v>
       </c>
       <c r="Q36" t="n">
         <v>-0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>134.1419083990583</v>
+        <v>134.1418920579815</v>
       </c>
       <c r="T36" t="n">
         <v>-0</v>
@@ -2703,40 +2703,40 @@
         <v>42004</v>
       </c>
       <c r="B37" t="n">
-        <v>15.53505516052246</v>
+        <v>15.53505420684814</v>
       </c>
       <c r="C37" t="n">
-        <v>77.84990692138672</v>
+        <v>77.84992218017578</v>
       </c>
       <c r="D37" t="n">
         <v>113.5800018310547</v>
       </c>
       <c r="E37" t="n">
-        <v>105.9580764770508</v>
+        <v>105.9580688476562</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.8395684167511464</v>
+        <v>-0.8395684678583093</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.2926550043077403</v>
+        <v>-0.2926452042594896</v>
       </c>
       <c r="H37" t="n">
         <v>1.311213284006874</v>
       </c>
       <c r="I37" t="n">
-        <v>3.251313731389693</v>
+        <v>3.251352354205173</v>
       </c>
       <c r="J37" t="n">
-        <v>64.32904851751658</v>
+        <v>64.32903948765765</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.8395684167511398</v>
+        <v>-0.8395684678583182</v>
       </c>
       <c r="L37" t="n">
-        <v>25.20773274001778</v>
+        <v>25.20774017171988</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.2926550043077354</v>
+        <v>-0.2926452042594958</v>
       </c>
       <c r="N37" t="n">
         <v>16.77101226579188</v>
@@ -2745,7 +2745,7 @@
         <v>-33.92285634163847</v>
       </c>
       <c r="P37" t="n">
-        <v>28.32444260257618</v>
+        <v>28.32444056310589</v>
       </c>
       <c r="Q37" t="n">
         <v>-0</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>134.6322361259024</v>
+        <v>134.6322324882753</v>
       </c>
       <c r="T37" t="n">
         <v>-0</v>
@@ -2765,7 +2765,7 @@
         <v>42035</v>
       </c>
       <c r="B38" t="n">
-        <v>14.57977676391602</v>
+        <v>14.57977867126465</v>
       </c>
       <c r="C38" t="n">
         <v>78.33852386474609</v>
@@ -2774,28 +2774,28 @@
         <v>123.4499969482422</v>
       </c>
       <c r="E38" t="n">
-        <v>116.3586807250977</v>
+        <v>116.3587265014648</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.149179302780916</v>
+        <v>-6.149161263707681</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6276397271133272</v>
+        <v>0.6276200038318525</v>
       </c>
       <c r="H38" t="n">
         <v>8.689905756357263</v>
       </c>
       <c r="I38" t="n">
-        <v>9.815772986686412</v>
+        <v>9.815824096192616</v>
       </c>
       <c r="J38" t="n">
-        <v>60.37333998040156</v>
+        <v>60.37334311016739</v>
       </c>
       <c r="K38" t="n">
-        <v>-6.937121152216507</v>
+        <v>-6.937103312558151</v>
       </c>
       <c r="L38" t="n">
-        <v>25.36594648499869</v>
+        <v>25.36594899155156</v>
       </c>
       <c r="M38" t="n">
         <v>-0</v>
@@ -2807,7 +2807,7 @@
         <v>-28.18081483123405</v>
       </c>
       <c r="P38" t="n">
-        <v>31.10470558818935</v>
+        <v>31.10471782501099</v>
       </c>
       <c r="Q38" t="n">
         <v>-0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>135.0723894796659</v>
+        <v>135.0724073528062</v>
       </c>
       <c r="T38" t="n">
         <v>-0</v>
@@ -2827,10 +2827,10 @@
         <v>42063</v>
       </c>
       <c r="B39" t="n">
-        <v>16.24212455749512</v>
+        <v>16.24212646484375</v>
       </c>
       <c r="C39" t="n">
-        <v>78.11074829101562</v>
+        <v>78.11071014404297</v>
       </c>
       <c r="D39" t="n">
         <v>116.1600036621094</v>
@@ -2839,28 +2839,28 @@
         <v>109.2161560058594</v>
       </c>
       <c r="F39" t="n">
-        <v>11.40173694355391</v>
+        <v>11.40173545196148</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2907580619258665</v>
+        <v>-0.2908067569621919</v>
       </c>
       <c r="H39" t="n">
         <v>-5.90521949481232</v>
       </c>
       <c r="I39" t="n">
-        <v>-6.138368598482824</v>
+        <v>-6.138405524329582</v>
       </c>
       <c r="J39" t="n">
-        <v>67.2569493890044</v>
+        <v>67.25695197509368</v>
       </c>
       <c r="K39" t="n">
         <v>-0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.29219295060975</v>
+        <v>25.29218309791654</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.2907580619258673</v>
+        <v>-0.2908067569621983</v>
       </c>
       <c r="N39" t="n">
         <v>17.15197054767978</v>
@@ -2869,16 +2869,16 @@
         <v>-32.42189535483537</v>
       </c>
       <c r="P39" t="n">
-        <v>29.1953841077134</v>
+        <v>29.19538410771339</v>
       </c>
       <c r="Q39" t="n">
-        <v>-6.13836859848282</v>
+        <v>-6.138405524329581</v>
       </c>
       <c r="R39" t="b">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.8964969950073</v>
+        <v>138.8964897284034</v>
       </c>
       <c r="T39" t="n">
         <v>-0</v>
@@ -2889,40 +2889,40 @@
         <v>42094</v>
       </c>
       <c r="B40" t="n">
-        <v>15.68401527404785</v>
+        <v>15.68401622772217</v>
       </c>
       <c r="C40" t="n">
-        <v>78.30536651611328</v>
+        <v>78.305419921875</v>
       </c>
       <c r="D40" t="n">
         <v>113.6600036621094</v>
       </c>
       <c r="E40" t="n">
-        <v>110.4090194702148</v>
+        <v>110.409065246582</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.436183988563979</v>
+        <v>-3.436189456655303</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2491567797719307</v>
+        <v>0.2492741103914842</v>
       </c>
       <c r="H40" t="n">
         <v>-2.152203788898022</v>
       </c>
       <c r="I40" t="n">
-        <v>1.092204219576698</v>
+        <v>1.092246133125818</v>
       </c>
       <c r="J40" t="n">
-        <v>64.94587686290285</v>
+        <v>64.9458756824578</v>
       </c>
       <c r="K40" t="n">
-        <v>-3.436183988563989</v>
+        <v>-3.436189456655302</v>
       </c>
       <c r="L40" t="n">
-        <v>25.35521016409919</v>
+        <v>25.35522996233246</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.04232572557796214</v>
+        <v>-0.04225755252709078</v>
       </c>
       <c r="N40" t="n">
         <v>16.78282518768195</v>
@@ -2931,19 +2931,19 @@
         <v>-33.87631388347408</v>
       </c>
       <c r="P40" t="n">
-        <v>29.51425732485947</v>
+        <v>29.51426956168112</v>
       </c>
       <c r="Q40" t="n">
-        <v>-5.113207899751923</v>
+        <v>-5.113205888178829</v>
       </c>
       <c r="R40" t="b">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>136.5981695395434</v>
+        <v>136.5982003941533</v>
       </c>
       <c r="T40" t="n">
-        <v>-1.654705125894215</v>
+        <v>-1.654677766690941</v>
       </c>
     </row>
     <row r="41">
@@ -2951,40 +2951,40 @@
         <v>42124</v>
       </c>
       <c r="B41" t="n">
-        <v>15.97270774841309</v>
+        <v>15.97270965576172</v>
       </c>
       <c r="C41" t="n">
-        <v>78.33031463623047</v>
+        <v>78.330322265625</v>
       </c>
       <c r="D41" t="n">
         <v>113.4700012207031</v>
       </c>
       <c r="E41" t="n">
-        <v>106.6273498535156</v>
+        <v>106.6273727416992</v>
       </c>
       <c r="F41" t="n">
-        <v>1.840679630317177</v>
+        <v>1.840685598942904</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03186003875232934</v>
+        <v>0.03180155827635645</v>
       </c>
       <c r="H41" t="n">
         <v>-0.1671673722368427</v>
       </c>
       <c r="I41" t="n">
-        <v>-3.425145549562103</v>
+        <v>-3.425164859821039</v>
       </c>
       <c r="J41" t="n">
-        <v>66.14132238904918</v>
+        <v>66.14132506325215</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.658753496984529</v>
+        <v>-1.658753302193452</v>
       </c>
       <c r="L41" t="n">
-        <v>25.36328834388321</v>
+        <v>25.36329332056503</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.01047917181819786</v>
+        <v>-0.0104694328109249</v>
       </c>
       <c r="N41" t="n">
         <v>16.7547697798286</v>
@@ -2993,19 +2993,19 @@
         <v>-33.98685111198122</v>
       </c>
       <c r="P41" t="n">
-        <v>28.50335105361074</v>
+        <v>28.50335717202156</v>
       </c>
       <c r="Q41" t="n">
-        <v>-8.363218636495819</v>
+        <v>-8.363235016707668</v>
       </c>
       <c r="R41" t="b">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>136.7627315663717</v>
+        <v>136.7627453356673</v>
       </c>
       <c r="T41" t="n">
-        <v>-1.536226956618154</v>
+        <v>-1.536211891969587</v>
       </c>
     </row>
     <row r="42">
@@ -3013,37 +3013,37 @@
         <v>42155</v>
       </c>
       <c r="B42" t="n">
-        <v>16.34145927429199</v>
+        <v>16.34145736694336</v>
       </c>
       <c r="C42" t="n">
-        <v>78.36264038085938</v>
+        <v>78.36260223388672</v>
       </c>
       <c r="D42" t="n">
         <v>114.0999984741211</v>
       </c>
       <c r="E42" t="n">
-        <v>104.09765625</v>
+        <v>104.0976333618164</v>
       </c>
       <c r="F42" t="n">
-        <v>2.308635027242278</v>
+        <v>2.308610868968142</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04126849838281821</v>
+        <v>0.04121005420130164</v>
       </c>
       <c r="H42" t="n">
         <v>0.5552104050766671</v>
       </c>
       <c r="I42" t="n">
-        <v>-2.372462231304551</v>
+        <v>-2.372504653201024</v>
       </c>
       <c r="J42" t="n">
-        <v>67.66828412520401</v>
+        <v>67.66827088254195</v>
       </c>
       <c r="K42" t="n">
         <v>-0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.37375539212324</v>
+        <v>25.37374554748967</v>
       </c>
       <c r="M42" t="n">
         <v>-0</v>
@@ -3055,19 +3055,19 @@
         <v>-33.62033924063618</v>
       </c>
       <c r="P42" t="n">
-        <v>27.82711981520768</v>
+        <v>27.82711369679684</v>
       </c>
       <c r="Q42" t="n">
-        <v>-10.53726666432808</v>
+        <v>-10.53732152997916</v>
       </c>
       <c r="R42" t="b">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>137.7169533375278</v>
+        <v>137.7169241318213</v>
       </c>
       <c r="T42" t="n">
-        <v>-0.8492249142337758</v>
+        <v>-0.8492407539518018</v>
       </c>
     </row>
     <row r="43">
@@ -3075,37 +3075,37 @@
         <v>42185</v>
       </c>
       <c r="B43" t="n">
-        <v>15.67274284362793</v>
+        <v>15.67274475097656</v>
       </c>
       <c r="C43" t="n">
-        <v>78.38753509521484</v>
+        <v>78.38754272460938</v>
       </c>
       <c r="D43" t="n">
         <v>112.370002746582</v>
       </c>
       <c r="E43" t="n">
-        <v>99.85879516601562</v>
+        <v>99.85880279541016</v>
       </c>
       <c r="F43" t="n">
-        <v>-4.092146358777593</v>
+        <v>-4.092123492727861</v>
       </c>
       <c r="G43" t="n">
-        <v>0.03176860074454169</v>
+        <v>0.03182703229815953</v>
       </c>
       <c r="H43" t="n">
         <v>-1.516210123290618</v>
       </c>
       <c r="I43" t="n">
-        <v>-4.072004343502567</v>
+        <v>-4.071975922519943</v>
       </c>
       <c r="J43" t="n">
-        <v>64.89919890032719</v>
+        <v>64.89920167263472</v>
       </c>
       <c r="K43" t="n">
-        <v>-4.092146358777602</v>
+        <v>-4.092123492727866</v>
       </c>
       <c r="L43" t="n">
-        <v>25.38181627916765</v>
+        <v>25.38182125768033</v>
       </c>
       <c r="M43" t="n">
         <v>-0</v>
@@ -3117,19 +3117,19 @@
         <v>-34.62679437687562</v>
       </c>
       <c r="P43" t="n">
-        <v>26.69399828766076</v>
+        <v>26.69400032713103</v>
       </c>
       <c r="Q43" t="n">
-        <v>-14.18019305157276</v>
+        <v>-14.18022025691985</v>
       </c>
       <c r="R43" t="b">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.5673595138936</v>
+        <v>133.5673693041841</v>
       </c>
       <c r="T43" t="n">
-        <v>-3.836768814482991</v>
+        <v>-3.836756734918087</v>
       </c>
     </row>
     <row r="44">
@@ -3137,37 +3137,37 @@
         <v>42216</v>
       </c>
       <c r="B44" t="n">
-        <v>16.3333625793457</v>
+        <v>16.33336448669434</v>
       </c>
       <c r="C44" t="n">
-        <v>78.42266845703125</v>
+        <v>78.42269134521484</v>
       </c>
       <c r="D44" t="n">
         <v>104.9300003051758</v>
       </c>
       <c r="E44" t="n">
-        <v>104.3983535766602</v>
+        <v>104.3984069824219</v>
       </c>
       <c r="F44" t="n">
-        <v>4.215086933467815</v>
+        <v>4.215086420498304</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0448200874969773</v>
+        <v>0.04483954896883358</v>
       </c>
       <c r="H44" t="n">
         <v>-6.620986259282224</v>
       </c>
       <c r="I44" t="n">
-        <v>4.545977550697966</v>
+        <v>4.546023044470515</v>
       </c>
       <c r="J44" t="n">
-        <v>67.63475655310017</v>
+        <v>67.63475910934976</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.04954695177699638</v>
+        <v>-0.04952361388154548</v>
       </c>
       <c r="L44" t="n">
-        <v>25.3931924314323</v>
+        <v>25.39320235185235</v>
       </c>
       <c r="M44" t="n">
         <v>-0</v>
@@ -3179,19 +3179,19 @@
         <v>-38.95514533843501</v>
       </c>
       <c r="P44" t="n">
-        <v>27.90750145720152</v>
+        <v>27.90751573349344</v>
       </c>
       <c r="Q44" t="n">
-        <v>-10.27884389364492</v>
+        <v>-10.27883329308559</v>
       </c>
       <c r="R44" t="b">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>136.4292195366249</v>
+        <v>136.4292462895864</v>
       </c>
       <c r="T44" t="n">
-        <v>-1.776342464901142</v>
+        <v>-1.77631806508672</v>
       </c>
     </row>
     <row r="45">
@@ -3199,40 +3199,40 @@
         <v>42247</v>
       </c>
       <c r="B45" t="n">
-        <v>14.29564094543457</v>
+        <v>14.29563999176025</v>
       </c>
       <c r="C45" t="n">
-        <v>78.38383483886719</v>
+        <v>78.38388061523438</v>
       </c>
       <c r="D45" t="n">
         <v>108.8199996948242</v>
       </c>
       <c r="E45" t="n">
-        <v>103.6785354614258</v>
+        <v>103.6785507202148</v>
       </c>
       <c r="F45" t="n">
-        <v>-12.47582439936726</v>
+        <v>-12.47584045892122</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.04951835856661368</v>
+        <v>-0.04948915844984469</v>
       </c>
       <c r="H45" t="n">
         <v>3.707232801234017</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.689491826809141</v>
+        <v>-0.6895280138979887</v>
       </c>
       <c r="J45" t="n">
-        <v>59.19676309259585</v>
+        <v>59.1967544680916</v>
       </c>
       <c r="K45" t="n">
-        <v>-12.51918996044533</v>
+        <v>-12.51918558574541</v>
       </c>
       <c r="L45" t="n">
-        <v>25.3806181393526</v>
+        <v>25.38063546970495</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.04951835856660707</v>
+        <v>-0.04948915844983936</v>
       </c>
       <c r="N45" t="n">
         <v>16.06815918492417</v>
@@ -3241,19 +3241,19 @@
         <v>-36.69207046295583</v>
       </c>
       <c r="P45" t="n">
-        <v>27.71508151558747</v>
+        <v>27.71508559452801</v>
       </c>
       <c r="Q45" t="n">
-        <v>-10.8974639319169</v>
+        <v>-10.89748587192588</v>
       </c>
       <c r="R45" t="b">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.3606219324601</v>
+        <v>128.3606347172487</v>
       </c>
       <c r="T45" t="n">
-        <v>-7.585414528435478</v>
+        <v>-7.585400489066611</v>
       </c>
     </row>
     <row r="46">
@@ -3261,37 +3261,37 @@
         <v>42277</v>
       </c>
       <c r="B46" t="n">
-        <v>13.50386810302734</v>
+        <v>13.50386905670166</v>
       </c>
       <c r="C46" t="n">
-        <v>78.61513519287109</v>
+        <v>78.61508178710938</v>
       </c>
       <c r="D46" t="n">
         <v>106.8600006103516</v>
       </c>
       <c r="E46" t="n">
-        <v>105.7177886962891</v>
+        <v>105.7178192138672</v>
       </c>
       <c r="F46" t="n">
-        <v>-5.538561337888703</v>
+        <v>-5.538548365200546</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2950868051804223</v>
+        <v>0.2949600990156398</v>
       </c>
       <c r="H46" t="n">
         <v>-1.801138660144541</v>
       </c>
       <c r="I46" t="n">
-        <v>1.966900116583914</v>
+        <v>1.966914544509279</v>
       </c>
       <c r="J46" t="n">
-        <v>55.91811405866777</v>
+        <v>55.91811359124733</v>
       </c>
       <c r="K46" t="n">
-        <v>-17.36436828336796</v>
+        <v>-17.36435280235023</v>
       </c>
       <c r="L46" t="n">
-        <v>25.45551299455505</v>
+        <v>25.45549821721719</v>
       </c>
       <c r="M46" t="n">
         <v>-0</v>
@@ -3303,19 +3303,19 @@
         <v>-37.8323340567846</v>
       </c>
       <c r="P46" t="n">
-        <v>28.26020948622889</v>
+        <v>28.26021764410998</v>
       </c>
       <c r="Q46" t="n">
-        <v>-9.144906046114553</v>
+        <v>-9.144915562017362</v>
       </c>
       <c r="R46" t="b">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.4125858973226</v>
+        <v>125.4125788104454</v>
       </c>
       <c r="T46" t="n">
-        <v>-9.707884208317635</v>
+        <v>-9.707884586805797</v>
       </c>
     </row>
     <row r="47">
@@ -3323,40 +3323,40 @@
         <v>42308</v>
       </c>
       <c r="B47" t="n">
-        <v>15.85975933074951</v>
+        <v>15.85975646972656</v>
       </c>
       <c r="C47" t="n">
-        <v>78.50405120849609</v>
+        <v>78.50403594970703</v>
       </c>
       <c r="D47" t="n">
         <v>109.3000030517578</v>
       </c>
       <c r="E47" t="n">
-        <v>105.2855911254883</v>
+        <v>105.2856140136719</v>
       </c>
       <c r="F47" t="n">
-        <v>17.44604738248308</v>
+        <v>17.4460179014823</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.1413010155137062</v>
+        <v>-0.1412525877707016</v>
       </c>
       <c r="H47" t="n">
         <v>2.283363679084505</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.4088219930918346</v>
+        <v>-0.4088290918307314</v>
       </c>
       <c r="J47" t="n">
-        <v>65.67361473273388</v>
+        <v>65.67359769854754</v>
       </c>
       <c r="K47" t="n">
-        <v>-2.947716819270117</v>
+        <v>-2.947722999242504</v>
       </c>
       <c r="L47" t="n">
-        <v>25.41954409618953</v>
+        <v>25.41954166725545</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.1413010155137001</v>
+        <v>-0.1412525877706952</v>
       </c>
       <c r="N47" t="n">
         <v>16.13903558972234</v>
@@ -3365,19 +3365,19 @@
         <v>-36.41282015250263</v>
       </c>
       <c r="P47" t="n">
-        <v>28.14467553455536</v>
+        <v>28.14468165296617</v>
       </c>
       <c r="Q47" t="n">
-        <v>-9.516341652042293</v>
+        <v>-9.516357578607206</v>
       </c>
       <c r="R47" t="b">
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>135.3768699532011</v>
+        <v>135.3768566084915</v>
       </c>
       <c r="T47" t="n">
-        <v>-2.533992662127943</v>
+        <v>-2.533997170694632</v>
       </c>
     </row>
     <row r="48">
@@ -3385,40 +3385,40 @@
         <v>42338</v>
       </c>
       <c r="B48" t="n">
-        <v>15.95448398590088</v>
+        <v>15.95447540283203</v>
       </c>
       <c r="C48" t="n">
-        <v>78.30130004882812</v>
+        <v>78.30124664306641</v>
       </c>
       <c r="D48" t="n">
         <v>101.9199981689453</v>
       </c>
       <c r="E48" t="n">
-        <v>104.3720397949219</v>
+        <v>104.3720779418945</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5972641398644063</v>
+        <v>0.5972281685804548</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.2582684034095117</v>
+        <v>-0.2583170459803386</v>
       </c>
       <c r="H48" t="n">
         <v>-6.752062833262484</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.8676888459291265</v>
+        <v>-0.8676741645432307</v>
       </c>
       <c r="J48" t="n">
-        <v>66.0658596828852</v>
+        <v>66.06581892332348</v>
       </c>
       <c r="K48" t="n">
-        <v>-2.368058334911969</v>
+        <v>-2.368099462745241</v>
       </c>
       <c r="L48" t="n">
-        <v>25.35389344549832</v>
+        <v>25.35387865811885</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.3992044830464366</v>
+        <v>-0.3992047542389361</v>
       </c>
       <c r="N48" t="n">
         <v>15.04931776602169</v>
@@ -3427,19 +3427,19 @@
         <v>-40.70626648970527</v>
       </c>
       <c r="P48" t="n">
-        <v>27.90046732421908</v>
+        <v>27.90047752157045</v>
       </c>
       <c r="Q48" t="n">
-        <v>-10.30145826291615</v>
+        <v>-10.30146076703531</v>
       </c>
       <c r="R48" t="b">
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>134.3695382186243</v>
+        <v>134.3694928690345</v>
       </c>
       <c r="T48" t="n">
-        <v>-3.259231783610624</v>
+        <v>-3.259259372372159</v>
       </c>
     </row>
     <row r="49">
@@ -3447,40 +3447,40 @@
         <v>42369</v>
       </c>
       <c r="B49" t="n">
-        <v>15.3493127822876</v>
+        <v>15.34931087493896</v>
       </c>
       <c r="C49" t="n">
-        <v>78.1845703125</v>
+        <v>78.18452453613281</v>
       </c>
       <c r="D49" t="n">
         <v>101.4599990844727</v>
       </c>
       <c r="E49" t="n">
-        <v>104.0618896484375</v>
+        <v>104.0619049072266</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.793110476954797</v>
+        <v>-3.793070675239163</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1490776478236366</v>
+        <v>-0.1490680058590432</v>
       </c>
       <c r="H49" t="n">
         <v>-0.4513334897339294</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.2971582687219532</v>
+        <v>-0.2971800895260945</v>
       </c>
       <c r="J49" t="n">
-        <v>63.55990863756343</v>
+        <v>63.55989571938629</v>
       </c>
       <c r="K49" t="n">
-        <v>-6.071345743064817</v>
+        <v>-6.071346451702516</v>
       </c>
       <c r="L49" t="n">
-        <v>25.31609645751806</v>
+        <v>25.31608413679527</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.5476870062167459</v>
+        <v>-0.5476776735315425</v>
       </c>
       <c r="N49" t="n">
         <v>14.98139515496716</v>
@@ -3489,19 +3489,19 @@
         <v>-40.97387896635082</v>
       </c>
       <c r="P49" t="n">
-        <v>27.81755877855309</v>
+        <v>27.81756285749364</v>
       </c>
       <c r="Q49" t="n">
-        <v>-10.5680048966109</v>
+        <v>-10.56802696623143</v>
       </c>
       <c r="R49" t="b">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>131.6749590286017</v>
+        <v>131.6749378686424</v>
       </c>
       <c r="T49" t="n">
-        <v>-5.199222530907447</v>
+        <v>-5.199232805582038</v>
       </c>
     </row>
     <row r="50">
@@ -3509,37 +3509,37 @@
         <v>42400</v>
       </c>
       <c r="B50" t="n">
-        <v>13.75834465026855</v>
+        <v>13.75834560394287</v>
       </c>
       <c r="C50" t="n">
-        <v>78.69430541992188</v>
+        <v>78.69427490234375</v>
       </c>
       <c r="D50" t="n">
         <v>106.9499969482422</v>
       </c>
       <c r="E50" t="n">
-        <v>109.8613433837891</v>
+        <v>109.8613739013672</v>
       </c>
       <c r="F50" t="n">
-        <v>-10.36507728121188</v>
+        <v>-10.36505992978281</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6519638150909834</v>
+        <v>0.6519837131903961</v>
       </c>
       <c r="H50" t="n">
         <v>5.410997351969926</v>
       </c>
       <c r="I50" t="n">
-        <v>5.573081322032913</v>
+        <v>5.573095168026154</v>
       </c>
       <c r="J50" t="n">
-        <v>56.97187498741232</v>
+        <v>56.97187443676444</v>
       </c>
       <c r="K50" t="n">
-        <v>-15.80712334599846</v>
+        <v>-15.80710768322161</v>
       </c>
       <c r="L50" t="n">
-        <v>25.48114824581461</v>
+        <v>25.48114088218475</v>
       </c>
       <c r="M50" t="n">
         <v>-0</v>
@@ -3551,19 +3551,19 @@
         <v>-37.77997712024951</v>
       </c>
       <c r="P50" t="n">
-        <v>29.36785395108616</v>
+        <v>29.36786210896726</v>
       </c>
       <c r="Q50" t="n">
-        <v>-5.583887081582535</v>
+        <v>-5.583897998416015</v>
       </c>
       <c r="R50" t="b">
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>127.6129152344037</v>
+        <v>127.612915478007</v>
       </c>
       <c r="T50" t="n">
-        <v>-8.123733862783636</v>
+        <v>-8.123728880737106</v>
       </c>
     </row>
     <row r="51">
@@ -3571,37 +3571,37 @@
         <v>42429</v>
       </c>
       <c r="B51" t="n">
-        <v>13.67306995391846</v>
+        <v>13.67307186126709</v>
       </c>
       <c r="C51" t="n">
-        <v>78.78236389160156</v>
+        <v>78.78234100341797</v>
       </c>
       <c r="D51" t="n">
         <v>118.6399993896484</v>
       </c>
       <c r="E51" t="n">
-        <v>113.251579284668</v>
+        <v>113.2516098022461</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.6198034612284076</v>
+        <v>-0.6197964866600181</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1118994204343027</v>
+        <v>0.1119091588092092</v>
       </c>
       <c r="H51" t="n">
         <v>10.9303438756184</v>
       </c>
       <c r="I51" t="n">
-        <v>3.085922487799442</v>
+        <v>3.085921630583854</v>
       </c>
       <c r="J51" t="n">
-        <v>56.61876133431362</v>
+        <v>56.61876476062102</v>
       </c>
       <c r="K51" t="n">
-        <v>-16.32895370960772</v>
+        <v>-16.32893227181846</v>
       </c>
       <c r="L51" t="n">
-        <v>25.50966150302168</v>
+        <v>25.509656612601</v>
       </c>
       <c r="M51" t="n">
         <v>-0</v>
@@ -3613,19 +3613,19 @@
         <v>-30.97911466000432</v>
       </c>
       <c r="P51" t="n">
-        <v>30.27412316034683</v>
+        <v>30.27413131822792</v>
       </c>
       <c r="Q51" t="n">
-        <v>-2.67027902092698</v>
+        <v>-2.670291083995019</v>
       </c>
       <c r="R51" t="b">
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>129.9207081116161</v>
+        <v>129.9207148053839</v>
       </c>
       <c r="T51" t="n">
-        <v>-6.46221400653025</v>
+        <v>-6.462204293694257</v>
       </c>
     </row>
     <row r="52">
@@ -3633,37 +3633,37 @@
         <v>42460</v>
       </c>
       <c r="B52" t="n">
-        <v>15.54909992218018</v>
+        <v>15.54909801483154</v>
       </c>
       <c r="C52" t="n">
-        <v>78.89092254638672</v>
+        <v>78.89093017578125</v>
       </c>
       <c r="D52" t="n">
         <v>117.6399993896484</v>
       </c>
       <c r="E52" t="n">
-        <v>113.1459121704102</v>
+        <v>113.1459274291992</v>
       </c>
       <c r="F52" t="n">
-        <v>13.72061998208443</v>
+        <v>13.72059016875964</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1377956301673366</v>
+        <v>0.1378344067721526</v>
       </c>
       <c r="H52" t="n">
         <v>-0.8428860461434318</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.09330299402907638</v>
+        <v>-0.0933164422398991</v>
       </c>
       <c r="J52" t="n">
-        <v>64.38720641555814</v>
+        <v>64.38719343203994</v>
       </c>
       <c r="K52" t="n">
-        <v>-4.848767413069052</v>
+        <v>-4.848767979009364</v>
       </c>
       <c r="L52" t="n">
-        <v>25.54481270184333</v>
+        <v>25.54481769646259</v>
       </c>
       <c r="M52" t="n">
         <v>-0</v>
@@ -3675,19 +3675,19 @@
         <v>-31.5608820714598</v>
       </c>
       <c r="P52" t="n">
-        <v>30.24587649702217</v>
+        <v>30.24588057596271</v>
       </c>
       <c r="Q52" t="n">
-        <v>-2.761090564680605</v>
+        <v>-2.76111570559788</v>
       </c>
       <c r="R52" t="b">
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>137.5483995843585</v>
+        <v>137.5483956744001</v>
       </c>
       <c r="T52" t="n">
-        <v>-0.9705769690486183</v>
+        <v>-0.9705746031734664</v>
       </c>
     </row>
     <row r="53">
@@ -3695,37 +3695,37 @@
         <v>42490</v>
       </c>
       <c r="B53" t="n">
-        <v>15.64168167114258</v>
+        <v>15.64168071746826</v>
       </c>
       <c r="C53" t="n">
-        <v>78.91968536376953</v>
+        <v>78.91973114013672</v>
       </c>
       <c r="D53" t="n">
         <v>123.6500015258789</v>
       </c>
       <c r="E53" t="n">
-        <v>112.3125534057617</v>
+        <v>112.3125762939453</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5954154865924988</v>
+        <v>0.595421692939424</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03645896949158178</v>
+        <v>0.03650732003197543</v>
       </c>
       <c r="H53" t="n">
         <v>5.108808370802587</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.7365345761615405</v>
+        <v>-0.7365277338641896</v>
       </c>
       <c r="J53" t="n">
-        <v>64.77057781394065</v>
+        <v>64.77056874920918</v>
       </c>
       <c r="K53" t="n">
-        <v>-4.282222238562824</v>
+        <v>-4.282216902457253</v>
       </c>
       <c r="L53" t="n">
-        <v>25.55412607731297</v>
+        <v>25.55414342481062</v>
       </c>
       <c r="M53" t="n">
         <v>-0</v>
@@ -3737,19 +3737,19 @@
         <v>-28.06445868582309</v>
       </c>
       <c r="P53" t="n">
-        <v>30.02310515875849</v>
+        <v>30.02311127716931</v>
       </c>
       <c r="Q53" t="n">
-        <v>-3.477288754154134</v>
+        <v>-3.477307056526255</v>
       </c>
       <c r="R53" t="b">
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>138.6057387808136</v>
+        <v>138.6057531819906</v>
       </c>
       <c r="T53" t="n">
-        <v>-0.209334447220937</v>
+        <v>-0.2093188582240871</v>
       </c>
     </row>
     <row r="54">
@@ -3757,40 +3757,40 @@
         <v>42521</v>
       </c>
       <c r="B54" t="n">
-        <v>16.13870239257812</v>
+        <v>16.13870429992676</v>
       </c>
       <c r="C54" t="n">
-        <v>78.82587432861328</v>
+        <v>78.82588195800781</v>
       </c>
       <c r="D54" t="n">
         <v>116.0599975585938</v>
       </c>
       <c r="E54" t="n">
-        <v>113.2171783447266</v>
+        <v>113.2172164916992</v>
       </c>
       <c r="F54" t="n">
-        <v>3.177540189636407</v>
+        <v>3.177558674391245</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1188689928550035</v>
+        <v>-0.1189172603265232</v>
       </c>
       <c r="H54" t="n">
         <v>-6.138296703293311</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8054530963218509</v>
+        <v>0.8054665181807197</v>
       </c>
       <c r="J54" t="n">
-        <v>66.82868895503833</v>
+        <v>66.82869157495222</v>
       </c>
       <c r="K54" t="n">
-        <v>-1.240751381566303</v>
+        <v>-1.240728182706287</v>
       </c>
       <c r="L54" t="n">
-        <v>25.52375014501197</v>
+        <v>25.52375513754992</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.1188689928549984</v>
+        <v>-0.1189172603265247</v>
       </c>
       <c r="N54" t="n">
         <v>17.13720383204608</v>
@@ -3799,16 +3799,16 @@
         <v>-32.48007564680741</v>
       </c>
       <c r="P54" t="n">
-        <v>30.26492718887167</v>
+        <v>30.26493738622305</v>
       </c>
       <c r="Q54" t="n">
-        <v>-2.699843587770674</v>
+        <v>-2.699849082420187</v>
       </c>
       <c r="R54" t="b">
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>139.7545701209681</v>
+        <v>139.7545879307713</v>
       </c>
       <c r="T54" t="n">
         <v>-0</v>
@@ -3819,37 +3819,37 @@
         <v>42551</v>
       </c>
       <c r="B55" t="n">
-        <v>16.16490936279297</v>
+        <v>16.16489791870117</v>
       </c>
       <c r="C55" t="n">
-        <v>79.30085754394531</v>
+        <v>79.30079650878906</v>
       </c>
       <c r="D55" t="n">
         <v>126.4700012207031</v>
       </c>
       <c r="E55" t="n">
-        <v>121.0678558349609</v>
+        <v>121.0678634643555</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1623858571609516</v>
+        <v>0.1623031086487758</v>
       </c>
       <c r="G55" t="n">
-        <v>0.6025727204139741</v>
+        <v>0.6024855529485285</v>
       </c>
       <c r="H55" t="n">
         <v>8.969501879279118</v>
       </c>
       <c r="I55" t="n">
-        <v>6.934175188795488</v>
+        <v>6.934145897529498</v>
       </c>
       <c r="J55" t="n">
-        <v>66.93720929442739</v>
+        <v>66.93715661884767</v>
       </c>
       <c r="K55" t="n">
-        <v>-1.080380329171552</v>
+        <v>-1.080438814467925</v>
       </c>
       <c r="L55" t="n">
-        <v>25.67754930061244</v>
+        <v>25.67753207482362</v>
       </c>
       <c r="M55" t="n">
         <v>-0</v>
@@ -3861,7 +3861,7 @@
         <v>-26.42387476305996</v>
       </c>
       <c r="P55" t="n">
-        <v>32.36355026090943</v>
+        <v>32.3635523003797</v>
       </c>
       <c r="Q55" t="n">
         <v>-0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>143.6526345077666</v>
+        <v>143.6525666458683</v>
       </c>
       <c r="T55" t="n">
         <v>-0</v>
@@ -3881,40 +3881,40 @@
         <v>42582</v>
       </c>
       <c r="B56" t="n">
-        <v>17.36031532287598</v>
+        <v>17.36031723022461</v>
       </c>
       <c r="C56" t="n">
-        <v>79.26360321044922</v>
+        <v>79.26362609863281</v>
       </c>
       <c r="D56" t="n">
         <v>128.9799957275391</v>
       </c>
       <c r="E56" t="n">
-        <v>123.6132659912109</v>
+        <v>123.6132583618164</v>
       </c>
       <c r="F56" t="n">
-        <v>7.395067508602882</v>
+        <v>7.395155339276571</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04697847494958829</v>
+        <v>-0.04687268198135808</v>
       </c>
       <c r="H56" t="n">
         <v>1.984656031160892</v>
       </c>
       <c r="I56" t="n">
-        <v>2.102465711228829</v>
+        <v>2.102452975235947</v>
       </c>
       <c r="J56" t="n">
-        <v>71.8872611101251</v>
+        <v>71.8872633305063</v>
       </c>
       <c r="K56" t="n">
         <v>-0</v>
       </c>
       <c r="L56" t="n">
-        <v>25.66548637954658</v>
+        <v>25.66549632687353</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.0469784749495826</v>
+        <v>-0.04687268198136036</v>
       </c>
       <c r="N56" t="n">
         <v>19.04494678214477</v>
@@ -3923,7 +3923,7 @@
         <v>-24.96364175605054</v>
       </c>
       <c r="P56" t="n">
-        <v>33.04398280808136</v>
+        <v>33.04398076861108</v>
       </c>
       <c r="Q56" t="n">
         <v>-0</v>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>149.6416770798978</v>
+        <v>149.6416872081357</v>
       </c>
       <c r="T56" t="n">
         <v>-0</v>
@@ -3943,40 +3943,40 @@
         <v>42613</v>
       </c>
       <c r="B57" t="n">
-        <v>17.37739562988281</v>
+        <v>17.37739753723145</v>
       </c>
       <c r="C57" t="n">
-        <v>79.07841491699219</v>
+        <v>79.07843017578125</v>
       </c>
       <c r="D57" t="n">
         <v>124.7799987792969</v>
       </c>
       <c r="E57" t="n">
-        <v>122.3606185913086</v>
+        <v>122.3605422973633</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09838707816747227</v>
+        <v>0.0983870673578302</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2336359766100249</v>
+        <v>-0.2336455344865374</v>
       </c>
       <c r="H57" t="n">
         <v>-3.256316550912575</v>
       </c>
       <c r="I57" t="n">
-        <v>-1.013360006191732</v>
+        <v>-1.013415616621338</v>
       </c>
       <c r="J57" t="n">
-        <v>71.95798888590596</v>
+        <v>71.95799110070098</v>
       </c>
       <c r="K57" t="n">
         <v>-0</v>
       </c>
       <c r="L57" t="n">
-        <v>25.60552256979202</v>
+        <v>25.60553004080198</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.2805046929408648</v>
+        <v>-0.2804087005395539</v>
       </c>
       <c r="N57" t="n">
         <v>18.42478302796529</v>
@@ -3985,19 +3985,19 @@
         <v>-27.40706310875033</v>
       </c>
       <c r="P57" t="n">
-        <v>32.70912830185139</v>
+        <v>32.70910790714862</v>
       </c>
       <c r="Q57" t="n">
-        <v>-1.013360006191727</v>
+        <v>-1.013415616621342</v>
       </c>
       <c r="R57" t="b">
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>148.6974227855147</v>
+        <v>148.6974120766169</v>
       </c>
       <c r="T57" t="n">
-        <v>-0.6310102324494473</v>
+        <v>-0.6310241144270227</v>
       </c>
     </row>
     <row r="58">
@@ -4008,37 +4008,37 @@
         <v>17.32923698425293</v>
       </c>
       <c r="C58" t="n">
-        <v>79.18088531494141</v>
+        <v>79.18085479736328</v>
       </c>
       <c r="D58" t="n">
         <v>125.6399993896484</v>
       </c>
       <c r="E58" t="n">
-        <v>120.5147476196289</v>
+        <v>120.5148315429688</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.2771338505239918</v>
+        <v>-0.2771447961372298</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1295807434390062</v>
+        <v>0.1295228311365637</v>
       </c>
       <c r="H58" t="n">
         <v>0.6892135107908315</v>
       </c>
       <c r="I58" t="n">
-        <v>-1.508549885519128</v>
+        <v>-1.50841988744137</v>
       </c>
       <c r="J58" t="n">
-        <v>71.75856894054682</v>
+        <v>71.7585632729605</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.2771338505239945</v>
+        <v>-0.2771447961372231</v>
       </c>
       <c r="L58" t="n">
-        <v>25.63870239629939</v>
+        <v>25.63869504823835</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.1512874295683543</v>
+        <v>-0.1512490626906822</v>
       </c>
       <c r="N58" t="n">
         <v>18.55176912192793</v>
@@ -4047,19 +4047,19 @@
         <v>-26.90674277981597</v>
       </c>
       <c r="P58" t="n">
-        <v>32.21569478429951</v>
+        <v>32.21571721847253</v>
       </c>
       <c r="Q58" t="n">
-        <v>-2.506622850497557</v>
+        <v>-2.506548941359156</v>
       </c>
       <c r="R58" t="b">
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>148.1647352430736</v>
+        <v>148.1647446615993</v>
       </c>
       <c r="T58" t="n">
-        <v>-0.9869856216831716</v>
+        <v>-0.9869860291551701</v>
       </c>
     </row>
     <row r="59">
@@ -4076,31 +4076,31 @@
         <v>121.9400024414062</v>
       </c>
       <c r="E59" t="n">
-        <v>115.2354965209961</v>
+        <v>115.2355422973633</v>
       </c>
       <c r="F59" t="n">
         <v>-3.67761373025689</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.04825408008577448</v>
+        <v>-0.0482155570713072</v>
       </c>
       <c r="H59" t="n">
         <v>-2.944919584699579</v>
       </c>
       <c r="I59" t="n">
-        <v>-4.380585117512171</v>
+        <v>-4.380613720331317</v>
       </c>
       <c r="J59" t="n">
-        <v>69.11956595655342</v>
+        <v>69.11956049739902</v>
       </c>
       <c r="K59" t="n">
-        <v>-3.944555668242826</v>
+        <v>-3.944566211318687</v>
       </c>
       <c r="L59" t="n">
-        <v>25.62633067631213</v>
+        <v>25.62633320859503</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.1994685072967078</v>
+        <v>-0.1993916941838498</v>
       </c>
       <c r="N59" t="n">
         <v>18.00543443974802</v>
@@ -4109,19 +4109,19 @@
         <v>-29.059280426788</v>
       </c>
       <c r="P59" t="n">
-        <v>30.80445885307534</v>
+        <v>30.80447108989699</v>
       </c>
       <c r="Q59" t="n">
-        <v>-6.777403220468674</v>
+        <v>-6.777360434858472</v>
       </c>
       <c r="R59" t="b">
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>143.5557899256889</v>
+        <v>143.5557992356391</v>
       </c>
       <c r="T59" t="n">
-        <v>-4.066973367960488</v>
+        <v>-4.066973639525853</v>
       </c>
     </row>
     <row r="60">
@@ -4129,40 +4129,40 @@
         <v>42704</v>
       </c>
       <c r="B60" t="n">
-        <v>17.89816856384277</v>
+        <v>17.89817237854004</v>
       </c>
       <c r="C60" t="n">
-        <v>78.77076721191406</v>
+        <v>78.77073669433594</v>
       </c>
       <c r="D60" t="n">
         <v>111.75</v>
       </c>
       <c r="E60" t="n">
-        <v>105.7703628540039</v>
+        <v>105.770378112793</v>
       </c>
       <c r="F60" t="n">
-        <v>7.226448031459265</v>
+        <v>7.226470884995173</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.469923570782893</v>
+        <v>-0.4699621309872781</v>
       </c>
       <c r="H60" t="n">
         <v>-8.356570639157301</v>
       </c>
       <c r="I60" t="n">
-        <v>-8.213730970706257</v>
+        <v>-8.213754190652068</v>
       </c>
       <c r="J60" t="n">
-        <v>74.11445546997396</v>
+        <v>74.11446541258019</v>
       </c>
       <c r="K60" t="n">
         <v>-0</v>
       </c>
       <c r="L60" t="n">
-        <v>25.50590650813737</v>
+        <v>25.50589914695401</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.6684547285475236</v>
+        <v>-0.6684167597161293</v>
       </c>
       <c r="N60" t="n">
         <v>16.50079759190332</v>
@@ -4171,19 +4171,19 @@
         <v>-34.98749176984996</v>
       </c>
       <c r="P60" t="n">
-        <v>28.27426347590183</v>
+        <v>28.27426755484237</v>
       </c>
       <c r="Q60" t="n">
-        <v>-14.43445652384565</v>
+        <v>-14.43443889877675</v>
       </c>
       <c r="R60" t="b">
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>144.3954230459165</v>
+        <v>144.3954297062799</v>
       </c>
       <c r="T60" t="n">
-        <v>-3.505877597977055</v>
+        <v>-3.505879678139933</v>
       </c>
     </row>
     <row r="61">
@@ -4191,40 +4191,40 @@
         <v>42735</v>
       </c>
       <c r="B61" t="n">
-        <v>18.61400985717773</v>
+        <v>18.61401557922363</v>
       </c>
       <c r="C61" t="n">
-        <v>78.82769012451172</v>
+        <v>78.82771301269531</v>
       </c>
       <c r="D61" t="n">
         <v>109.6100006103516</v>
       </c>
       <c r="E61" t="n">
-        <v>105.2810745239258</v>
+        <v>105.2810821533203</v>
       </c>
       <c r="F61" t="n">
-        <v>3.999522581215809</v>
+        <v>3.99953238545121</v>
       </c>
       <c r="G61" t="n">
-        <v>0.07226400682949219</v>
+        <v>0.07233183381345487</v>
       </c>
       <c r="H61" t="n">
         <v>-1.914988268141782</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.4625949243962535</v>
+        <v>-0.4626020708282552</v>
       </c>
       <c r="J61" t="n">
-        <v>77.0786798524407</v>
+        <v>77.07869745906036</v>
       </c>
       <c r="K61" t="n">
         <v>-0</v>
       </c>
       <c r="L61" t="n">
-        <v>25.52433809815833</v>
+        <v>25.52434803153762</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.596673773888725</v>
+        <v>-0.5965684040024937</v>
       </c>
       <c r="N61" t="n">
         <v>16.18480925386855</v>
@@ -4233,19 +4233,19 @@
         <v>-36.23247367528204</v>
       </c>
       <c r="P61" t="n">
-        <v>28.14346816815188</v>
+        <v>28.14347020762215</v>
       </c>
       <c r="Q61" t="n">
-        <v>-14.83027838499841</v>
+        <v>-14.83026695634683</v>
       </c>
       <c r="R61" t="b">
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>146.9312953726195</v>
+        <v>146.9313249520887</v>
       </c>
       <c r="T61" t="n">
-        <v>-1.811247882387183</v>
+        <v>-1.811234761258173</v>
       </c>
     </row>
     <row r="62">
@@ -4253,40 +4253,40 @@
         <v>42766</v>
       </c>
       <c r="B62" t="n">
-        <v>19.2594165802002</v>
+        <v>19.25941467285156</v>
       </c>
       <c r="C62" t="n">
-        <v>78.91170501708984</v>
+        <v>78.91175079345703</v>
       </c>
       <c r="D62" t="n">
         <v>115.5500030517578</v>
       </c>
       <c r="E62" t="n">
-        <v>106.1383209228516</v>
+        <v>106.138313293457</v>
       </c>
       <c r="F62" t="n">
-        <v>3.467316972401768</v>
+        <v>3.467274919165231</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1065804318830299</v>
+        <v>0.1066094366434012</v>
       </c>
       <c r="H62" t="n">
         <v>5.419215772584596</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8142454879019656</v>
+        <v>0.8142309355144484</v>
       </c>
       <c r="J62" t="n">
-        <v>79.7512420010676</v>
+        <v>79.75122780407762</v>
       </c>
       <c r="K62" t="n">
         <v>-0</v>
       </c>
       <c r="L62" t="n">
-        <v>25.55154204793864</v>
+        <v>25.55155939518094</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.4907292794908431</v>
+        <v>-0.4905949655737867</v>
       </c>
       <c r="N62" t="n">
         <v>17.06189898971693</v>
@@ -4295,16 +4295,16 @@
         <v>-32.7767738309059</v>
       </c>
       <c r="P62" t="n">
-        <v>28.37262508785018</v>
+        <v>28.3726230483799</v>
       </c>
       <c r="Q62" t="n">
-        <v>-14.1367877696896</v>
+        <v>-14.13678864221034</v>
       </c>
       <c r="R62" t="b">
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>150.7373081265733</v>
+        <v>150.7373092373554</v>
       </c>
       <c r="T62" t="n">
         <v>-0</v>
@@ -4318,37 +4318,37 @@
         <v>20.76779747009277</v>
       </c>
       <c r="C63" t="n">
-        <v>78.94068145751953</v>
+        <v>78.94066619873047</v>
       </c>
       <c r="D63" t="n">
         <v>119.2300033569336</v>
       </c>
       <c r="E63" t="n">
-        <v>107.8202056884766</v>
+        <v>107.8202438354492</v>
       </c>
       <c r="F63" t="n">
-        <v>7.831913721848061</v>
+        <v>7.831924400939649</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03672007900907825</v>
+        <v>0.03664271161480936</v>
       </c>
       <c r="H63" t="n">
         <v>3.18476867848061</v>
       </c>
       <c r="I63" t="n">
-        <v>1.584615953033119</v>
+        <v>1.58465919591344</v>
       </c>
       <c r="J63" t="n">
-        <v>85.99729046669346</v>
+        <v>85.99728367451414</v>
       </c>
       <c r="K63" t="n">
         <v>-0</v>
       </c>
       <c r="L63" t="n">
-        <v>25.56092459436667</v>
+        <v>25.5609221794032</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.454189396660921</v>
+        <v>-0.4541320212574141</v>
       </c>
       <c r="N63" t="n">
         <v>17.60528100469543</v>
@@ -4357,16 +4357,16 @@
         <v>-30.6358695792084</v>
       </c>
       <c r="P63" t="n">
-        <v>28.82222223128653</v>
+        <v>28.82223242863791</v>
       </c>
       <c r="Q63" t="n">
-        <v>-12.77618561090142</v>
+        <v>-12.77614936752253</v>
       </c>
       <c r="R63" t="b">
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>157.9857182970421</v>
+        <v>157.9857192872507</v>
       </c>
       <c r="T63" t="n">
         <v>-0</v>
@@ -4377,40 +4377,40 @@
         <v>42825</v>
       </c>
       <c r="B64" t="n">
-        <v>20.76302909851074</v>
+        <v>20.76303291320801</v>
       </c>
       <c r="C64" t="n">
-        <v>78.99114227294922</v>
+        <v>78.99112701416016</v>
       </c>
       <c r="D64" t="n">
         <v>118.7200012207031</v>
       </c>
       <c r="E64" t="n">
-        <v>107.1138610839844</v>
+        <v>107.1138534545898</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.02296041064969723</v>
+        <v>-0.02294204232118346</v>
       </c>
       <c r="G64" t="n">
-        <v>0.06392244720720974</v>
+        <v>0.06392245956305942</v>
       </c>
       <c r="H64" t="n">
         <v>-0.427746474772539</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.6551133899085793</v>
+        <v>-0.6551556143180703</v>
       </c>
       <c r="J64" t="n">
-        <v>85.97754513565469</v>
+        <v>85.97755414129846</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.022960410649694</v>
+        <v>-0.02294204232119049</v>
       </c>
       <c r="L64" t="n">
-        <v>25.57726376289618</v>
+        <v>25.57726134954728</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.3905572784310119</v>
+        <v>-0.3904998540520017</v>
       </c>
       <c r="N64" t="n">
         <v>17.52997503582405</v>
@@ -4419,19 +4419,19 @@
         <v>-30.93257220183996</v>
       </c>
       <c r="P64" t="n">
-        <v>28.63340399418017</v>
+        <v>28.63340195470988</v>
       </c>
       <c r="Q64" t="n">
-        <v>-13.3476004981534</v>
+        <v>-13.34760132196562</v>
       </c>
       <c r="R64" t="b">
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>157.7181879285551</v>
+        <v>157.7181924813796</v>
       </c>
       <c r="T64" t="n">
-        <v>-0.1693383246098384</v>
+        <v>-0.1693360685244024</v>
       </c>
     </row>
     <row r="65">
@@ -4439,40 +4439,40 @@
         <v>42855</v>
       </c>
       <c r="B65" t="n">
-        <v>21.14726066589355</v>
+        <v>21.14726257324219</v>
       </c>
       <c r="C65" t="n">
-        <v>79.13888549804688</v>
+        <v>79.13889312744141</v>
       </c>
       <c r="D65" t="n">
         <v>120.7699966430664</v>
       </c>
       <c r="E65" t="n">
-        <v>108.7989807128906</v>
+        <v>108.7989730834961</v>
       </c>
       <c r="F65" t="n">
-        <v>1.850556417176974</v>
+        <v>1.850546890910909</v>
       </c>
       <c r="G65" t="n">
-        <v>0.187037711883109</v>
+        <v>0.1870667236520962</v>
       </c>
       <c r="H65" t="n">
         <v>1.726748147982482</v>
       </c>
       <c r="I65" t="n">
-        <v>1.573204076347312</v>
+        <v>1.573204188401878</v>
       </c>
       <c r="J65" t="n">
-        <v>87.56860811449378</v>
+        <v>87.5686090963415</v>
       </c>
       <c r="K65" t="n">
         <v>-0</v>
       </c>
       <c r="L65" t="n">
-        <v>25.62510289180061</v>
+        <v>25.62510789435381</v>
       </c>
       <c r="M65" t="n">
-        <v>-0.2042500559450748</v>
+        <v>-0.2041636256827463</v>
       </c>
       <c r="N65" t="n">
         <v>17.83267355509693</v>
@@ -4481,16 +4481,16 @@
         <v>-29.7399516714761</v>
       </c>
       <c r="P65" t="n">
-        <v>29.0838658730136</v>
+        <v>29.08386383354332</v>
       </c>
       <c r="Q65" t="n">
-        <v>-11.98438141693759</v>
+        <v>-11.98438215661209</v>
       </c>
       <c r="R65" t="b">
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>160.1102504344049</v>
+        <v>160.1102543793356</v>
       </c>
       <c r="T65" t="n">
         <v>-0</v>
@@ -4501,40 +4501,40 @@
         <v>42886</v>
       </c>
       <c r="B66" t="n">
-        <v>21.68567276000977</v>
+        <v>21.68566513061523</v>
       </c>
       <c r="C66" t="n">
-        <v>79.19692993164062</v>
+        <v>79.19691467285156</v>
       </c>
       <c r="D66" t="n">
         <v>120.620002746582</v>
       </c>
       <c r="E66" t="n">
-        <v>110.8529510498047</v>
+        <v>110.8529434204102</v>
       </c>
       <c r="F66" t="n">
-        <v>2.546013418109361</v>
+        <v>2.545968091654061</v>
       </c>
       <c r="G66" t="n">
-        <v>0.07334502277667188</v>
+        <v>0.07331609416967311</v>
       </c>
       <c r="H66" t="n">
         <v>-0.124197980171914</v>
       </c>
       <c r="I66" t="n">
-        <v>1.887858069492654</v>
+        <v>1.88785820187638</v>
       </c>
       <c r="J66" t="n">
-        <v>89.7981166271404</v>
+        <v>89.79807794223963</v>
       </c>
       <c r="K66" t="n">
         <v>-0</v>
       </c>
       <c r="L66" t="n">
-        <v>25.64389762935315</v>
+        <v>25.64389522258871</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.1310548404184596</v>
+        <v>-0.1309972163091427</v>
       </c>
       <c r="N66" t="n">
         <v>17.81052573473085</v>
@@ -4543,16 +4543,16 @@
         <v>-29.82721323236794</v>
       </c>
       <c r="P66" t="n">
-        <v>29.63292798181771</v>
+        <v>29.63292594234743</v>
       </c>
       <c r="Q66" t="n">
-        <v>-10.32277145910337</v>
+        <v>-10.32277209622352</v>
       </c>
       <c r="R66" t="b">
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>162.8854679730421</v>
+        <v>162.8854248419066</v>
       </c>
       <c r="T66" t="n">
         <v>-0</v>
@@ -4563,7 +4563,7 @@
         <v>42916</v>
       </c>
       <c r="B67" t="n">
-        <v>21.91109275817871</v>
+        <v>21.91109085083008</v>
       </c>
       <c r="C67" t="n">
         <v>79.1351318359375</v>
@@ -4572,31 +4572,31 @@
         <v>118.0199966430664</v>
       </c>
       <c r="E67" t="n">
-        <v>111.7308044433594</v>
+        <v>111.7307662963867</v>
       </c>
       <c r="F67" t="n">
-        <v>1.039488148067225</v>
+        <v>1.039514900082983</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.07803092336592377</v>
+        <v>-0.07801167150169874</v>
       </c>
       <c r="H67" t="n">
         <v>-2.155534773928114</v>
       </c>
       <c r="I67" t="n">
-        <v>0.7919080053721661</v>
+        <v>0.7918805300887843</v>
       </c>
       <c r="J67" t="n">
-        <v>90.73155740666711</v>
+        <v>90.73154234243734</v>
       </c>
       <c r="K67" t="n">
         <v>-0</v>
       </c>
       <c r="L67" t="n">
-        <v>25.62388745924595</v>
+        <v>25.62388999128743</v>
       </c>
       <c r="M67" t="n">
-        <v>-0.2089835004822836</v>
+        <v>-0.2089066946927824</v>
       </c>
       <c r="N67" t="n">
         <v>17.42661365909931</v>
@@ -4605,16 +4605,16 @@
         <v>-31.33981205297867</v>
       </c>
       <c r="P67" t="n">
-        <v>29.86759351073189</v>
+        <v>29.8675833133805</v>
       </c>
       <c r="Q67" t="n">
-        <v>-9.612610307292124</v>
+        <v>-9.612635588530173</v>
       </c>
       <c r="R67" t="b">
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>163.6496520357443</v>
+        <v>163.6496293062046</v>
       </c>
       <c r="T67" t="n">
         <v>-0</v>
@@ -4634,10 +4634,10 @@
         <v>120.75</v>
       </c>
       <c r="E68" t="n">
-        <v>110.9952239990234</v>
+        <v>110.9952545166016</v>
       </c>
       <c r="F68" t="n">
-        <v>3.946326003856471</v>
+        <v>3.946335052328043</v>
       </c>
       <c r="G68" t="n">
         <v>0.185935752574129</v>
@@ -4646,19 +4646,19 @@
         <v>2.313170169958645</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.6583506204941303</v>
+        <v>-0.658289389901856</v>
       </c>
       <c r="J68" t="n">
-        <v>94.31212045031037</v>
+        <v>94.3121130014148</v>
       </c>
       <c r="K68" t="n">
         <v>-0</v>
       </c>
       <c r="L68" t="n">
-        <v>25.67153142723205</v>
+        <v>25.6715339639815</v>
       </c>
       <c r="M68" t="n">
-        <v>-0.02343632295252992</v>
+        <v>-0.02335937435360388</v>
       </c>
       <c r="N68" t="n">
         <v>17.82972088789553</v>
@@ -4667,16 +4667,16 @@
         <v>-29.75158506675064</v>
       </c>
       <c r="P68" t="n">
-        <v>29.67096002352732</v>
+        <v>29.67096818140842</v>
       </c>
       <c r="Q68" t="n">
-        <v>-10.20767624818252</v>
+        <v>-10.20764601826281</v>
       </c>
       <c r="R68" t="b">
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>167.4843327889653</v>
+        <v>167.4843360347002</v>
       </c>
       <c r="T68" t="n">
         <v>-0</v>
@@ -4690,34 +4690,34 @@
         <v>22.8468132019043</v>
       </c>
       <c r="C69" t="n">
-        <v>79.44268798828125</v>
+        <v>79.44270324707031</v>
       </c>
       <c r="D69" t="n">
         <v>125.8199996948242</v>
       </c>
       <c r="E69" t="n">
-        <v>114.7787246704102</v>
+        <v>114.7787475585938</v>
       </c>
       <c r="F69" t="n">
         <v>0.3118984519472567</v>
       </c>
       <c r="G69" t="n">
-        <v>0.2023348280538961</v>
+        <v>0.2023540742089436</v>
       </c>
       <c r="H69" t="n">
         <v>4.198757511241591</v>
       </c>
       <c r="I69" t="n">
-        <v>3.408705829919323</v>
+        <v>3.408698019090806</v>
       </c>
       <c r="J69" t="n">
-        <v>94.60627849399353</v>
+        <v>94.60627102186496</v>
       </c>
       <c r="K69" t="n">
         <v>-0</v>
       </c>
       <c r="L69" t="n">
-        <v>25.72347387620414</v>
+        <v>25.72348135886955</v>
       </c>
       <c r="M69" t="n">
         <v>-0</v>
@@ -4729,16 +4729,16 @@
         <v>-26.80202446821266</v>
       </c>
       <c r="P69" t="n">
-        <v>30.68235576764233</v>
+        <v>30.68236188605315</v>
       </c>
       <c r="Q69" t="n">
-        <v>-7.146920073634284</v>
+        <v>-7.146895826792325</v>
       </c>
       <c r="R69" t="b">
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>169.5904557707495</v>
+        <v>169.5904618996971</v>
       </c>
       <c r="T69" t="n">
         <v>-0</v>
@@ -4752,37 +4752,37 @@
         <v>23.71922302246094</v>
       </c>
       <c r="C70" t="n">
-        <v>79.29430389404297</v>
+        <v>79.29435729980469</v>
       </c>
       <c r="D70" t="n">
         <v>121.5800018310547</v>
       </c>
       <c r="E70" t="n">
-        <v>112.1125411987305</v>
+        <v>112.1125030517578</v>
       </c>
       <c r="F70" t="n">
         <v>3.818518639106849</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1867813111512184</v>
+        <v>-0.1867332570547942</v>
       </c>
       <c r="H70" t="n">
         <v>-3.369891808976022</v>
       </c>
       <c r="I70" t="n">
-        <v>-2.322889960082497</v>
+        <v>-2.322942673228634</v>
       </c>
       <c r="J70" t="n">
-        <v>98.21883687205201</v>
+        <v>98.2188291145988</v>
       </c>
       <c r="K70" t="n">
         <v>-0</v>
       </c>
       <c r="L70" t="n">
-        <v>25.67542723442453</v>
+        <v>25.67544706430025</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.1867813111512124</v>
+        <v>-0.1867332570547874</v>
       </c>
       <c r="N70" t="n">
         <v>17.95227741778495</v>
@@ -4791,16 +4791,16 @@
         <v>-29.26871704999463</v>
       </c>
       <c r="P70" t="n">
-        <v>29.96963840599897</v>
+        <v>29.96962820864759</v>
       </c>
       <c r="Q70" t="n">
-        <v>-9.303794944871209</v>
+        <v>-9.303820207049203</v>
       </c>
       <c r="R70" t="b">
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>171.8161799302605</v>
+        <v>171.8161818053316</v>
       </c>
       <c r="T70" t="n">
         <v>-0</v>
@@ -4811,40 +4811,40 @@
         <v>43039</v>
       </c>
       <c r="B71" t="n">
-        <v>24.79313087463379</v>
+        <v>24.79313659667969</v>
       </c>
       <c r="C71" t="n">
-        <v>79.22199249267578</v>
+        <v>79.22195434570312</v>
       </c>
       <c r="D71" t="n">
         <v>120.6699981689453</v>
       </c>
       <c r="E71" t="n">
-        <v>112.0693206787109</v>
+        <v>112.0692825317383</v>
       </c>
       <c r="F71" t="n">
-        <v>4.527584445560939</v>
+        <v>4.527608569647534</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.09119368960450736</v>
+        <v>-0.09130908751528999</v>
       </c>
       <c r="H71" t="n">
         <v>-0.7484813689786707</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.03855101272115524</v>
+        <v>-0.03855102583837366</v>
       </c>
       <c r="J71" t="n">
-        <v>102.6657776528819</v>
+        <v>102.6657932385989</v>
       </c>
       <c r="K71" t="n">
         <v>-0</v>
       </c>
       <c r="L71" t="n">
-        <v>25.65201286500774</v>
+        <v>25.65200304787036</v>
       </c>
       <c r="M71" t="n">
-        <v>-0.2778046679865853</v>
+        <v>-0.2778718401369759</v>
       </c>
       <c r="N71" t="n">
         <v>17.81790796600547</v>
@@ -4853,16 +4853,16 @@
         <v>-29.79812752491501</v>
       </c>
       <c r="P71" t="n">
-        <v>29.95808480688459</v>
+        <v>29.95807460953321</v>
       </c>
       <c r="Q71" t="n">
-        <v>-9.338759250419622</v>
+        <v>-9.338784514755597</v>
       </c>
       <c r="R71" t="b">
         <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>176.0937832907797</v>
+        <v>176.0937788620079</v>
       </c>
       <c r="T71" t="n">
         <v>-0</v>
@@ -4873,40 +4873,40 @@
         <v>43069</v>
       </c>
       <c r="B72" t="n">
-        <v>26.24953079223633</v>
+        <v>26.24953269958496</v>
       </c>
       <c r="C72" t="n">
-        <v>79.05079650878906</v>
+        <v>79.05076599121094</v>
       </c>
       <c r="D72" t="n">
         <v>121.0999984741211</v>
       </c>
       <c r="E72" t="n">
-        <v>112.9021453857422</v>
+        <v>112.9021530151367</v>
       </c>
       <c r="F72" t="n">
-        <v>5.874207355927785</v>
+        <v>5.874190614108565</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.216096538978805</v>
+        <v>-0.2160870126293069</v>
       </c>
       <c r="H72" t="n">
         <v>0.3563440057186007</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7431335373387915</v>
+        <v>0.7431746367811076</v>
       </c>
       <c r="J72" t="n">
-        <v>108.696578315788</v>
+        <v>108.6965776289207</v>
       </c>
       <c r="K72" t="n">
         <v>-0</v>
       </c>
       <c r="L72" t="n">
-        <v>25.59657975302806</v>
+        <v>25.59657240080464</v>
       </c>
       <c r="M72" t="n">
-        <v>-0.4933008806927431</v>
+        <v>-0.4933584078079977</v>
       </c>
       <c r="N72" t="n">
         <v>17.88140101298679</v>
@@ -4915,16 +4915,16 @@
         <v>-29.54796736044783</v>
       </c>
       <c r="P72" t="n">
-        <v>30.18071338222895</v>
+        <v>30.18071542169922</v>
       </c>
       <c r="Q72" t="n">
-        <v>-8.66502516504203</v>
+        <v>-8.665013355871791</v>
       </c>
       <c r="R72" t="b">
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>182.3552724640318</v>
+        <v>182.3552664644114</v>
       </c>
       <c r="T72" t="n">
         <v>-0</v>
@@ -4938,7 +4938,7 @@
         <v>26.86992263793945</v>
       </c>
       <c r="C73" t="n">
-        <v>79.0347900390625</v>
+        <v>79.03481292724609</v>
       </c>
       <c r="D73" t="n">
         <v>123.6500015258789</v>
@@ -4947,28 +4947,28 @@
         <v>114.9486312866211</v>
       </c>
       <c r="F73" t="n">
-        <v>2.363439752936891</v>
+        <v>2.363432314984792</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.0202483345310589</v>
+        <v>-0.02018078353170916</v>
       </c>
       <c r="H73" t="n">
         <v>2.105700317001036</v>
       </c>
       <c r="I73" t="n">
-        <v>1.812619143672478</v>
+        <v>1.812612263656299</v>
       </c>
       <c r="J73" t="n">
-        <v>111.2655564577855</v>
+        <v>111.2655476698852</v>
       </c>
       <c r="K73" t="n">
         <v>-0</v>
       </c>
       <c r="L73" t="n">
-        <v>25.59139687193116</v>
+        <v>25.5914068119369</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.5134493300112387</v>
+        <v>-0.5134396277473923</v>
       </c>
       <c r="N73" t="n">
         <v>18.25792973080148</v>
@@ -4980,13 +4980,13 @@
         <v>30.72777477069215</v>
       </c>
       <c r="Q73" t="n">
-        <v>-7.009469926315144</v>
+        <v>-7.00946418695148</v>
       </c>
       <c r="R73" t="b">
         <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>185.8426578312103</v>
+        <v>185.8426589833157</v>
       </c>
       <c r="T73" t="n">
         <v>-0</v>
@@ -4997,40 +4997,40 @@
         <v>43131</v>
       </c>
       <c r="B74" t="n">
-        <v>29.87047958374023</v>
+        <v>29.87047576904297</v>
       </c>
       <c r="C74" t="n">
-        <v>78.80859375</v>
+        <v>78.80860900878906</v>
       </c>
       <c r="D74" t="n">
         <v>127.6500015258789</v>
       </c>
       <c r="E74" t="n">
-        <v>111.206413269043</v>
+        <v>111.2063903808594</v>
       </c>
       <c r="F74" t="n">
-        <v>11.16697277558996</v>
+        <v>11.16695857868542</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2861983804229751</v>
+        <v>-0.2862079507485626</v>
       </c>
       <c r="H74" t="n">
         <v>3.234937283169237</v>
       </c>
       <c r="I74" t="n">
-        <v>-3.255556830639428</v>
+        <v>-3.255576742302002</v>
       </c>
       <c r="J74" t="n">
-        <v>123.6905508560351</v>
+        <v>123.6905252905287</v>
       </c>
       <c r="K74" t="n">
         <v>-0</v>
       </c>
       <c r="L74" t="n">
-        <v>25.51815470855607</v>
+        <v>25.51816217093272</v>
       </c>
       <c r="M74" t="n">
-        <v>-0.7981782267674357</v>
+        <v>-0.79817807345905</v>
       </c>
       <c r="N74" t="n">
         <v>18.84856230679801</v>
@@ -5039,16 +5039,16 @@
         <v>-25.73738904000119</v>
       </c>
       <c r="P74" t="n">
-        <v>29.72741460024138</v>
+        <v>29.72740848183055</v>
       </c>
       <c r="Q74" t="n">
-        <v>-10.03682947997681</v>
+        <v>-10.0368424434231</v>
       </c>
       <c r="R74" t="b">
         <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>197.7846824716306</v>
+        <v>197.78465825009</v>
       </c>
       <c r="T74" t="n">
         <v>-0</v>
@@ -5059,40 +5059,40 @@
         <v>43159</v>
       </c>
       <c r="B75" t="n">
-        <v>27.45923233032227</v>
+        <v>27.45923614501953</v>
       </c>
       <c r="C75" t="n">
-        <v>78.72931671142578</v>
+        <v>78.72930908203125</v>
       </c>
       <c r="D75" t="n">
         <v>125</v>
       </c>
       <c r="E75" t="n">
-        <v>107.8241195678711</v>
+        <v>107.8241424560547</v>
       </c>
       <c r="F75" t="n">
-        <v>-8.072341947701812</v>
+        <v>-8.072317437013798</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.1005944083023569</v>
+        <v>-0.1006234315707455</v>
       </c>
       <c r="H75" t="n">
         <v>-2.075990203056644</v>
       </c>
       <c r="I75" t="n">
-        <v>-3.041455615503985</v>
+        <v>-3.041415078055476</v>
       </c>
       <c r="J75" t="n">
-        <v>113.7058266339399</v>
+        <v>113.7058334495674</v>
       </c>
       <c r="K75" t="n">
-        <v>-8.072341947701817</v>
+        <v>-8.072317437013803</v>
       </c>
       <c r="L75" t="n">
-        <v>25.49248487181732</v>
+        <v>25.49248492048254</v>
       </c>
       <c r="M75" t="n">
-        <v>-0.8979697124053837</v>
+        <v>-0.897998350862233</v>
       </c>
       <c r="N75" t="n">
         <v>18.45726799989186</v>
@@ -5101,19 +5101,19 @@
         <v>-27.27907356806483</v>
       </c>
       <c r="P75" t="n">
-        <v>28.82326847953819</v>
+        <v>28.82327459794902</v>
       </c>
       <c r="Q75" t="n">
-        <v>-12.77301938164348</v>
+        <v>-12.77299548204364</v>
       </c>
       <c r="R75" t="b">
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>186.4788479851873</v>
+        <v>186.4788609678909</v>
       </c>
       <c r="T75" t="n">
-        <v>-5.716233605736853</v>
+        <v>-5.716215495290594</v>
       </c>
     </row>
     <row r="76">
@@ -5121,10 +5121,10 @@
         <v>43190</v>
       </c>
       <c r="B76" t="n">
-        <v>25.93704986572266</v>
+        <v>25.93704414367676</v>
       </c>
       <c r="C76" t="n">
-        <v>78.92389678955078</v>
+        <v>78.92388916015625</v>
       </c>
       <c r="D76" t="n">
         <v>125.7900009155273</v>
@@ -5133,28 +5133,28 @@
         <v>110.9075393676758</v>
       </c>
       <c r="F76" t="n">
-        <v>-5.543426874751766</v>
+        <v>-5.543460835194658</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2471507263783534</v>
+        <v>0.2471507503289061</v>
       </c>
       <c r="H76" t="n">
         <v>0.6320007324218668</v>
       </c>
       <c r="I76" t="n">
-        <v>2.859675378906101</v>
+        <v>2.859653544546181</v>
       </c>
       <c r="J76" t="n">
-        <v>107.4026272821554</v>
+        <v>107.402595104959</v>
       </c>
       <c r="K76" t="n">
-        <v>-13.16828444950282</v>
+        <v>-13.16829251659501</v>
       </c>
       <c r="L76" t="n">
-        <v>25.5554897333499</v>
+        <v>25.555489788241</v>
       </c>
       <c r="M76" t="n">
-        <v>-0.6530383246939035</v>
+        <v>-0.6530670101954286</v>
       </c>
       <c r="N76" t="n">
         <v>18.57391806883624</v>
@@ -5163,19 +5163,19 @@
         <v>-26.81947678039103</v>
       </c>
       <c r="P76" t="n">
-        <v>29.64752039164355</v>
+        <v>29.64752039164354</v>
       </c>
       <c r="Q76" t="n">
-        <v>-10.27861089313714</v>
+        <v>-10.27860535554445</v>
       </c>
       <c r="R76" t="b">
         <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>181.1795554759851</v>
+        <v>181.1795233536798</v>
       </c>
       <c r="T76" t="n">
-        <v>-8.395557627687982</v>
+        <v>-8.395562650473027</v>
       </c>
     </row>
     <row r="77">
@@ -5183,40 +5183,40 @@
         <v>43220</v>
       </c>
       <c r="B77" t="n">
-        <v>25.98868560791016</v>
+        <v>25.98868179321289</v>
       </c>
       <c r="C77" t="n">
-        <v>78.73856353759766</v>
+        <v>78.73857879638672</v>
       </c>
       <c r="D77" t="n">
         <v>124.5899963378906</v>
       </c>
       <c r="E77" t="n">
-        <v>108.5916366577148</v>
+        <v>108.5916442871094</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1990810152072919</v>
+        <v>0.1990884128896475</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2348252677478846</v>
+        <v>-0.2347962901238843</v>
       </c>
       <c r="H77" t="n">
         <v>-0.9539745360543916</v>
       </c>
       <c r="I77" t="n">
-        <v>-2.088138212392721</v>
+        <v>-2.088131333334209</v>
       </c>
       <c r="J77" t="n">
-        <v>107.6164455229081</v>
+        <v>107.6164212269558</v>
       </c>
       <c r="K77" t="n">
-        <v>-12.99541898866298</v>
+        <v>-12.99542064828131</v>
       </c>
       <c r="L77" t="n">
-        <v>25.49547898615928</v>
+        <v>25.49548644629522</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.8863300934473236</v>
+        <v>-0.8863299232073457</v>
       </c>
       <c r="N77" t="n">
         <v>18.39672762011194</v>
@@ -5225,19 +5225,19 @@
         <v>-27.51760033725748</v>
       </c>
       <c r="P77" t="n">
-        <v>29.02843918931871</v>
+        <v>29.02844122878899</v>
       </c>
       <c r="Q77" t="n">
-        <v>-12.1521175037671</v>
+        <v>-12.15210590981977</v>
       </c>
       <c r="R77" t="b">
         <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>180.537091318498</v>
+        <v>180.5370765221519</v>
       </c>
       <c r="T77" t="n">
-        <v>-8.720387715366439</v>
+        <v>-8.720384017919804</v>
       </c>
     </row>
     <row r="78">
@@ -5248,37 +5248,37 @@
         <v>27.13455390930176</v>
       </c>
       <c r="C78" t="n">
-        <v>79.01595306396484</v>
+        <v>79.01598358154297</v>
       </c>
       <c r="D78" t="n">
         <v>123.0999984741211</v>
       </c>
       <c r="E78" t="n">
-        <v>110.7682723999023</v>
+        <v>110.7682495117188</v>
       </c>
       <c r="F78" t="n">
-        <v>4.409104479846548</v>
+        <v>4.409119805330475</v>
       </c>
       <c r="G78" t="n">
-        <v>0.3522918299553757</v>
+        <v>0.3523111407352175</v>
       </c>
       <c r="H78" t="n">
         <v>-1.195920946757734</v>
       </c>
       <c r="I78" t="n">
-        <v>2.00442300086916</v>
+        <v>2.004394756980177</v>
       </c>
       <c r="J78" t="n">
-        <v>112.3613670435102</v>
+        <v>112.3613581690613</v>
       </c>
       <c r="K78" t="n">
-        <v>-9.159296109620398</v>
+        <v>-9.159284508540209</v>
       </c>
       <c r="L78" t="n">
-        <v>25.58529747563551</v>
+        <v>25.58530988543016</v>
       </c>
       <c r="M78" t="n">
-        <v>-0.5371607319975961</v>
+        <v>-0.5371414215352575</v>
       </c>
       <c r="N78" t="n">
         <v>18.17671730098505</v>
@@ -5287,19 +5287,19 @@
         <v>-28.38443253753687</v>
       </c>
       <c r="P78" t="n">
-        <v>29.61029190122273</v>
+        <v>29.6102857828119</v>
       </c>
       <c r="Q78" t="n">
-        <v>-10.3912743412361</v>
+        <v>-10.39128732655869</v>
       </c>
       <c r="R78" t="b">
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>185.7336737213535</v>
+        <v>185.7336711382884</v>
       </c>
       <c r="T78" t="n">
-        <v>-6.092993956701185</v>
+        <v>-6.092983762453239</v>
       </c>
     </row>
     <row r="79">
@@ -5310,37 +5310,37 @@
         <v>27.41069412231445</v>
       </c>
       <c r="C79" t="n">
-        <v>79.05008697509766</v>
+        <v>79.05010223388672</v>
       </c>
       <c r="D79" t="n">
         <v>118.6500015258789</v>
       </c>
       <c r="E79" t="n">
-        <v>111.4835739135742</v>
+        <v>111.4835815429688</v>
       </c>
       <c r="F79" t="n">
         <v>1.017669993528192</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04319875899641001</v>
+        <v>0.04317943129636959</v>
       </c>
       <c r="H79" t="n">
         <v>-3.614944763120931</v>
       </c>
       <c r="I79" t="n">
-        <v>0.6457638980677194</v>
+        <v>0.645791582338151</v>
       </c>
       <c r="J79" t="n">
-        <v>113.5048349602301</v>
+        <v>113.5048259954686</v>
       </c>
       <c r="K79" t="n">
-        <v>-8.234837524218202</v>
+        <v>-8.234825805077307</v>
       </c>
       <c r="L79" t="n">
-        <v>25.59635000663053</v>
+        <v>25.5963574767341</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.4941940197712315</v>
+        <v>-0.4941939248499652</v>
       </c>
       <c r="N79" t="n">
         <v>17.5196390108058</v>
@@ -5349,19 +5349,19 @@
         <v>-30.97329574310053</v>
       </c>
       <c r="P79" t="n">
-        <v>29.8015044764333</v>
+        <v>29.80150651590357</v>
       </c>
       <c r="Q79" t="n">
-        <v>-9.812613541413253</v>
+        <v>-9.812601803072033</v>
       </c>
       <c r="R79" t="b">
         <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>186.4223284540997</v>
+        <v>186.4223289989121</v>
       </c>
       <c r="T79" t="n">
-        <v>-5.744809899098533</v>
+        <v>-5.744798080754467</v>
       </c>
     </row>
     <row r="80">
@@ -5369,40 +5369,40 @@
         <v>43312</v>
       </c>
       <c r="B80" t="n">
-        <v>29.3539981842041</v>
+        <v>29.35400009155273</v>
       </c>
       <c r="C80" t="n">
-        <v>79.00260925292969</v>
+        <v>79.00262451171875</v>
       </c>
       <c r="D80" t="n">
         <v>115.9899978637695</v>
       </c>
       <c r="E80" t="n">
-        <v>109.8816909790039</v>
+        <v>109.881721496582</v>
       </c>
       <c r="F80" t="n">
-        <v>7.089583551653456</v>
+        <v>7.089590510064014</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.06006030351733971</v>
+        <v>-0.06006029192409112</v>
       </c>
       <c r="H80" t="n">
         <v>-2.241890963253967</v>
       </c>
       <c r="I80" t="n">
-        <v>-1.436877988691088</v>
+        <v>-1.436857359816091</v>
       </c>
       <c r="J80" t="n">
-        <v>121.551855069902</v>
+        <v>121.551853367708</v>
       </c>
       <c r="K80" t="n">
-        <v>-1.729069659187105</v>
+        <v>-1.729050723810357</v>
       </c>
       <c r="L80" t="n">
-        <v>25.58097676112718</v>
+        <v>25.58098422971164</v>
       </c>
       <c r="M80" t="n">
-        <v>-0.5539575088603371</v>
+        <v>-0.5539574024601174</v>
       </c>
       <c r="N80" t="n">
         <v>17.12686780702782</v>
@@ -5411,19 +5411,19 @@
         <v>-32.520799188068</v>
       </c>
       <c r="P80" t="n">
-        <v>29.37329321831264</v>
+        <v>29.37330137619374</v>
       </c>
       <c r="Q80" t="n">
-        <v>-11.10849624601245</v>
+        <v>-11.10846607169123</v>
       </c>
       <c r="R80" t="b">
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>193.6329928563696</v>
+        <v>193.6330067806412</v>
       </c>
       <c r="T80" t="n">
-        <v>-2.099095624281432</v>
+        <v>-2.09907659480809</v>
       </c>
     </row>
     <row r="81">
@@ -5434,7 +5434,7 @@
         <v>31.15937805175781</v>
       </c>
       <c r="C81" t="n">
-        <v>79.27659606933594</v>
+        <v>79.27653503417969</v>
       </c>
       <c r="D81" t="n">
         <v>113.5100021362305</v>
@@ -5443,28 +5443,28 @@
         <v>111.3233871459961</v>
       </c>
       <c r="F81" t="n">
-        <v>6.150371258540233</v>
+        <v>6.150364361157767</v>
       </c>
       <c r="G81" t="n">
-        <v>0.346807300413432</v>
+        <v>0.3467106620240301</v>
       </c>
       <c r="H81" t="n">
         <v>-2.138111710676827</v>
       </c>
       <c r="I81" t="n">
-        <v>1.312044030399617</v>
+        <v>1.312015892887985</v>
       </c>
       <c r="J81" t="n">
-        <v>129.0277454283437</v>
+        <v>129.0277352375623</v>
       </c>
       <c r="K81" t="n">
         <v>-0</v>
       </c>
       <c r="L81" t="n">
-        <v>25.66969345605184</v>
+        <v>25.66967622948674</v>
       </c>
       <c r="M81" t="n">
-        <v>-0.2090713735288205</v>
+        <v>-0.2091673698134829</v>
       </c>
       <c r="N81" t="n">
         <v>16.76067624077362</v>
@@ -5476,13 +5476,13 @@
         <v>29.75868375851529</v>
       </c>
       <c r="Q81" t="n">
-        <v>-9.942200577475804</v>
+        <v>-9.942195019119902</v>
       </c>
       <c r="R81" t="b">
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>201.2167988836845</v>
+        <v>201.2167714663379</v>
       </c>
       <c r="T81" t="n">
         <v>-0</v>
@@ -5496,37 +5496,37 @@
         <v>31.43766403198242</v>
       </c>
       <c r="C82" t="n">
-        <v>79.16318511962891</v>
+        <v>79.16320037841797</v>
       </c>
       <c r="D82" t="n">
         <v>112.7600021362305</v>
       </c>
       <c r="E82" t="n">
-        <v>108.1347503662109</v>
+        <v>108.1347579956055</v>
       </c>
       <c r="F82" t="n">
         <v>0.8931050541585162</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1430572897048177</v>
+        <v>-0.1429611621053484</v>
       </c>
       <c r="H82" t="n">
         <v>-0.6607347245927042</v>
       </c>
       <c r="I82" t="n">
-        <v>-2.864300899866967</v>
+        <v>-2.864294046505134</v>
       </c>
       <c r="J82" t="n">
-        <v>130.180098744031</v>
+        <v>130.1800884622352</v>
       </c>
       <c r="K82" t="n">
         <v>-0</v>
       </c>
       <c r="L82" t="n">
-        <v>25.63297108831807</v>
+        <v>25.63297856204038</v>
       </c>
       <c r="M82" t="n">
-        <v>-0.3518295713931192</v>
+        <v>-0.3518295038161999</v>
       </c>
       <c r="N82" t="n">
         <v>16.64993263277427</v>
@@ -5535,16 +5535,16 @@
         <v>-34.39990544149065</v>
       </c>
       <c r="P82" t="n">
-        <v>28.90630551183157</v>
+        <v>28.90630755130185</v>
       </c>
       <c r="Q82" t="n">
-        <v>-12.52172693673555</v>
+        <v>-12.52171536560045</v>
       </c>
       <c r="R82" t="b">
         <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>201.3693079769549</v>
+        <v>201.3693072083517</v>
       </c>
       <c r="T82" t="n">
         <v>-0</v>
@@ -5555,7 +5555,7 @@
         <v>43404</v>
       </c>
       <c r="B83" t="n">
-        <v>27.03215217590332</v>
+        <v>27.03215408325195</v>
       </c>
       <c r="C83" t="n">
         <v>79.28440093994141</v>
@@ -5564,31 +5564,31 @@
         <v>115.1500015258789</v>
       </c>
       <c r="E83" t="n">
-        <v>104.9658279418945</v>
+        <v>104.9658432006836</v>
       </c>
       <c r="F83" t="n">
-        <v>-14.01348348146112</v>
+        <v>-14.01347741437983</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1531214542837445</v>
+        <v>0.153102149665596</v>
       </c>
       <c r="H83" t="n">
         <v>2.119545356837582</v>
       </c>
       <c r="I83" t="n">
-        <v>-2.930531039822515</v>
+        <v>-2.93052377760965</v>
       </c>
       <c r="J83" t="n">
-        <v>111.9373321103865</v>
+        <v>111.9373311675602</v>
       </c>
       <c r="K83" t="n">
-        <v>-14.01348348146112</v>
+        <v>-14.01347741437983</v>
       </c>
       <c r="L83" t="n">
-        <v>25.67222066642464</v>
+        <v>25.67222320324219</v>
       </c>
       <c r="M83" t="n">
-        <v>-0.1992468436656961</v>
+        <v>-0.1992660126841067</v>
       </c>
       <c r="N83" t="n">
         <v>17.00283550680883</v>
@@ -5597,19 +5597,19 @@
         <v>-33.00948168319471</v>
       </c>
       <c r="P83" t="n">
-        <v>28.05919725634142</v>
+        <v>28.05920133528197</v>
       </c>
       <c r="Q83" t="n">
-        <v>-15.08530488195522</v>
+        <v>-15.08528729705658</v>
       </c>
       <c r="R83" t="b">
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>182.6715855399613</v>
+        <v>182.6715912128932</v>
       </c>
       <c r="T83" t="n">
-        <v>-9.285289116220937</v>
+        <v>-9.285285952795407</v>
       </c>
     </row>
     <row r="84">
@@ -5617,37 +5617,37 @@
         <v>43434</v>
       </c>
       <c r="B84" t="n">
-        <v>27.88268661499023</v>
+        <v>27.8826847076416</v>
       </c>
       <c r="C84" t="n">
-        <v>79.58652496337891</v>
+        <v>79.58654022216797</v>
       </c>
       <c r="D84" t="n">
         <v>115.5400009155273</v>
       </c>
       <c r="E84" t="n">
-        <v>106.8417663574219</v>
+        <v>106.8417892456055</v>
       </c>
       <c r="F84" t="n">
-        <v>3.146380774835555</v>
+        <v>3.146366441128734</v>
       </c>
       <c r="G84" t="n">
-        <v>0.3810636390711553</v>
+        <v>0.3810828847094827</v>
       </c>
       <c r="H84" t="n">
         <v>0.3386881324189961</v>
       </c>
       <c r="I84" t="n">
-        <v>1.787189652394106</v>
+        <v>1.787196661046453</v>
       </c>
       <c r="J84" t="n">
-        <v>115.4593068077715</v>
+        <v>115.4592897905114</v>
       </c>
       <c r="K84" t="n">
-        <v>-11.30802025677101</v>
+        <v>-11.3080263238523</v>
       </c>
       <c r="L84" t="n">
-        <v>25.77004816472649</v>
+        <v>25.77005565199416</v>
       </c>
       <c r="M84" t="n">
         <v>-0</v>
@@ -5659,19 +5659,19 @@
         <v>-32.78259274780972</v>
       </c>
       <c r="P84" t="n">
-        <v>28.56066832625161</v>
+        <v>28.56067444466244</v>
       </c>
       <c r="Q84" t="n">
-        <v>-13.56771823744351</v>
+        <v>-13.56769438689238</v>
       </c>
       <c r="R84" t="b">
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>186.8504453915947</v>
+        <v>186.8504419800131</v>
       </c>
       <c r="T84" t="n">
-        <v>-7.210067279479255</v>
+        <v>-7.21006861950231</v>
       </c>
     </row>
     <row r="85">
@@ -5679,37 +5679,37 @@
         <v>43465</v>
       </c>
       <c r="B85" t="n">
-        <v>22.94698524475098</v>
+        <v>22.94698143005371</v>
       </c>
       <c r="C85" t="n">
-        <v>80.19124603271484</v>
+        <v>80.19126892089844</v>
       </c>
       <c r="D85" t="n">
         <v>121.25</v>
       </c>
       <c r="E85" t="n">
-        <v>113.0958023071289</v>
+        <v>113.0957946777344</v>
       </c>
       <c r="F85" t="n">
-        <v>-17.70167071198131</v>
+        <v>-17.70167876350587</v>
       </c>
       <c r="G85" t="n">
-        <v>0.7598284629391605</v>
+        <v>0.7598379035479441</v>
       </c>
       <c r="H85" t="n">
         <v>4.942010593064916</v>
       </c>
       <c r="I85" t="n">
-        <v>5.85354975205592</v>
+        <v>5.853519934744211</v>
       </c>
       <c r="J85" t="n">
-        <v>95.02108051032357</v>
+        <v>95.02105720916977</v>
       </c>
       <c r="K85" t="n">
-        <v>-27.00798245885457</v>
+        <v>-27.00799459301716</v>
       </c>
       <c r="L85" t="n">
-        <v>25.96585632559521</v>
+        <v>25.96586630260341</v>
       </c>
       <c r="M85" t="n">
         <v>-0</v>
@@ -5721,19 +5721,19 @@
         <v>-29.46070136102289</v>
       </c>
       <c r="P85" t="n">
-        <v>30.23248125624842</v>
+        <v>30.23247921677815</v>
       </c>
       <c r="Q85" t="n">
-        <v>-8.508361622635116</v>
+        <v>-8.508362147770089</v>
       </c>
       <c r="R85" t="b">
         <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>169.1229680520623</v>
+        <v>169.1229526884464</v>
       </c>
       <c r="T85" t="n">
-        <v>-16.01353267230919</v>
+        <v>-16.01353998131444</v>
       </c>
     </row>
     <row r="86">
@@ -5741,37 +5741,37 @@
         <v>43496</v>
       </c>
       <c r="B86" t="n">
-        <v>26.55639839172363</v>
+        <v>26.556396484375</v>
       </c>
       <c r="C86" t="n">
-        <v>80.39261627197266</v>
+        <v>80.39262390136719</v>
       </c>
       <c r="D86" t="n">
         <v>124.75</v>
       </c>
       <c r="E86" t="n">
-        <v>113.5239486694336</v>
+        <v>113.5239334106445</v>
       </c>
       <c r="F86" t="n">
-        <v>15.72935663868218</v>
+        <v>15.72936756550485</v>
       </c>
       <c r="G86" t="n">
-        <v>0.2511124957151223</v>
+        <v>0.2510933960496065</v>
       </c>
       <c r="H86" t="n">
         <v>2.88659793814432</v>
       </c>
       <c r="I86" t="n">
-        <v>0.3785696317375242</v>
+        <v>0.3785629113179034</v>
       </c>
       <c r="J86" t="n">
-        <v>109.9672851457217</v>
+        <v>109.9672685622287</v>
       </c>
       <c r="K86" t="n">
-        <v>-15.52680770203835</v>
+        <v>-15.52681376911965</v>
       </c>
       <c r="L86" t="n">
-        <v>26.03105983544822</v>
+        <v>26.03106487811632</v>
       </c>
       <c r="M86" t="n">
         <v>-0</v>
@@ -5783,19 +5783,19 @@
         <v>-27.42451542092871</v>
       </c>
       <c r="P86" t="n">
-        <v>30.34693224920532</v>
+        <v>30.34692817026476</v>
       </c>
       <c r="Q86" t="n">
-        <v>-8.162002064159294</v>
+        <v>-8.162008739904255</v>
       </c>
       <c r="R86" t="b">
         <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>184.7656306942673</v>
+        <v>184.7656150745019</v>
       </c>
       <c r="T86" t="n">
-        <v>-8.245386275344302</v>
+        <v>-8.245393681903272</v>
       </c>
     </row>
     <row r="87">
@@ -5803,10 +5803,10 @@
         <v>43524</v>
       </c>
       <c r="B87" t="n">
-        <v>28.20535659790039</v>
+        <v>28.20535850524902</v>
       </c>
       <c r="C87" t="n">
-        <v>80.46182250976562</v>
+        <v>80.4617919921875</v>
       </c>
       <c r="D87" t="n">
         <v>123.9899978637695</v>
@@ -5815,25 +5815,25 @@
         <v>111.9613800048828</v>
       </c>
       <c r="F87" t="n">
-        <v>6.209268974857141</v>
+        <v>6.209283785336694</v>
       </c>
       <c r="G87" t="n">
-        <v>0.08608531604301639</v>
+        <v>0.08603785703671374</v>
       </c>
       <c r="H87" t="n">
         <v>-0.6092201492829408</v>
       </c>
       <c r="I87" t="n">
-        <v>-1.376422052672577</v>
+        <v>-1.376408796645168</v>
       </c>
       <c r="J87" t="n">
-        <v>116.7954496647677</v>
+        <v>116.7954483382408</v>
       </c>
       <c r="K87" t="n">
-        <v>-10.2816399806096</v>
+        <v>-10.28163391352833</v>
       </c>
       <c r="L87" t="n">
-        <v>26.05346875557691</v>
+        <v>26.05346144850128</v>
       </c>
       <c r="M87" t="n">
         <v>-0</v>
@@ -5848,16 +5848,16 @@
         <v>29.92923038141765</v>
       </c>
       <c r="Q87" t="n">
-        <v>-9.426080520481188</v>
+        <v>-9.426074930270433</v>
       </c>
       <c r="R87" t="b">
         <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>191.0862817607831</v>
+        <v>191.0862731271807</v>
       </c>
       <c r="T87" t="n">
-        <v>-5.106550903650428</v>
+        <v>-5.106554828900231</v>
       </c>
     </row>
     <row r="88">
@@ -5865,37 +5865,37 @@
         <v>43555</v>
       </c>
       <c r="B88" t="n">
-        <v>29.17691230773926</v>
+        <v>29.17691040039062</v>
       </c>
       <c r="C88" t="n">
-        <v>80.96617889404297</v>
+        <v>80.96617126464844</v>
       </c>
       <c r="D88" t="n">
         <v>122.0100021362305</v>
       </c>
       <c r="E88" t="n">
-        <v>118.1995086669922</v>
+        <v>118.1995239257812</v>
       </c>
       <c r="F88" t="n">
-        <v>3.444578714921076</v>
+        <v>3.444564957260843</v>
       </c>
       <c r="G88" t="n">
-        <v>0.6268269454325681</v>
+        <v>0.6268556292033711</v>
       </c>
       <c r="H88" t="n">
         <v>-1.596899557748621</v>
       </c>
       <c r="I88" t="n">
-        <v>5.571678968084637</v>
+        <v>5.571692596702893</v>
       </c>
       <c r="J88" t="n">
-        <v>120.8185608639166</v>
+        <v>120.8185434233756</v>
       </c>
       <c r="K88" t="n">
-        <v>-7.191220448005424</v>
+        <v>-7.191226515086729</v>
       </c>
       <c r="L88" t="n">
-        <v>26.21677891795672</v>
+        <v>26.21677903819354</v>
       </c>
       <c r="M88" t="n">
         <v>-0</v>
@@ -5907,19 +5907,19 @@
         <v>-29.01855688552746</v>
       </c>
       <c r="P88" t="n">
-        <v>31.59679101588869</v>
+        <v>31.59679509482925</v>
       </c>
       <c r="Q88" t="n">
-        <v>-4.379592498270925</v>
+        <v>-4.379574252617084</v>
       </c>
       <c r="R88" t="b">
         <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>196.6479012625283</v>
+        <v>196.6478880211646</v>
       </c>
       <c r="T88" t="n">
-        <v>-2.344650613273671</v>
+        <v>-2.344656816195887</v>
       </c>
     </row>
     <row r="89">
@@ -5927,7 +5927,7 @@
         <v>43585</v>
       </c>
       <c r="B89" t="n">
-        <v>31.4283390045166</v>
+        <v>31.42833709716797</v>
       </c>
       <c r="C89" t="n">
         <v>81.11466217041016</v>
@@ -5939,25 +5939,25 @@
         <v>115.8460388183594</v>
       </c>
       <c r="F89" t="n">
-        <v>7.716466612473405</v>
+        <v>7.716467116913117</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1833892600532572</v>
+        <v>0.183398700274906</v>
       </c>
       <c r="H89" t="n">
         <v>-0.6638842503124187</v>
       </c>
       <c r="I89" t="n">
-        <v>-1.991099519087958</v>
+        <v>-1.991112171398979</v>
       </c>
       <c r="J89" t="n">
-        <v>130.1414847746516</v>
+        <v>130.1414665977738</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.02966196043172922</v>
+        <v>-0.02966802751301817</v>
       </c>
       <c r="L89" t="n">
-        <v>26.26485767482416</v>
+        <v>26.26486027020353</v>
       </c>
       <c r="M89" t="n">
         <v>-0</v>
@@ -5969,16 +5969,16 @@
         <v>-29.48979150700891</v>
       </c>
       <c r="P89" t="n">
-        <v>30.96766746192411</v>
+        <v>30.9676674619241</v>
       </c>
       <c r="Q89" t="n">
-        <v>-6.283489972187796</v>
+        <v>-6.283484188016752</v>
       </c>
       <c r="R89" t="b">
         <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>205.2701765134781</v>
+        <v>205.2701609319796</v>
       </c>
       <c r="T89" t="n">
         <v>-0</v>
@@ -5989,37 +5989,37 @@
         <v>43616</v>
       </c>
       <c r="B90" t="n">
-        <v>27.41341972351074</v>
+        <v>27.41341781616211</v>
       </c>
       <c r="C90" t="n">
-        <v>81.70014953613281</v>
+        <v>81.70016479492188</v>
       </c>
       <c r="D90" t="n">
         <v>123.3300018310547</v>
       </c>
       <c r="E90" t="n">
-        <v>123.7690582275391</v>
+        <v>123.76904296875</v>
       </c>
       <c r="F90" t="n">
-        <v>-12.77483764073205</v>
+        <v>-12.77483841602185</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7218021379323813</v>
+        <v>0.7218209493145222</v>
       </c>
       <c r="H90" t="n">
         <v>1.757429815548672</v>
       </c>
       <c r="I90" t="n">
-        <v>6.839266573113112</v>
+        <v>6.839253401502554</v>
       </c>
       <c r="J90" t="n">
-        <v>113.5161213914518</v>
+        <v>113.5161045276671</v>
       </c>
       <c r="K90" t="n">
-        <v>-12.80071033387757</v>
+        <v>-12.80071640095886</v>
       </c>
       <c r="L90" t="n">
-        <v>26.45443797904594</v>
+        <v>26.45444553394205</v>
       </c>
       <c r="M90" t="n">
         <v>-0</v>
@@ -6031,7 +6031,7 @@
         <v>-28.25062407994756</v>
       </c>
       <c r="P90" t="n">
-        <v>33.08562879112031</v>
+        <v>33.08562471217975</v>
       </c>
       <c r="Q90" t="n">
         <v>-0</v>
@@ -6040,10 +6040,10 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>191.2668673314015</v>
+        <v>191.2668539435724</v>
       </c>
       <c r="T90" t="n">
-        <v>-6.821891723348856</v>
+        <v>-6.821891172505852</v>
       </c>
     </row>
     <row r="91">
@@ -6054,34 +6054,34 @@
         <v>31.27596664428711</v>
       </c>
       <c r="C91" t="n">
-        <v>82.07675933837891</v>
+        <v>82.07678985595703</v>
       </c>
       <c r="D91" t="n">
         <v>133.1999969482422</v>
       </c>
       <c r="E91" t="n">
-        <v>124.9449996948242</v>
+        <v>124.9449691772461</v>
       </c>
       <c r="F91" t="n">
-        <v>14.08998570675846</v>
+        <v>14.08999364481929</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4609658665061911</v>
+        <v>0.4609844569843036</v>
       </c>
       <c r="H91" t="n">
         <v>8.00291491984899</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9501094087047912</v>
+        <v>0.9500971974009786</v>
       </c>
       <c r="J91" t="n">
-        <v>129.510526670374</v>
+        <v>129.5105164414618</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.5143428835260166</v>
+        <v>-0.5143428835260222</v>
       </c>
       <c r="L91" t="n">
-        <v>26.5763839083054</v>
+        <v>26.5763964160349</v>
       </c>
       <c r="M91" t="n">
         <v>-0</v>
@@ -6093,7 +6093,7 @@
         <v>-22.50858256954314</v>
       </c>
       <c r="P91" t="n">
-        <v>33.39997846319388</v>
+        <v>33.39997030531278</v>
       </c>
       <c r="Q91" t="n">
         <v>-0</v>
@@ -6102,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>209.1549533719411</v>
+        <v>209.1549474928773</v>
       </c>
       <c r="T91" t="n">
         <v>-0</v>
@@ -6128,25 +6128,25 @@
         <v>2.515658680586097</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.06380388856070951</v>
+        <v>-0.06384104657672918</v>
       </c>
       <c r="H92" t="n">
         <v>0.007514839229982861</v>
       </c>
       <c r="I92" t="n">
-        <v>0.2564849243053891</v>
+        <v>0.256509411766781</v>
       </c>
       <c r="J92" t="n">
-        <v>132.76856947683</v>
+        <v>132.7685589905933</v>
       </c>
       <c r="K92" t="n">
         <v>-0</v>
       </c>
       <c r="L92" t="n">
-        <v>26.55942714193307</v>
+        <v>26.55942976642052</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.06380388856070641</v>
+        <v>-0.06384104657673408</v>
       </c>
       <c r="N92" t="n">
         <v>19.66954235348192</v>
@@ -6155,7 +6155,7 @@
         <v>-22.5027592141062</v>
       </c>
       <c r="P92" t="n">
-        <v>33.48564437267322</v>
+        <v>33.48564437267321</v>
       </c>
       <c r="Q92" t="n">
         <v>-0</v>
@@ -6164,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>212.4831833449182</v>
+        <v>212.483175483169</v>
       </c>
       <c r="T92" t="n">
         <v>-0</v>
@@ -6175,37 +6175,37 @@
         <v>43708</v>
       </c>
       <c r="B93" t="n">
-        <v>30.76715087890625</v>
+        <v>30.76715278625488</v>
       </c>
       <c r="C93" t="n">
-        <v>82.66566467285156</v>
+        <v>82.66567230224609</v>
       </c>
       <c r="D93" t="n">
         <v>143.75</v>
       </c>
       <c r="E93" t="n">
-        <v>139.1061859130859</v>
+        <v>139.1062316894531</v>
       </c>
       <c r="F93" t="n">
-        <v>-4.040862999090667</v>
+        <v>-4.040857050293867</v>
       </c>
       <c r="G93" t="n">
-        <v>0.7818083003777954</v>
+        <v>0.7818176017507339</v>
       </c>
       <c r="H93" t="n">
         <v>7.91231345612986</v>
       </c>
       <c r="I93" t="n">
-        <v>11.04911170399534</v>
+        <v>11.04914824748102</v>
       </c>
       <c r="J93" t="n">
-        <v>127.4035734784188</v>
+        <v>127.4035713140484</v>
       </c>
       <c r="K93" t="n">
-        <v>-4.040862999090662</v>
+        <v>-4.040857050293862</v>
       </c>
       <c r="L93" t="n">
-        <v>26.7670709478615</v>
+        <v>26.76707606325902</v>
       </c>
       <c r="M93" t="n">
         <v>-0</v>
@@ -6217,7 +6217,7 @@
         <v>-16.37093460327456</v>
       </c>
       <c r="P93" t="n">
-        <v>37.18551062421251</v>
+        <v>37.18552286103417</v>
       </c>
       <c r="Q93" t="n">
         <v>-0</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>212.5820132503684</v>
+        <v>212.5820284382172</v>
       </c>
       <c r="T93" t="n">
         <v>-0</v>
@@ -6237,40 +6237,40 @@
         <v>43738</v>
       </c>
       <c r="B94" t="n">
-        <v>31.88157844543457</v>
+        <v>31.88158226013184</v>
       </c>
       <c r="C94" t="n">
-        <v>82.55472564697266</v>
+        <v>82.55471038818359</v>
       </c>
       <c r="D94" t="n">
         <v>138.8699951171875</v>
       </c>
       <c r="E94" t="n">
-        <v>135.3782958984375</v>
+        <v>135.3783264160156</v>
       </c>
       <c r="F94" t="n">
-        <v>3.622134434593893</v>
+        <v>3.622140409348562</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1342020611797445</v>
+        <v>-0.1342297364458567</v>
       </c>
       <c r="H94" t="n">
         <v>-3.39478600543478</v>
       </c>
       <c r="I94" t="n">
-        <v>-2.679888022361299</v>
+        <v>-2.679898109640289</v>
       </c>
       <c r="J94" t="n">
-        <v>132.0183021842838</v>
+        <v>132.0183075535677</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.5650940546415897</v>
+        <v>-0.5650821570480148</v>
       </c>
       <c r="L94" t="n">
-        <v>26.73114898693203</v>
+        <v>26.73114668760505</v>
       </c>
       <c r="M94" t="n">
-        <v>-0.1342020611797446</v>
+        <v>-0.134229736445858</v>
       </c>
       <c r="N94" t="n">
         <v>20.50528573617283</v>
@@ -6279,16 +6279,16 @@
         <v>-19.2099624118385</v>
       </c>
       <c r="P94" t="n">
-        <v>36.18898057894035</v>
+        <v>36.18898873682145</v>
       </c>
       <c r="Q94" t="n">
-        <v>-2.679888022361299</v>
+        <v>-2.679898109640297</v>
       </c>
       <c r="R94" t="b">
         <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>215.4437174863289</v>
+        <v>215.443728714167</v>
       </c>
       <c r="T94" t="n">
         <v>-0</v>
@@ -6299,37 +6299,37 @@
         <v>43769</v>
       </c>
       <c r="B95" t="n">
-        <v>33.15734100341797</v>
+        <v>33.1573371887207</v>
       </c>
       <c r="C95" t="n">
-        <v>82.81304168701172</v>
+        <v>82.81304931640625</v>
       </c>
       <c r="D95" t="n">
         <v>142.4299926757812</v>
       </c>
       <c r="E95" t="n">
-        <v>133.8712615966797</v>
+        <v>133.8712310791016</v>
       </c>
       <c r="F95" t="n">
-        <v>4.001566485068708</v>
+        <v>4.001542075859299</v>
       </c>
       <c r="G95" t="n">
-        <v>0.3129027902578185</v>
+        <v>0.3129305729593357</v>
       </c>
       <c r="H95" t="n">
         <v>2.563546974700759</v>
       </c>
       <c r="I95" t="n">
-        <v>-1.113202298608051</v>
+        <v>-1.11324713254527</v>
       </c>
       <c r="J95" t="n">
-        <v>137.3011023186468</v>
+        <v>137.3010756781611</v>
       </c>
       <c r="K95" t="n">
         <v>-0</v>
       </c>
       <c r="L95" t="n">
-        <v>26.81479149798011</v>
+        <v>26.81479661809317</v>
       </c>
       <c r="M95" t="n">
         <v>-0</v>
@@ -6341,16 +6341,16 @@
         <v>-17.13887184738758</v>
       </c>
       <c r="P95" t="n">
-        <v>35.78612401529277</v>
+        <v>35.78611585741165</v>
       </c>
       <c r="Q95" t="n">
-        <v>-3.763257745904293</v>
+        <v>-3.763311353324871</v>
       </c>
       <c r="R95" t="b">
         <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>220.9329662002359</v>
+        <v>220.9329365219822</v>
       </c>
       <c r="T95" t="n">
         <v>-0</v>
@@ -6361,10 +6361,10 @@
         <v>43799</v>
       </c>
       <c r="B96" t="n">
-        <v>35.50037384033203</v>
+        <v>35.5003662109375</v>
       </c>
       <c r="C96" t="n">
-        <v>82.77395629882812</v>
+        <v>82.77399444580078</v>
       </c>
       <c r="D96" t="n">
         <v>137.8600006103516</v>
@@ -6373,28 +6373,28 @@
         <v>133.3262634277344</v>
       </c>
       <c r="F96" t="n">
-        <v>7.066407516430639</v>
+        <v>7.066396824573218</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.04719714115961615</v>
+        <v>-0.04716028564079044</v>
       </c>
       <c r="H96" t="n">
         <v>-3.208588289288572</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.4071061723368685</v>
+        <v>-0.4070834689233416</v>
       </c>
       <c r="J96" t="n">
-        <v>147.0033577330338</v>
+        <v>147.0033145299875</v>
       </c>
       <c r="K96" t="n">
         <v>-0</v>
       </c>
       <c r="L96" t="n">
-        <v>26.80213568298515</v>
+        <v>26.80215068341408</v>
       </c>
       <c r="M96" t="n">
-        <v>-0.04719714115961227</v>
+        <v>-0.04716028564078693</v>
       </c>
       <c r="N96" t="n">
         <v>20.35615182184411</v>
@@ -6403,16 +6403,16 @@
         <v>-19.79754430166469</v>
       </c>
       <c r="P96" t="n">
-        <v>35.64043649558639</v>
+        <v>35.64043649558637</v>
       </c>
       <c r="Q96" t="n">
-        <v>-4.155043463676645</v>
+        <v>-4.155075003844718</v>
       </c>
       <c r="R96" t="b">
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>229.8020817334494</v>
+        <v>229.8020535308321</v>
       </c>
       <c r="T96" t="n">
         <v>-0</v>
@@ -6426,34 +6426,34 @@
         <v>37.50580978393555</v>
       </c>
       <c r="C97" t="n">
-        <v>82.90231323242188</v>
+        <v>82.90229034423828</v>
       </c>
       <c r="D97" t="n">
         <v>142.8999938964844</v>
       </c>
       <c r="E97" t="n">
-        <v>129.0632019042969</v>
+        <v>129.0631256103516</v>
       </c>
       <c r="F97" t="n">
-        <v>5.649055845505324</v>
+        <v>5.649078550576125</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1550692262797693</v>
+        <v>0.1549954176990997</v>
       </c>
       <c r="H97" t="n">
         <v>3.655877893383952</v>
       </c>
       <c r="I97" t="n">
-        <v>-3.197465685932288</v>
+        <v>-3.19752290942551</v>
       </c>
       <c r="J97" t="n">
-        <v>155.3076595061408</v>
+        <v>155.307647239737</v>
       </c>
       <c r="K97" t="n">
         <v>-0</v>
       </c>
       <c r="L97" t="n">
-        <v>26.84369754741521</v>
+        <v>26.84369278881818</v>
       </c>
       <c r="M97" t="n">
         <v>-0</v>
@@ -6465,16 +6465,16 @@
         <v>-16.8654404538382</v>
       </c>
       <c r="P97" t="n">
-        <v>34.50084576832352</v>
+        <v>34.50082537362075</v>
       </c>
       <c r="Q97" t="n">
-        <v>-7.219653060622301</v>
+        <v>-7.219738438118474</v>
       </c>
       <c r="R97" t="b">
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>237.7525506981221</v>
+        <v>237.7525132784185</v>
       </c>
       <c r="T97" t="n">
         <v>-0</v>
@@ -6488,34 +6488,34 @@
         <v>37.34170532226562</v>
       </c>
       <c r="C98" t="n">
-        <v>83.38227081298828</v>
+        <v>83.38229370117188</v>
       </c>
       <c r="D98" t="n">
         <v>149.3300018310547</v>
       </c>
       <c r="E98" t="n">
-        <v>138.9895782470703</v>
+        <v>138.9895935058594</v>
       </c>
       <c r="F98" t="n">
         <v>-0.4375441101399979</v>
       </c>
       <c r="G98" t="n">
-        <v>0.5789435322761216</v>
+        <v>0.5789989093672343</v>
       </c>
       <c r="H98" t="n">
         <v>4.499655849690343</v>
       </c>
       <c r="I98" t="n">
-        <v>7.691097227026855</v>
+        <v>7.691172709915883</v>
       </c>
       <c r="J98" t="n">
-        <v>154.6281199893754</v>
+        <v>154.6281077766425</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.4375441101399982</v>
+        <v>-0.4375441101399959</v>
       </c>
       <c r="L98" t="n">
-        <v>26.99910739818974</v>
+        <v>26.99911747729933</v>
       </c>
       <c r="M98" t="n">
         <v>-0</v>
@@ -6527,16 +6527,16 @@
         <v>-13.12467138210503</v>
       </c>
       <c r="P98" t="n">
-        <v>37.15433936051186</v>
+        <v>37.1543434394524</v>
       </c>
       <c r="Q98" t="n">
-        <v>-0.08382636994193353</v>
+        <v>-0.08384828068246293</v>
       </c>
       <c r="R98" t="b">
         <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>240.831357661838</v>
+        <v>240.8313596071552</v>
       </c>
       <c r="T98" t="n">
         <v>-0</v>
@@ -6550,34 +6550,34 @@
         <v>31.56813812255859</v>
       </c>
       <c r="C99" t="n">
-        <v>84.11323547363281</v>
+        <v>84.11326599121094</v>
       </c>
       <c r="D99" t="n">
         <v>148.3800048828125</v>
       </c>
       <c r="E99" t="n">
-        <v>148.1997222900391</v>
+        <v>148.19970703125</v>
       </c>
       <c r="F99" t="n">
         <v>-15.46144491763327</v>
       </c>
       <c r="G99" t="n">
-        <v>0.8766427845122493</v>
+        <v>0.8766516937741553</v>
       </c>
       <c r="H99" t="n">
         <v>-0.6361728631845698</v>
       </c>
       <c r="I99" t="n">
-        <v>6.626499741294722</v>
+        <v>6.626477057077196</v>
       </c>
       <c r="J99" t="n">
-        <v>130.7203783900462</v>
+        <v>130.7203680655784</v>
       </c>
       <c r="K99" t="n">
-        <v>-15.83133838619363</v>
+        <v>-15.83133838619361</v>
       </c>
       <c r="L99" t="n">
-        <v>27.23579312507868</v>
+        <v>27.23580569796815</v>
       </c>
       <c r="M99" t="n">
         <v>-0</v>
@@ -6589,7 +6589,7 @@
         <v>-13.6773486475745</v>
       </c>
       <c r="P99" t="n">
-        <v>39.61637156211594</v>
+        <v>39.61636748317538</v>
       </c>
       <c r="Q99" t="n">
         <v>-0</v>
@@ -6598,10 +6598,10 @@
         <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>219.4820592048195</v>
+        <v>219.4820573743006</v>
       </c>
       <c r="T99" t="n">
-        <v>-8.864833327475537</v>
+        <v>-8.864834823703896</v>
       </c>
     </row>
     <row r="100">
@@ -6618,28 +6618,28 @@
         <v>148.0500030517578</v>
       </c>
       <c r="E100" t="n">
-        <v>157.64990234375</v>
+        <v>157.6499176025391</v>
       </c>
       <c r="F100" t="n">
         <v>-29.79654875813828</v>
       </c>
       <c r="G100" t="n">
-        <v>1.244084974997484</v>
+        <v>1.244048242096474</v>
       </c>
       <c r="H100" t="n">
         <v>-0.2224031676743232</v>
       </c>
       <c r="I100" t="n">
-        <v>6.376651661476229</v>
+        <v>6.376672910221304</v>
       </c>
       <c r="J100" t="n">
-        <v>91.77021710623328</v>
+        <v>91.77020985810049</v>
       </c>
       <c r="K100" t="n">
-        <v>-40.91069468302386</v>
+        <v>-40.91069468302385</v>
       </c>
       <c r="L100" t="n">
-        <v>27.57462953516918</v>
+        <v>27.57463225997453</v>
       </c>
       <c r="M100" t="n">
         <v>-0</v>
@@ -6651,7 +6651,7 @@
         <v>-13.86933295860275</v>
       </c>
       <c r="P100" t="n">
-        <v>42.14256957754821</v>
+        <v>42.14257365648875</v>
       </c>
       <c r="Q100" t="n">
         <v>-0</v>
@@ -6660,10 +6660,10 @@
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>183.3482048886395</v>
+        <v>183.3482044442526</v>
       </c>
       <c r="T100" t="n">
-        <v>-23.86863294351939</v>
+        <v>-23.86863374299315</v>
       </c>
     </row>
     <row r="101">
@@ -6680,7 +6680,7 @@
         <v>158.8000030517578</v>
       </c>
       <c r="E101" t="n">
-        <v>159.5715942382812</v>
+        <v>159.5716400146484</v>
       </c>
       <c r="F101" t="n">
         <v>25.18275307399889</v>
@@ -6692,16 +6692,16 @@
         <v>7.261060302877431</v>
       </c>
       <c r="I101" t="n">
-        <v>1.218961677718688</v>
+        <v>1.218980917550705</v>
       </c>
       <c r="J101" t="n">
-        <v>114.8804842755687</v>
+        <v>114.8804752021565</v>
       </c>
       <c r="K101" t="n">
-        <v>-26.03038083190846</v>
+        <v>-26.03038083190845</v>
       </c>
       <c r="L101" t="n">
-        <v>27.6498109557707</v>
+        <v>27.64981368800516</v>
       </c>
       <c r="M101" t="n">
         <v>-0</v>
@@ -6713,7 +6713,7 @@
         <v>-7.615333285456318</v>
       </c>
       <c r="P101" t="n">
-        <v>42.65627135070446</v>
+        <v>42.6562835875261</v>
       </c>
       <c r="Q101" t="n">
         <v>-0</v>
@@ -6722,10 +6722,10 @@
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>208.6346802997234</v>
+        <v>208.6346861953673</v>
       </c>
       <c r="T101" t="n">
-        <v>-13.3689722446042</v>
+        <v>-13.36897049632872</v>
       </c>
     </row>
     <row r="102">
@@ -6736,37 +6736,37 @@
         <v>30.28288841247559</v>
       </c>
       <c r="C102" t="n">
-        <v>85.32490539550781</v>
+        <v>85.32489776611328</v>
       </c>
       <c r="D102" t="n">
         <v>162.9100036621094</v>
       </c>
       <c r="E102" t="n">
-        <v>156.7600860595703</v>
+        <v>156.7601165771484</v>
       </c>
       <c r="F102" t="n">
         <v>9.155435525715848</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.07840977541889727</v>
+        <v>-0.07841870998764877</v>
       </c>
       <c r="H102" t="n">
         <v>2.588161543682088</v>
       </c>
       <c r="I102" t="n">
-        <v>-1.761910189674887</v>
+        <v>-1.761919246579091</v>
       </c>
       <c r="J102" t="n">
-        <v>125.3982929450485</v>
+        <v>125.3982830409259</v>
       </c>
       <c r="K102" t="n">
-        <v>-19.25814004035629</v>
+        <v>-19.25814004035627</v>
       </c>
       <c r="L102" t="n">
-        <v>27.62813080109654</v>
+        <v>27.62813106079703</v>
       </c>
       <c r="M102" t="n">
-        <v>-0.07840977541889382</v>
+        <v>-0.07841870998764916</v>
       </c>
       <c r="N102" t="n">
         <v>24.05498877963934</v>
@@ -6775,19 +6775,19 @@
         <v>-5.224268869291629</v>
       </c>
       <c r="P102" t="n">
-        <v>41.90470615924102</v>
+        <v>41.90471431712211</v>
       </c>
       <c r="Q102" t="n">
-        <v>-1.761910189674895</v>
+        <v>-1.761919246579099</v>
       </c>
       <c r="R102" t="b">
         <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>218.9861186850254</v>
+        <v>218.9861171984844</v>
       </c>
       <c r="T102" t="n">
-        <v>-9.070761876236416</v>
+        <v>-9.07076322797197</v>
       </c>
     </row>
     <row r="103">
@@ -6798,37 +6798,37 @@
         <v>31.17774391174316</v>
       </c>
       <c r="C103" t="n">
-        <v>85.3446044921875</v>
+        <v>85.34462738037109</v>
       </c>
       <c r="D103" t="n">
         <v>167.3699951171875</v>
       </c>
       <c r="E103" t="n">
-        <v>157.2877655029297</v>
+        <v>157.2878265380859</v>
       </c>
       <c r="F103" t="n">
         <v>2.954987275582766</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02308715912238135</v>
+        <v>0.02312292750925593</v>
       </c>
       <c r="H103" t="n">
         <v>2.737702630176453</v>
       </c>
       <c r="I103" t="n">
-        <v>0.3366159439073257</v>
+        <v>0.3366353460689142</v>
       </c>
       <c r="J103" t="n">
-        <v>129.1037965453727</v>
+        <v>129.1037863485846</v>
       </c>
       <c r="K103" t="n">
-        <v>-16.87222835247996</v>
+        <v>-16.87222835247994</v>
       </c>
       <c r="L103" t="n">
-        <v>27.63450935161712</v>
+        <v>27.63451949351439</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.05534071888613706</v>
+        <v>-0.05531391517985447</v>
       </c>
       <c r="N103" t="n">
         <v>24.71354284014818</v>
@@ -6837,19 +6837,19 @@
         <v>-2.629591185357259</v>
       </c>
       <c r="P103" t="n">
-        <v>42.04576408142054</v>
+        <v>42.04578039718275</v>
       </c>
       <c r="Q103" t="n">
-        <v>-1.431225116383343</v>
+        <v>-1.431215143463365</v>
       </c>
       <c r="R103" t="b">
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>223.4976128185585</v>
+        <v>223.4976290794299</v>
       </c>
       <c r="T103" t="n">
-        <v>-7.197461747327161</v>
+        <v>-7.197455744966179</v>
       </c>
     </row>
     <row r="104">
@@ -6857,10 +6857,10 @@
         <v>44043</v>
       </c>
       <c r="B104" t="n">
-        <v>34.82196044921875</v>
+        <v>34.82195663452148</v>
       </c>
       <c r="C104" t="n">
-        <v>85.42448425292969</v>
+        <v>85.42447662353516</v>
       </c>
       <c r="D104" t="n">
         <v>185.4299926757812</v>
@@ -6869,25 +6869,25 @@
         <v>164.2637634277344</v>
       </c>
       <c r="F104" t="n">
-        <v>11.68851905317942</v>
+        <v>11.68850681785771</v>
       </c>
       <c r="G104" t="n">
-        <v>0.09359673199902385</v>
+        <v>0.09356094884354071</v>
       </c>
       <c r="H104" t="n">
         <v>10.7904630970137</v>
       </c>
       <c r="I104" t="n">
-        <v>4.43518153017104</v>
+        <v>4.435141004354382</v>
       </c>
       <c r="J104" t="n">
-        <v>144.1941184029566</v>
+        <v>144.1940912180513</v>
       </c>
       <c r="K104" t="n">
-        <v>-7.155822924976099</v>
+        <v>-7.155833095926363</v>
       </c>
       <c r="L104" t="n">
-        <v>27.6603743492742</v>
+        <v>27.66037461216087</v>
       </c>
       <c r="M104" t="n">
         <v>-0</v>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>243.1453113566888</v>
+        <v>243.1452844346702</v>
       </c>
       <c r="T104" t="n">
         <v>-0</v>
@@ -6922,37 +6922,37 @@
         <v>39.79723739624023</v>
       </c>
       <c r="C105" t="n">
-        <v>85.40474700927734</v>
+        <v>85.40473937988281</v>
       </c>
       <c r="D105" t="n">
         <v>184.8300018310547</v>
       </c>
       <c r="E105" t="n">
-        <v>155.9741058349609</v>
+        <v>155.9740905761719</v>
       </c>
       <c r="F105" t="n">
-        <v>14.28775658474768</v>
+        <v>14.2877691048136</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.02310490232976248</v>
+        <v>-0.02310490439330071</v>
       </c>
       <c r="H105" t="n">
         <v>-0.3235673129619476</v>
       </c>
       <c r="I105" t="n">
-        <v>-5.04655282442762</v>
+        <v>-5.046562113627351</v>
       </c>
       <c r="J105" t="n">
-        <v>164.7962230498939</v>
+        <v>164.7962100340708</v>
       </c>
       <c r="K105" t="n">
         <v>-0</v>
       </c>
       <c r="L105" t="n">
-        <v>27.65398344679675</v>
+        <v>27.6539837090519</v>
       </c>
       <c r="M105" t="n">
-        <v>-0.02310490232975836</v>
+        <v>-0.0231049043933008</v>
       </c>
       <c r="N105" t="n">
         <v>27.29165502573024</v>
@@ -6961,16 +6961,16 @@
         <v>-0.3235673129619425</v>
       </c>
       <c r="P105" t="n">
-        <v>41.69459993139221</v>
+        <v>41.69459585245166</v>
       </c>
       <c r="Q105" t="n">
-        <v>-5.046552824427622</v>
+        <v>-5.046562113627357</v>
       </c>
       <c r="R105" t="b">
         <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>261.4364614538131</v>
+        <v>261.4364446213046</v>
       </c>
       <c r="T105" t="n">
         <v>-0</v>
@@ -6981,10 +6981,10 @@
         <v>44104</v>
       </c>
       <c r="B106" t="n">
-        <v>36.62662124633789</v>
+        <v>36.62661743164062</v>
       </c>
       <c r="C106" t="n">
-        <v>85.40376281738281</v>
+        <v>85.40373992919922</v>
       </c>
       <c r="D106" t="n">
         <v>177.1199951171875</v>
@@ -6993,28 +6993,28 @@
         <v>157.180419921875</v>
       </c>
       <c r="F106" t="n">
-        <v>-7.966925237383138</v>
+        <v>-7.966934822714977</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.001152385469183059</v>
+        <v>-0.00117025201511467</v>
       </c>
       <c r="H106" t="n">
         <v>-4.17140433776253</v>
       </c>
       <c r="I106" t="n">
-        <v>0.7734066372468762</v>
+        <v>0.7734164958083101</v>
       </c>
       <c r="J106" t="n">
-        <v>151.6670311654777</v>
+        <v>151.6670033903519</v>
       </c>
       <c r="K106" t="n">
-        <v>-7.966925237383136</v>
+        <v>-7.966934822714979</v>
       </c>
       <c r="L106" t="n">
-        <v>27.65366476630986</v>
+        <v>27.65366008775029</v>
       </c>
       <c r="M106" t="n">
-        <v>-0.02425702154140643</v>
+        <v>-0.02427488602280545</v>
       </c>
       <c r="N106" t="n">
         <v>26.15320974413974</v>
@@ -7023,19 +7023,19 @@
         <v>-4.481474349795993</v>
       </c>
       <c r="P106" t="n">
-        <v>42.01706873463513</v>
+        <v>42.01706873463512</v>
       </c>
       <c r="Q106" t="n">
-        <v>-4.312176561677037</v>
+        <v>-4.312176561677053</v>
       </c>
       <c r="R106" t="b">
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>247.4909744105624</v>
+        <v>247.4909419568771</v>
       </c>
       <c r="T106" t="n">
-        <v>-5.334178318395856</v>
+        <v>-5.334184636968993</v>
       </c>
     </row>
     <row r="107">
@@ -7043,40 +7043,40 @@
         <v>44135</v>
       </c>
       <c r="B107" t="n">
-        <v>34.65744018554688</v>
+        <v>34.65744400024414</v>
       </c>
       <c r="C107" t="n">
-        <v>85.36424255371094</v>
+        <v>85.3642578125</v>
       </c>
       <c r="D107" t="n">
         <v>176.1999969482422</v>
       </c>
       <c r="E107" t="n">
-        <v>151.8595275878906</v>
+        <v>151.8595123291016</v>
       </c>
       <c r="F107" t="n">
-        <v>-5.376365588152376</v>
+        <v>-5.376345317914543</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.04627461644328701</v>
+        <v>-0.04622996221470554</v>
       </c>
       <c r="H107" t="n">
         <v>-0.5194208414112778</v>
       </c>
       <c r="I107" t="n">
-        <v>-3.385213206981552</v>
+        <v>-3.385222914799535</v>
       </c>
       <c r="J107" t="n">
-        <v>143.5128570933246</v>
+        <v>143.5128615547534</v>
       </c>
       <c r="K107" t="n">
-        <v>-12.91495979863901</v>
+        <v>-12.91495021330718</v>
       </c>
       <c r="L107" t="n">
-        <v>27.64086813900674</v>
+        <v>27.64087581114074</v>
       </c>
       <c r="M107" t="n">
-        <v>-0.07052041314101085</v>
+        <v>-0.07049362596687898</v>
       </c>
       <c r="N107" t="n">
         <v>26.01736452203068</v>
@@ -7085,19 +7085,19 @@
         <v>-4.977617479431936</v>
       </c>
       <c r="P107" t="n">
-        <v>40.59470137464375</v>
+        <v>40.59469729570318</v>
       </c>
       <c r="Q107" t="n">
-        <v>-7.551413398184333</v>
+        <v>-7.551422687384084</v>
       </c>
       <c r="R107" t="b">
         <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>237.7657911290058</v>
+        <v>237.765799183628</v>
       </c>
       <c r="T107" t="n">
-        <v>-9.054081513029164</v>
+        <v>-9.054072576592736</v>
       </c>
     </row>
     <row r="108">
@@ -7105,7 +7105,7 @@
         <v>44165</v>
       </c>
       <c r="B108" t="n">
-        <v>42.45935821533203</v>
+        <v>42.4593620300293</v>
       </c>
       <c r="C108" t="n">
         <v>85.38302612304688</v>
@@ -7114,31 +7114,31 @@
         <v>166.6699981689453</v>
       </c>
       <c r="E108" t="n">
-        <v>154.3863372802734</v>
+        <v>154.3863067626953</v>
       </c>
       <c r="F108" t="n">
-        <v>22.5115241864827</v>
+        <v>22.51152170867014</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02200402507421817</v>
+        <v>0.02198614622539452</v>
       </c>
       <c r="H108" t="n">
         <v>-5.408625961608992</v>
       </c>
       <c r="I108" t="n">
-        <v>1.66391252002307</v>
+        <v>1.663902639248449</v>
       </c>
       <c r="J108" t="n">
-        <v>175.8197886286007</v>
+        <v>175.8197905383855</v>
       </c>
       <c r="K108" t="n">
         <v>-0</v>
       </c>
       <c r="L108" t="n">
-        <v>27.64695024256278</v>
+        <v>27.64695297451456</v>
       </c>
       <c r="M108" t="n">
-        <v>-0.04853190539617971</v>
+        <v>-0.0485229785731694</v>
       </c>
       <c r="N108" t="n">
         <v>24.61018258996568</v>
@@ -7147,16 +7147,16 @@
         <v>-10.11702272977878</v>
       </c>
       <c r="P108" t="n">
-        <v>41.27016169328243</v>
+        <v>41.27015353540131</v>
       </c>
       <c r="Q108" t="n">
-        <v>-6.013149791132345</v>
+        <v>-6.01316836953183</v>
       </c>
       <c r="R108" t="b">
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>269.3470831544116</v>
+        <v>269.347079638267</v>
       </c>
       <c r="T108" t="n">
         <v>-0</v>
@@ -7179,7 +7179,7 @@
         <v>152.4909973144531</v>
       </c>
       <c r="F109" t="n">
-        <v>7.358227409346574</v>
+        <v>7.358217763908748</v>
       </c>
       <c r="G109" t="n">
         <v>0.04049565538446487</v>
@@ -7188,19 +7188,19 @@
         <v>7.013861264675048</v>
       </c>
       <c r="I109" t="n">
-        <v>-1.227660425921961</v>
+        <v>-1.227640901570004</v>
       </c>
       <c r="J109" t="n">
-        <v>188.7570085065257</v>
+        <v>188.7569935982481</v>
       </c>
       <c r="K109" t="n">
         <v>-0</v>
       </c>
       <c r="L109" t="n">
-        <v>27.65814605625732</v>
+        <v>27.65814878931542</v>
       </c>
       <c r="M109" t="n">
-        <v>-0.008055903324878801</v>
+        <v>-0.008046972886891667</v>
       </c>
       <c r="N109" t="n">
         <v>26.33630665380908</v>
@@ -7209,16 +7209,16 @@
         <v>-3.812755403486062</v>
       </c>
       <c r="P109" t="n">
-        <v>40.76350425046</v>
+        <v>40.76350425045998</v>
       </c>
       <c r="Q109" t="n">
-        <v>-7.166989156717158</v>
+        <v>-7.16698915671719</v>
       </c>
       <c r="R109" t="b">
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>283.5149654670521</v>
+        <v>283.5149532918326</v>
       </c>
       <c r="T109" t="n">
         <v>-0</v>
@@ -7238,7 +7238,7 @@
         <v>172.6100006103516</v>
       </c>
       <c r="E110" t="n">
-        <v>146.9513092041016</v>
+        <v>146.9513397216797</v>
       </c>
       <c r="F110" t="n">
         <v>-2.298846534712706</v>
@@ -7250,16 +7250,16 @@
         <v>-3.223816988295236</v>
       </c>
       <c r="I110" t="n">
-        <v>-3.632796825984497</v>
+        <v>-3.632776813276428</v>
       </c>
       <c r="J110" t="n">
-        <v>184.417774557446</v>
+        <v>184.4177599918869</v>
       </c>
       <c r="K110" t="n">
-        <v>-2.298846534712711</v>
+        <v>-2.298846534712702</v>
       </c>
       <c r="L110" t="n">
-        <v>27.66455672186574</v>
+        <v>27.66455945555731</v>
       </c>
       <c r="M110" t="n">
         <v>-0</v>
@@ -7271,19 +7271,19 @@
         <v>-6.913656135361565</v>
       </c>
       <c r="P110" t="n">
-        <v>39.28264896188923</v>
+        <v>39.28265711977032</v>
       </c>
       <c r="Q110" t="n">
-        <v>-10.53942382809778</v>
+        <v>-10.53940524969836</v>
       </c>
       <c r="R110" t="b">
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>276.852252567015</v>
+        <v>276.8522488930286</v>
       </c>
       <c r="T110" t="n">
-        <v>-2.350039225993303</v>
+        <v>-2.350036328399877</v>
       </c>
     </row>
     <row r="111">
@@ -7291,7 +7291,7 @@
         <v>44255</v>
       </c>
       <c r="B111" t="n">
-        <v>46.89099502563477</v>
+        <v>46.8909912109375</v>
       </c>
       <c r="C111" t="n">
         <v>85.38793182373047</v>
@@ -7300,10 +7300,10 @@
         <v>161.8099975585938</v>
       </c>
       <c r="E111" t="n">
-        <v>138.5266723632812</v>
+        <v>138.5266418457031</v>
       </c>
       <c r="F111" t="n">
-        <v>5.288514866801242</v>
+        <v>5.288506301322737</v>
       </c>
       <c r="G111" t="n">
         <v>-0.05790086503928427</v>
@@ -7312,19 +7312,19 @@
         <v>-6.256881416817583</v>
       </c>
       <c r="I111" t="n">
-        <v>-5.732944392566985</v>
+        <v>-5.732984736262104</v>
       </c>
       <c r="J111" t="n">
-        <v>194.1707359819406</v>
+        <v>194.1707048498161</v>
       </c>
       <c r="K111" t="n">
         <v>-0</v>
       </c>
       <c r="L111" t="n">
-        <v>27.64853870421449</v>
+        <v>27.64854143632324</v>
       </c>
       <c r="M111" t="n">
-        <v>-0.05790086503928807</v>
+        <v>-0.05790086503928372</v>
       </c>
       <c r="N111" t="n">
         <v>23.89256392000651</v>
@@ -7333,19 +7333,19 @@
         <v>-12.73795828622305</v>
       </c>
       <c r="P111" t="n">
-        <v>37.03059654097683</v>
+        <v>37.03058838309571</v>
       </c>
       <c r="Q111" t="n">
-        <v>-15.66814891330296</v>
+        <v>-15.66816749170244</v>
       </c>
       <c r="R111" t="b">
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>282.7424351471384</v>
+        <v>282.7423985892415</v>
       </c>
       <c r="T111" t="n">
-        <v>-0.2724830834383155</v>
+        <v>-0.2724916952778411</v>
       </c>
     </row>
     <row r="112">
@@ -7356,37 +7356,37 @@
         <v>51.08823013305664</v>
       </c>
       <c r="C112" t="n">
-        <v>85.34044647216797</v>
+        <v>85.34046173095703</v>
       </c>
       <c r="D112" t="n">
         <v>159.9600067138672</v>
       </c>
       <c r="E112" t="n">
-        <v>131.2606048583984</v>
+        <v>131.2605438232422</v>
       </c>
       <c r="F112" t="n">
-        <v>8.951047221598296</v>
+        <v>8.951056085033482</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.05561131479390191</v>
+        <v>-0.05559344483413442</v>
       </c>
       <c r="H112" t="n">
         <v>-1.143310594301605</v>
       </c>
       <c r="I112" t="n">
-        <v>-5.245247995149849</v>
+        <v>-5.245271180798728</v>
       </c>
       <c r="J112" t="n">
-        <v>211.551050250209</v>
+        <v>211.551033541628</v>
       </c>
       <c r="K112" t="n">
         <v>-0</v>
       </c>
       <c r="L112" t="n">
-        <v>27.63316298831978</v>
+        <v>27.63317065969239</v>
       </c>
       <c r="M112" t="n">
-        <v>-0.113479980400859</v>
+        <v>-0.1134621207879562</v>
       </c>
       <c r="N112" t="n">
         <v>23.61939770545879</v>
@@ -7395,16 +7395,16 @@
         <v>-13.73563445394055</v>
       </c>
       <c r="P112" t="n">
-        <v>35.08824991831921</v>
+        <v>35.08823360255699</v>
       </c>
       <c r="Q112" t="n">
-        <v>-20.09156364170069</v>
+        <v>-20.09160079849963</v>
       </c>
       <c r="R112" t="b">
         <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>297.8918608623068</v>
+        <v>297.8918355093361</v>
       </c>
       <c r="T112" t="n">
         <v>-0</v>
@@ -7415,40 +7415,40 @@
         <v>44316</v>
       </c>
       <c r="B113" t="n">
-        <v>56.50614929199219</v>
+        <v>56.50615310668945</v>
       </c>
       <c r="C113" t="n">
-        <v>85.38892364501953</v>
+        <v>85.38894653320312</v>
       </c>
       <c r="D113" t="n">
         <v>165.6600036621094</v>
       </c>
       <c r="E113" t="n">
-        <v>134.5356750488281</v>
+        <v>134.5356903076172</v>
       </c>
       <c r="F113" t="n">
-        <v>10.60502418037357</v>
+        <v>10.60503164725439</v>
       </c>
       <c r="G113" t="n">
-        <v>0.05680445188129823</v>
+        <v>0.05681338167462524</v>
       </c>
       <c r="H113" t="n">
         <v>3.563388790323208</v>
       </c>
       <c r="I113" t="n">
-        <v>2.495089973082765</v>
+        <v>2.495149257331564</v>
       </c>
       <c r="J113" t="n">
-        <v>233.9860902830779</v>
+        <v>233.9860875988114</v>
       </c>
       <c r="K113" t="n">
         <v>-0</v>
       </c>
       <c r="L113" t="n">
-        <v>27.64885985509276</v>
+        <v>27.64886999840808</v>
       </c>
       <c r="M113" t="n">
-        <v>-0.05673999020042308</v>
+        <v>-0.0567132007810702</v>
       </c>
       <c r="N113" t="n">
         <v>24.46104867563696</v>
@@ -7457,16 +7457,16 @@
         <v>-10.66169972202883</v>
       </c>
       <c r="P113" t="n">
-        <v>35.96373332376142</v>
+        <v>35.96373740270195</v>
       </c>
       <c r="Q113" t="n">
-        <v>-18.09777625847754</v>
+        <v>-18.09776696927786</v>
       </c>
       <c r="R113" t="b">
         <v>0</v>
       </c>
       <c r="S113" t="n">
-        <v>322.059732137569</v>
+        <v>322.0597436755584</v>
       </c>
       <c r="T113" t="n">
         <v>-0</v>
@@ -7486,28 +7486,28 @@
         <v>178.3800048828125</v>
       </c>
       <c r="E114" t="n">
-        <v>134.5386047363281</v>
+        <v>134.5386199951172</v>
       </c>
       <c r="F114" t="n">
-        <v>1.086962392123314</v>
+        <v>1.086955567801762</v>
       </c>
       <c r="G114" t="n">
-        <v>0.06030147880240477</v>
+        <v>0.06027465801770049</v>
       </c>
       <c r="H114" t="n">
         <v>7.678377966625938</v>
       </c>
       <c r="I114" t="n">
-        <v>0.002177628721100611</v>
+        <v>0.002177628474120397</v>
       </c>
       <c r="J114" t="n">
-        <v>236.5294310872547</v>
+        <v>236.5294124058481</v>
       </c>
       <c r="K114" t="n">
         <v>-0</v>
       </c>
       <c r="L114" t="n">
-        <v>27.66553252645738</v>
+        <v>27.66553526024538</v>
       </c>
       <c r="M114" t="n">
         <v>-0</v>
@@ -7519,16 +7519,16 @@
         <v>-3.80196735772697</v>
       </c>
       <c r="P114" t="n">
-        <v>35.96451648034746</v>
+        <v>35.96452055928799</v>
       </c>
       <c r="Q114" t="n">
-        <v>-18.09599273213013</v>
+        <v>-18.09598344293044</v>
       </c>
       <c r="R114" t="b">
         <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>326.4987405416122</v>
+        <v>326.4987286729342</v>
       </c>
       <c r="T114" t="n">
         <v>-0</v>
@@ -7542,7 +7542,7 @@
         <v>59.61484909057617</v>
       </c>
       <c r="C115" t="n">
-        <v>85.29389190673828</v>
+        <v>85.29390716552734</v>
       </c>
       <c r="D115" t="n">
         <v>165.6300048828125</v>
@@ -7554,25 +7554,25 @@
         <v>4.367093709347625</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.1714908839714369</v>
+        <v>-0.1714730249884666</v>
       </c>
       <c r="H115" t="n">
         <v>-7.147662098325524</v>
       </c>
       <c r="I115" t="n">
-        <v>4.419106370536774</v>
+        <v>4.419094527772827</v>
       </c>
       <c r="J115" t="n">
-        <v>246.8588929930219</v>
+        <v>246.8588734957808</v>
       </c>
       <c r="K115" t="n">
         <v>-0</v>
       </c>
       <c r="L115" t="n">
-        <v>27.61808866017236</v>
+        <v>27.61809633005539</v>
       </c>
       <c r="M115" t="n">
-        <v>-0.1714908839714305</v>
+        <v>-0.1714730249884681</v>
       </c>
       <c r="N115" t="n">
         <v>24.45661911156375</v>
@@ -7581,16 +7581,16 @@
         <v>-10.67787767623354</v>
       </c>
       <c r="P115" t="n">
-        <v>37.55382671926323</v>
+        <v>37.55382671926322</v>
       </c>
       <c r="Q115" t="n">
-        <v>-14.4765675292308</v>
+        <v>-14.47656752923083</v>
       </c>
       <c r="R115" t="b">
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>336.4874274840212</v>
+        <v>336.4874156566632</v>
       </c>
       <c r="T115" t="n">
         <v>-0</v>
@@ -7604,37 +7604,37 @@
         <v>62.39727783203125</v>
       </c>
       <c r="C116" t="n">
-        <v>85.43546295166016</v>
+        <v>85.43547058105469</v>
       </c>
       <c r="D116" t="n">
         <v>169.8200073242188</v>
       </c>
       <c r="E116" t="n">
-        <v>145.7052612304688</v>
+        <v>145.7053070068359</v>
       </c>
       <c r="F116" t="n">
         <v>4.667341751092202</v>
       </c>
       <c r="G116" t="n">
-        <v>0.1659802850556558</v>
+        <v>0.1659713105329086</v>
       </c>
       <c r="H116" t="n">
         <v>2.529736350832557</v>
       </c>
       <c r="I116" t="n">
-        <v>3.716616920610516</v>
+        <v>3.716649505363456</v>
       </c>
       <c r="J116" t="n">
-        <v>258.3806411719692</v>
+        <v>258.3806207647253</v>
       </c>
       <c r="K116" t="n">
         <v>-0</v>
       </c>
       <c r="L116" t="n">
-        <v>27.66392924245744</v>
+        <v>27.66393444647862</v>
       </c>
       <c r="M116" t="n">
-        <v>-0.005795239973837399</v>
+        <v>-0.005786310482345132</v>
       </c>
       <c r="N116" t="n">
         <v>25.07530709541364</v>
@@ -7643,16 +7643,16 @@
         <v>-8.418263478474088</v>
       </c>
       <c r="P116" t="n">
-        <v>38.94955859744812</v>
+        <v>38.94957083426976</v>
       </c>
       <c r="Q116" t="n">
-        <v>-11.29798916693528</v>
+        <v>-11.29796129933614</v>
       </c>
       <c r="R116" t="b">
         <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>350.0694361072884</v>
+        <v>350.0694331408873</v>
       </c>
       <c r="T116" t="n">
         <v>-0</v>
@@ -7666,37 +7666,37 @@
         <v>66.09384918212891</v>
       </c>
       <c r="C117" t="n">
-        <v>85.40773773193359</v>
+        <v>85.40773010253906</v>
       </c>
       <c r="D117" t="n">
         <v>169.6900024414062</v>
       </c>
       <c r="E117" t="n">
-        <v>145.2096557617188</v>
+        <v>145.2096405029297</v>
       </c>
       <c r="F117" t="n">
         <v>5.924250990641844</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.03245165270802097</v>
+        <v>-0.03246950982649377</v>
       </c>
       <c r="H117" t="n">
         <v>-0.07655451490135023</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.3401424660747665</v>
+        <v>-0.3401842486650097</v>
       </c>
       <c r="J117" t="n">
-        <v>273.6877588662264</v>
+        <v>273.6877372500061</v>
       </c>
       <c r="K117" t="n">
         <v>-0</v>
       </c>
       <c r="L117" t="n">
-        <v>27.65495184021428</v>
+        <v>27.65495210256513</v>
       </c>
       <c r="M117" t="n">
-        <v>-0.03824501203070553</v>
+        <v>-0.03825394152218986</v>
       </c>
       <c r="N117" t="n">
         <v>25.05611081570672</v>
@@ -7705,16 +7705,16 @@
         <v>-8.488373432606375</v>
       </c>
       <c r="P117" t="n">
-        <v>38.81707460830953</v>
+        <v>38.81707052936896</v>
       </c>
       <c r="Q117" t="n">
-        <v>-11.59970237404078</v>
+        <v>-11.59971166324055</v>
       </c>
       <c r="R117" t="b">
         <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>365.2158961304569</v>
+        <v>365.2158706976469</v>
       </c>
       <c r="T117" t="n">
         <v>-0</v>
@@ -7740,25 +7740,25 @@
         <v>-9.411866694108884</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.1008703957447898</v>
+        <v>-0.1008614718467804</v>
       </c>
       <c r="H118" t="n">
         <v>-3.223525924924131</v>
       </c>
       <c r="I118" t="n">
-        <v>-2.907015844126914</v>
+        <v>-2.907005641489124</v>
       </c>
       <c r="J118" t="n">
-        <v>247.928631843643</v>
+        <v>247.9286122619125</v>
       </c>
       <c r="K118" t="n">
-        <v>-9.41186669410888</v>
+        <v>-9.411866694108886</v>
       </c>
       <c r="L118" t="n">
-        <v>27.62705618085003</v>
+        <v>27.62705891083596</v>
       </c>
       <c r="M118" t="n">
-        <v>-0.1390768298805058</v>
+        <v>-0.1390768298805141</v>
       </c>
       <c r="N118" t="n">
         <v>24.24842058778469</v>
@@ -7767,19 +7767,19 @@
         <v>-11.43827443932607</v>
       </c>
       <c r="P118" t="n">
-        <v>37.6886560992194</v>
+        <v>37.68865609921939</v>
       </c>
       <c r="Q118" t="n">
-        <v>-14.16951303228277</v>
+        <v>-14.1695130322828</v>
       </c>
       <c r="R118" t="b">
         <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>337.4927647114971</v>
+        <v>337.4927478597526</v>
       </c>
       <c r="T118" t="n">
-        <v>-7.590888488889049</v>
+        <v>-7.590886667914168</v>
       </c>
     </row>
     <row r="119">
@@ -7790,7 +7790,7 @@
         <v>68.42292022705078</v>
       </c>
       <c r="C119" t="n">
-        <v>85.03532409667969</v>
+        <v>85.03531646728516</v>
       </c>
       <c r="D119" t="n">
         <v>166.6499938964844</v>
@@ -7802,7 +7802,7 @@
         <v>14.27974165162829</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.3355100667774225</v>
+        <v>-0.3355190087050541</v>
       </c>
       <c r="H119" t="n">
         <v>1.479717852708728</v>
@@ -7811,16 +7811,16 @@
         <v>2.465027708888101</v>
       </c>
       <c r="J119" t="n">
-        <v>283.3321999513318</v>
+        <v>283.3321775733808</v>
       </c>
       <c r="K119" t="n">
         <v>-0</v>
       </c>
       <c r="L119" t="n">
-        <v>27.53436462620902</v>
+        <v>27.53436487664396</v>
       </c>
       <c r="M119" t="n">
-        <v>-0.4741202798931288</v>
+        <v>-0.4741292093846093</v>
       </c>
       <c r="N119" t="n">
         <v>24.60722879622204</v>
@@ -7829,16 +7829,16 @@
         <v>-10.12781077553787</v>
       </c>
       <c r="P119" t="n">
-        <v>38.61769191517271</v>
+        <v>38.61769191517269</v>
       </c>
       <c r="Q119" t="n">
-        <v>-12.05376774585494</v>
+        <v>-12.05376774585497</v>
       </c>
       <c r="R119" t="b">
         <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>374.0914852889356</v>
+        <v>374.0914631614195</v>
       </c>
       <c r="T119" t="n">
         <v>-0</v>
@@ -7858,31 +7858,31 @@
         <v>165.5</v>
       </c>
       <c r="E120" t="n">
-        <v>148.4675750732422</v>
+        <v>148.4675903320312</v>
       </c>
       <c r="F120" t="n">
         <v>-1.716194845215868</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.05708902496467383</v>
+        <v>-0.05708005805621363</v>
       </c>
       <c r="H120" t="n">
         <v>-0.6900653696985448</v>
       </c>
       <c r="I120" t="n">
-        <v>2.771479382427122</v>
+        <v>2.771489944789485</v>
       </c>
       <c r="J120" t="n">
-        <v>278.4696673409304</v>
+        <v>278.4696453470286</v>
       </c>
       <c r="K120" t="n">
-        <v>-1.716194845215858</v>
+        <v>-1.716194845215872</v>
       </c>
       <c r="L120" t="n">
-        <v>27.5186455259137</v>
+        <v>27.51864824518696</v>
       </c>
       <c r="M120" t="n">
-        <v>-0.5309386342128533</v>
+        <v>-0.5309386342128384</v>
       </c>
       <c r="N120" t="n">
         <v>24.43742283185682</v>
@@ -7891,19 +7891,19 @@
         <v>-10.74798763036584</v>
       </c>
       <c r="P120" t="n">
-        <v>39.68797328457094</v>
+        <v>39.68797736351149</v>
       </c>
       <c r="Q120" t="n">
-        <v>-9.61635605130984</v>
+        <v>-9.616346762110137</v>
       </c>
       <c r="R120" t="b">
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>370.1137089832719</v>
+        <v>370.1136937875839</v>
       </c>
       <c r="T120" t="n">
-        <v>-1.063316451212843</v>
+        <v>-1.063314661131216</v>
       </c>
     </row>
     <row r="121">
@@ -7914,37 +7914,37 @@
         <v>73.14002227783203</v>
       </c>
       <c r="C121" t="n">
-        <v>84.80638122558594</v>
+        <v>84.80637359619141</v>
       </c>
       <c r="D121" t="n">
         <v>170.9600067138672</v>
       </c>
       <c r="E121" t="n">
-        <v>145.4777069091797</v>
+        <v>145.4777221679688</v>
       </c>
       <c r="F121" t="n">
         <v>8.760581388555</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.2122648221127399</v>
+        <v>-0.2122737992674151</v>
       </c>
       <c r="H121" t="n">
         <v>3.299097712306454</v>
       </c>
       <c r="I121" t="n">
-        <v>-2.013818951772828</v>
+        <v>-2.013818744802143</v>
       </c>
       <c r="J121" t="n">
-        <v>302.8652291907709</v>
+        <v>302.8652052700755</v>
       </c>
       <c r="K121" t="n">
         <v>-0</v>
       </c>
       <c r="L121" t="n">
-        <v>27.46023312194028</v>
+        <v>27.46023336504987</v>
       </c>
       <c r="M121" t="n">
-        <v>-0.7420764603781568</v>
+        <v>-0.7420853898696268</v>
       </c>
       <c r="N121" t="n">
         <v>25.24363728944927</v>
@@ -7953,16 +7953,16 @@
         <v>-7.803476532091764</v>
       </c>
       <c r="P121" t="n">
-        <v>38.88872935699172</v>
+        <v>38.88873343593226</v>
       </c>
       <c r="Q121" t="n">
-        <v>-11.43651900245144</v>
+        <v>-11.43650971325173</v>
       </c>
       <c r="R121" t="b">
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>394.4578289591523</v>
+        <v>394.4578093605069</v>
       </c>
       <c r="T121" t="n">
         <v>-0</v>
@@ -7976,37 +7976,37 @@
         <v>65.38979339599609</v>
       </c>
       <c r="C122" t="n">
-        <v>84.221435546875</v>
+        <v>84.22144317626953</v>
       </c>
       <c r="D122" t="n">
         <v>168.0899963378906</v>
       </c>
       <c r="E122" t="n">
-        <v>139.7839050292969</v>
+        <v>139.7838592529297</v>
       </c>
       <c r="F122" t="n">
         <v>-10.59642674484794</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.6897425291087167</v>
+        <v>-0.6897245986569822</v>
       </c>
       <c r="H122" t="n">
         <v>-1.678761267703999</v>
       </c>
       <c r="I122" t="n">
-        <v>-3.913865568033315</v>
+        <v>-3.913907112502713</v>
       </c>
       <c r="J122" t="n">
-        <v>270.7723370439551</v>
+        <v>270.7723156579986</v>
       </c>
       <c r="K122" t="n">
         <v>-10.59642674484794</v>
       </c>
       <c r="L122" t="n">
-        <v>27.27082821550586</v>
+        <v>27.27083338068251</v>
       </c>
       <c r="M122" t="n">
-        <v>-1.426700572541135</v>
+        <v>-1.426691643049645</v>
       </c>
       <c r="N122" t="n">
         <v>24.81985688407431</v>
@@ -8015,19 +8015,19 @@
         <v>-9.351236058240641</v>
       </c>
       <c r="P122" t="n">
-        <v>37.36667676884276</v>
+        <v>37.36666453202108</v>
       </c>
       <c r="Q122" t="n">
-        <v>-14.90277459106621</v>
+        <v>-14.90280245866543</v>
       </c>
       <c r="R122" t="b">
         <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>360.229698912378</v>
+        <v>360.2296704547765</v>
       </c>
       <c r="T122" t="n">
-        <v>-8.677259654622997</v>
+        <v>-8.677262331609269</v>
       </c>
     </row>
     <row r="123">
@@ -8038,7 +8038,7 @@
         <v>61.28231811523438</v>
       </c>
       <c r="C123" t="n">
-        <v>83.85748291015625</v>
+        <v>83.85747528076172</v>
       </c>
       <c r="D123" t="n">
         <v>178.3800048828125</v>
@@ -8050,25 +8050,25 @@
         <v>-6.281523564216096</v>
       </c>
       <c r="G123" t="n">
-        <v>-0.4321377738998322</v>
+        <v>-0.4321558522169422</v>
       </c>
       <c r="H123" t="n">
         <v>6.121725723782601</v>
       </c>
       <c r="I123" t="n">
-        <v>-1.633020328400836</v>
+        <v>-1.632988115218248</v>
       </c>
       <c r="J123" t="n">
-        <v>253.7637088871604</v>
+        <v>253.7636888445678</v>
       </c>
       <c r="K123" t="n">
-        <v>-16.21233326612152</v>
+        <v>-16.21233326612151</v>
       </c>
       <c r="L123" t="n">
-        <v>27.15298066553133</v>
+        <v>27.15298087827956</v>
       </c>
       <c r="M123" t="n">
-        <v>-1.852673034346573</v>
+        <v>-1.852681963838056</v>
       </c>
       <c r="N123" t="n">
         <v>26.33926044755271</v>
@@ -8077,19 +8077,19 @@
         <v>-3.801967357726996</v>
       </c>
       <c r="P123" t="n">
-        <v>36.75647134115972</v>
+        <v>36.75647134115971</v>
       </c>
       <c r="Q123" t="n">
-        <v>-16.29242958089918</v>
+        <v>-16.29242958089921</v>
       </c>
       <c r="R123" t="b">
         <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>344.0124213414042</v>
+        <v>344.0124015115598</v>
       </c>
       <c r="T123" t="n">
-        <v>-12.78854263099742</v>
+        <v>-12.7885433250083</v>
       </c>
     </row>
     <row r="124">
@@ -8100,37 +8100,37 @@
         <v>65.61000061035156</v>
       </c>
       <c r="C124" t="n">
-        <v>82.68198394775391</v>
+        <v>82.68197631835938</v>
       </c>
       <c r="D124" t="n">
         <v>180.6499938964844</v>
       </c>
       <c r="E124" t="n">
-        <v>130.01513671875</v>
+        <v>130.0151214599609</v>
       </c>
       <c r="F124" t="n">
         <v>7.06187792534132</v>
       </c>
       <c r="G124" t="n">
-        <v>-1.401781834617855</v>
+        <v>-1.401781962152659</v>
       </c>
       <c r="H124" t="n">
         <v>1.27255799503041</v>
       </c>
       <c r="I124" t="n">
-        <v>-5.444365888571423</v>
+        <v>-5.444376985775268</v>
       </c>
       <c r="J124" t="n">
-        <v>271.6841922275902</v>
+        <v>271.6841707696142</v>
       </c>
       <c r="K124" t="n">
         <v>-10.2953505248832</v>
       </c>
       <c r="L124" t="n">
-        <v>26.77235511500461</v>
+        <v>26.77235529014107</v>
       </c>
       <c r="M124" t="n">
-        <v>-3.228484434914092</v>
+        <v>-3.228493364405573</v>
       </c>
       <c r="N124" t="n">
         <v>26.67444281220993</v>
@@ -8139,19 +8139,19 @@
         <v>-2.577791602275788</v>
       </c>
       <c r="P124" t="n">
-        <v>34.75531455361909</v>
+        <v>34.75531047467853</v>
       </c>
       <c r="Q124" t="n">
-        <v>-20.8497759909486</v>
+        <v>-20.84978528014836</v>
       </c>
       <c r="R124" t="b">
         <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>359.8863047084238</v>
+        <v>359.8862793466437</v>
       </c>
       <c r="T124" t="n">
-        <v>-8.764314386141518</v>
+        <v>-8.764316282623568</v>
       </c>
     </row>
     <row r="125">
@@ -8168,28 +8168,28 @@
         <v>176.9100036621094</v>
       </c>
       <c r="E125" t="n">
-        <v>117.7626647949219</v>
+        <v>117.7626495361328</v>
       </c>
       <c r="F125" t="n">
         <v>-17.39064127612873</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.4969137588141215</v>
+        <v>-0.4969045772689307</v>
       </c>
       <c r="H125" t="n">
         <v>-2.070296352469336</v>
       </c>
       <c r="I125" t="n">
-        <v>-9.423881121113453</v>
+        <v>-9.423882227115676</v>
       </c>
       <c r="J125" t="n">
-        <v>224.436568953342</v>
+        <v>224.4365512270456</v>
       </c>
       <c r="K125" t="n">
-        <v>-25.89556432310946</v>
+        <v>-25.89556432310945</v>
       </c>
       <c r="L125" t="n">
-        <v>26.63931959887958</v>
+        <v>26.63932223126166</v>
       </c>
       <c r="M125" t="n">
         <v>-3.709355410369952</v>
@@ -8201,19 +8201,19 @@
         <v>-4.594720029228947</v>
       </c>
       <c r="P125" t="n">
-        <v>31.48001502681699</v>
+        <v>31.48001094787643</v>
       </c>
       <c r="Q125" t="n">
-        <v>-28.3087990086566</v>
+        <v>-28.30880829785635</v>
       </c>
       <c r="R125" t="b">
         <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>308.6781063746658</v>
+        <v>308.678087201811</v>
       </c>
       <c r="T125" t="n">
-        <v>-21.7462340171652</v>
+        <v>-21.74623498968409</v>
       </c>
     </row>
     <row r="126">
@@ -8224,37 +8224,37 @@
         <v>53.91999816894531</v>
       </c>
       <c r="C126" t="n">
-        <v>82.76164245605469</v>
+        <v>82.76163482666016</v>
       </c>
       <c r="D126" t="n">
         <v>171.1399993896484</v>
       </c>
       <c r="E126" t="n">
-        <v>115.1091079711914</v>
+        <v>115.1091156005859</v>
       </c>
       <c r="F126" t="n">
         <v>-0.5166099447467154</v>
       </c>
       <c r="G126" t="n">
-        <v>0.596219703896006</v>
+        <v>0.5962104304182647</v>
       </c>
       <c r="H126" t="n">
         <v>-3.261547766106776</v>
       </c>
       <c r="I126" t="n">
-        <v>-2.253309084293831</v>
+        <v>-2.253289940400582</v>
       </c>
       <c r="J126" t="n">
-        <v>223.2771073184807</v>
+        <v>223.2770896837601</v>
       </c>
       <c r="K126" t="n">
-        <v>-26.27839520731471</v>
+        <v>-26.2783952073147</v>
       </c>
       <c r="L126" t="n">
-        <v>26.79814847131193</v>
+        <v>26.79814864899718</v>
       </c>
       <c r="M126" t="n">
-        <v>-3.135251614318099</v>
+        <v>-3.135260543809592</v>
       </c>
       <c r="N126" t="n">
         <v>25.27021467388856</v>
@@ -8263,19 +8263,19 @@
         <v>-7.706408806863542</v>
       </c>
       <c r="P126" t="n">
-        <v>30.77067298848066</v>
+        <v>30.77067502795093</v>
       </c>
       <c r="Q126" t="n">
-        <v>-29.92422335323389</v>
+        <v>-29.92421870863405</v>
       </c>
       <c r="R126" t="b">
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>306.1161434521619</v>
+        <v>306.1161280345968</v>
       </c>
       <c r="T126" t="n">
-        <v>-22.39572370514126</v>
+        <v>-22.39572375791703</v>
       </c>
     </row>
     <row r="127">
@@ -8298,25 +8298,25 @@
         <v>-16.72848098919518</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.594354544460618</v>
+        <v>-0.5943453807353061</v>
       </c>
       <c r="H127" t="n">
         <v>-1.565965107712486</v>
       </c>
       <c r="I127" t="n">
-        <v>-1.274564822551738</v>
+        <v>-1.274571366041288</v>
       </c>
       <c r="J127" t="n">
-        <v>185.9262388674837</v>
+        <v>185.926224182784</v>
       </c>
       <c r="K127" t="n">
         <v>-38.61089984998867</v>
       </c>
       <c r="L127" t="n">
-        <v>26.63887245804138</v>
+        <v>26.63887509037928</v>
       </c>
       <c r="M127" t="n">
-        <v>-3.710971648328741</v>
+        <v>-3.710971648328743</v>
       </c>
       <c r="N127" t="n">
         <v>24.87449192945143</v>
@@ -8328,16 +8328,16 @@
         <v>30.37848081490705</v>
       </c>
       <c r="Q127" t="n">
-        <v>-30.8173845515035</v>
+        <v>-30.81738455150352</v>
       </c>
       <c r="R127" t="b">
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>267.8180840698836</v>
+        <v>267.8180720175218</v>
       </c>
       <c r="T127" t="n">
-        <v>-32.10476141985325</v>
+        <v>-32.10476110190157</v>
       </c>
     </row>
     <row r="128">
@@ -8369,16 +8369,16 @@
         <v>2.431018416572228</v>
       </c>
       <c r="J128" t="n">
-        <v>220.6683541816387</v>
+        <v>220.6683367529609</v>
       </c>
       <c r="K128" t="n">
         <v>-27.13975296165725</v>
       </c>
       <c r="L128" t="n">
-        <v>26.74805634547691</v>
+        <v>26.74805898860389</v>
       </c>
       <c r="M128" t="n">
-        <v>-3.316314913161561</v>
+        <v>-3.316314913161558</v>
       </c>
       <c r="N128" t="n">
         <v>24.23070233149182</v>
@@ -8390,16 +8390,16 @@
         <v>31.1169872781923</v>
       </c>
       <c r="Q128" t="n">
-        <v>-29.13554242888421</v>
+        <v>-29.13554242888423</v>
       </c>
       <c r="R128" t="b">
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>302.7641001367998</v>
+        <v>302.7640853512489</v>
       </c>
       <c r="T128" t="n">
-        <v>-23.24550866801221</v>
+        <v>-23.24550860278603</v>
       </c>
     </row>
     <row r="129">
@@ -8431,16 +8431,16 @@
         <v>-4.553099426526963</v>
       </c>
       <c r="J129" t="n">
-        <v>201.4960010570861</v>
+        <v>201.4959851426661</v>
       </c>
       <c r="K129" t="n">
         <v>-33.47007789720015</v>
       </c>
       <c r="L129" t="n">
-        <v>26.53139314065202</v>
+        <v>26.53139576236929</v>
       </c>
       <c r="M129" t="n">
-        <v>-4.099467034371187</v>
+        <v>-4.099467034371183</v>
       </c>
       <c r="N129" t="n">
         <v>23.51751322560586</v>
@@ -8452,16 +8452,16 @@
         <v>29.70019990887646</v>
       </c>
       <c r="Q129" t="n">
-        <v>-32.36207164016612</v>
+        <v>-32.36207164016614</v>
       </c>
       <c r="R129" t="b">
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>281.2451073322205</v>
+        <v>281.2450940395177</v>
       </c>
       <c r="T129" t="n">
-        <v>-28.70084285705873</v>
+        <v>-28.70084268442525</v>
       </c>
     </row>
     <row r="130">
@@ -8472,37 +8472,37 @@
         <v>39.72000122070312</v>
       </c>
       <c r="C130" t="n">
-        <v>80.96082305908203</v>
+        <v>80.9608154296875</v>
       </c>
       <c r="D130" t="n">
         <v>154.6699981689453</v>
       </c>
       <c r="E130" t="n">
-        <v>101.9550247192383</v>
+        <v>101.9550323486328</v>
       </c>
       <c r="F130" t="n">
         <v>-18.37237701344637</v>
       </c>
       <c r="G130" t="n">
-        <v>-1.192355168689629</v>
+        <v>-1.19236447989074</v>
       </c>
       <c r="H130" t="n">
         <v>-2.888181063677542</v>
       </c>
       <c r="I130" t="n">
-        <v>-8.235105804190335</v>
+        <v>-8.235098937333273</v>
       </c>
       <c r="J130" t="n">
-        <v>164.4763960758604</v>
+        <v>164.4763830852976</v>
       </c>
       <c r="K130" t="n">
-        <v>-45.69320601267874</v>
+        <v>-45.69320601267873</v>
       </c>
       <c r="L130" t="n">
-        <v>26.21504470321409</v>
+        <v>26.21504482327956</v>
       </c>
       <c r="M130" t="n">
-        <v>-5.242941995987766</v>
+        <v>-5.242950925479245</v>
       </c>
       <c r="N130" t="n">
         <v>22.83828486197605</v>
@@ -8511,19 +8511,19 @@
         <v>-16.58846773543204</v>
       </c>
       <c r="P130" t="n">
-        <v>27.25435702232445</v>
+        <v>27.25435906179471</v>
       </c>
       <c r="Q130" t="n">
-        <v>-37.9321266043609</v>
+        <v>-37.93212195976106</v>
       </c>
       <c r="R130" t="b">
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>240.784082663375</v>
+        <v>240.7840718323479</v>
       </c>
       <c r="T130" t="n">
-        <v>-38.95821936181949</v>
+        <v>-38.95821907475836</v>
       </c>
     </row>
     <row r="131">
@@ -8546,25 +8546,25 @@
         <v>15.73514553857147</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.1257668778141707</v>
+        <v>-0.1257574661015504</v>
       </c>
       <c r="H131" t="n">
         <v>-1.784440770356255</v>
       </c>
       <c r="I131" t="n">
-        <v>-5.964418317456821</v>
+        <v>-5.964425354231128</v>
       </c>
       <c r="J131" t="n">
-        <v>190.3569963749943</v>
+        <v>190.3569813403475</v>
       </c>
       <c r="K131" t="n">
         <v>-37.14795294144155</v>
       </c>
       <c r="L131" t="n">
-        <v>26.18207485997327</v>
+        <v>26.18207744717242</v>
       </c>
       <c r="M131" t="n">
-        <v>-5.362114989347972</v>
+        <v>-5.362114989347962</v>
       </c>
       <c r="N131" t="n">
         <v>22.43074919564885</v>
@@ -8573,19 +8573,19 @@
         <v>-18.07689712433985</v>
       </c>
       <c r="P131" t="n">
-        <v>25.62879315977985</v>
+        <v>25.62879315977984</v>
       </c>
       <c r="Q131" t="n">
-        <v>-41.63411421442632</v>
+        <v>-41.63411421442633</v>
       </c>
       <c r="R131" t="b">
         <v>0</v>
       </c>
       <c r="S131" t="n">
-        <v>264.5986135903962</v>
+        <v>264.5986011429486</v>
       </c>
       <c r="T131" t="n">
-        <v>-32.92093750843097</v>
+        <v>-32.92093733119022</v>
       </c>
     </row>
     <row r="132">
@@ -8593,61 +8593,61 @@
         <v>44895</v>
       </c>
       <c r="B132" t="n">
-        <v>42.7400016784668</v>
+        <v>43.54999923706055</v>
       </c>
       <c r="C132" t="n">
-        <v>80.58999633789062</v>
+        <v>80.68000030517578</v>
       </c>
       <c r="D132" t="n">
-        <v>151.4799957275391</v>
+        <v>156.4700012207031</v>
       </c>
       <c r="E132" t="n">
-        <v>95.73999786376953</v>
+        <v>94.22000122070312</v>
       </c>
       <c r="F132" t="n">
-        <v>-7.026320331663727</v>
+        <v>-5.264306981468392</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.3326838297769141</v>
+        <v>-0.2213740609270265</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.2830675559239437</v>
+        <v>3.001775688674502</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.1397695775487651</v>
+        <v>-1.72518025652062</v>
       </c>
       <c r="J132" t="n">
-        <v>176.9819040359536</v>
+        <v>180.3360054819351</v>
       </c>
       <c r="K132" t="n">
-        <v>-41.5641391027839</v>
+        <v>-40.45667764274103</v>
       </c>
       <c r="L132" t="n">
-        <v>26.09497133061405</v>
+        <v>26.12411711909255</v>
       </c>
       <c r="M132" t="n">
-        <v>-5.676959929621285</v>
+        <v>-5.571618718571493</v>
       </c>
       <c r="N132" t="n">
-        <v>22.3672550221253</v>
+        <v>23.10406997179139</v>
       </c>
       <c r="O132" t="n">
-        <v>-18.30879484938704</v>
+        <v>-15.61774933881048</v>
       </c>
       <c r="P132" t="n">
-        <v>25.59297190384957</v>
+        <v>25.18665028020281</v>
       </c>
       <c r="Q132" t="n">
-        <v>-41.71569196642141</v>
+        <v>-42.64103095254242</v>
       </c>
       <c r="R132" t="b">
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>251.0371022925426</v>
+        <v>254.7508428530219</v>
       </c>
       <c r="T132" t="n">
-        <v>-36.35895047261478</v>
+        <v>-35.41746751927089</v>
       </c>
     </row>
   </sheetData>
